--- a/DOCS/Theses/Ruocco/Latex/Giordano.xlsx
+++ b/DOCS/Theses/Ruocco/Latex/Giordano.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="113" windowWidth="23310" windowHeight="9983"/>
+    <workbookView xWindow="360" yWindow="113" windowWidth="23310" windowHeight="9983" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Giordano" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Delft" sheetId="2" r:id="rId2"/>
+    <sheet name="Roskam" sheetId="3" r:id="rId3"/>
+    <sheet name="Grafici" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -205,7 +206,7 @@
     <author>Manuela Ruocco</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +255,91 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuela Ruocco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+rad
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Manuela Ruocco</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuela Ruocco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+rad</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuela Ruocco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+rad
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
   <si>
     <t>AR</t>
   </si>
@@ -415,14 +500,50 @@
     <t>Φ_80</t>
   </si>
   <si>
-    <t>X2</t>
+    <t>Kε_Λ</t>
+  </si>
+  <si>
+    <t>Colonna1</t>
+  </si>
+  <si>
+    <t>Kε_Λ0</t>
+  </si>
+  <si>
+    <t>dε/dα_k</t>
+  </si>
+  <si>
+    <t>dε/dα_1</t>
+  </si>
+  <si>
+    <t>dε/dα_2</t>
+  </si>
+  <si>
+    <t>dε/dα_3</t>
+  </si>
+  <si>
+    <t>K_A</t>
+  </si>
+  <si>
+    <t>K_λ</t>
+  </si>
+  <si>
+    <t>K_H</t>
+  </si>
+  <si>
+    <t>Λ_c/4</t>
+  </si>
+  <si>
+    <t>r (X/b/2)</t>
+  </si>
+  <si>
+    <t>m (m/b/2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,8 +598,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,13 +637,49 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -525,16 +690,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
@@ -543,6 +702,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
@@ -551,7 +723,7 @@
     <cellStyle name="Colore 1" xfId="1" builtinId="29"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="66">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -598,28 +770,21 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -702,6 +867,27 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -713,6 +899,27 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -800,61 +1007,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.206832885446086</c:v>
+                  <c:v>0.22655001596372387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21085850017699662</c:v>
+                  <c:v>0.23286994543776071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21494104434381267</c:v>
+                  <c:v>0.23926770910162115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21908698028571066</c:v>
+                  <c:v>0.24573791845585397</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22330313202913496</c:v>
+                  <c:v>0.25227514749572488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22759665627762884</c:v>
+                  <c:v>0.25887393518644225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23197501260355982</c:v>
+                  <c:v>0.26552878795398371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23644593296237526</c:v>
+                  <c:v>0.27223418227426305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24101740078162276</c:v>
+                  <c:v>0.27898458078661209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24567767303069005</c:v>
+                  <c:v>0.28574816564590844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25036888875471919</c:v>
+                  <c:v>0.29243391574571787</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25772128269837569</c:v>
+                  <c:v>0.3021095835351254</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26300030051832968</c:v>
+                  <c:v>0.30941023491118952</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25829712395822602</c:v>
+                  <c:v>0.30526218596978022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.24324317882310842</c:v>
+                  <c:v>0.28913241559493169</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21737101294676683</c:v>
+                  <c:v>0.26037281579075644</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18005523618271074</c:v>
+                  <c:v>0.21814783177944053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13047037842941522</c:v>
+                  <c:v>0.16138221777333633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.5903354258745966E-2</c:v>
+                  <c:v>8.6515515763857465E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,11 +1078,1415 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138230272"/>
-        <c:axId val="146904128"/>
+        <c:axId val="198394368"/>
+        <c:axId val="171146560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138230272"/>
+        <c:axId val="198394368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>_a</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171146560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171146560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198394368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>d</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ε/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>d</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Giordano</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Giordano!$M$7:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.22655001596372387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23286994543776071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23926770910162115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24573791845585397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25227514749572488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25887393518644225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26552878795398371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27223418227426305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27898458078661209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28574816564590844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29243391574571787</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3021095835351254</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30941023491118952</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30526218596978022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28913241559493169</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26037281579075644</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21814783177944053</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16138221777333633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6515515763857465E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.2558556826546547E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Slingerland</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Delft!$P$7:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.23438014029411439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23769520799969651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24101781007506587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24434543801554956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24767557364722045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25100570085486645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25433331691224792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25765594330296093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26095978436525669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26410867011755362</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26788806944964777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27505694766978228</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27999848151476864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27308717441307639</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25338620614989016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.219456662906066</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16913087654917869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6195689958012046E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3749809662669195E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.9560999519654567E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.18759250970670097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Roskam</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Roskam!$K$6:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.21141554710975663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21280697809328983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2142070939819975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21561520494021139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21703065872248389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21845284103266394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21988117574318772</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22131512497069225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22274923908738847</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22412440495347286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2257909540841605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22785398337878934</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23043337713057238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23367857539408221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2377880977557085</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24303346885342084</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24979594951221692</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25831073071076377</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25976507839472718</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25976507839472718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25976507839472718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="148059648"/>
+        <c:axId val="140154496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148059648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+                  <a:t>_a (deg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39925947543775658"/>
+              <c:y val="0.86844717161299489"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140154496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140154496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148059648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ε</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+              <a:t>_a) Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Giordano</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Giordano!$N$7:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23286994543776071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4785354182032423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73721375536756195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0091005899828995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2943696759322112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5931727277239023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9056392759198413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2318766462928967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5717334908131759</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9243391574571787</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3232054188863795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.712922818934274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9684084176071428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0478538183290436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9055922368613465</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4903653084710484</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7434977021467177</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5572792837494345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.42861257970438438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Slingerland</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Delft!$Q$7:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23769520799969651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48203562015013174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73303631404664871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99070229458888182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2550285042743323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5259999014734875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8035916031207266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0876782749220535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3769780310579827</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6788806944964776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.025626424367605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3599817781772234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.550133267369993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5474068860984622</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2918499435909898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.706094024786859</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6353267292862048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6749657392804556E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.8916589908734367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Roskam</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Roskam!$L$6:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21280697809328983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.428414187963995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64684561482063418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86812263488993557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0922642051633198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3192870544591262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5492058747948458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7819939126991078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0171196445812556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.257909540841605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5063938171666829</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7652005255668684</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0378214801230685</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3290333685799189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6455020328013124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9967351921954708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.391282422082984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6757714111050888</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9355364894998166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="144143872"/>
+        <c:axId val="141890048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144143872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>_a (deg)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141890048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141890048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144143872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ε</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Giordano!$K$7:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.26169658966204845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49137682603625976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72740435320603358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9698556665069914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2188018648497776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.474308613624947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7364361100853176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0052390512078233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2807666020495736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5630620752536322</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8526650303157401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1513998528431717</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4501707619827386</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.737346392247209</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0008207610020614</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2278976266645323</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4051231875751782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5180671085432493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5510576816214252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5172341741519597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198394880"/>
+        <c:axId val="196813952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198394880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>_a</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196813952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196813952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198394880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Giordano!$E$7:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.115402510819653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21368534516743501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31196817951521699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.410251013862999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50853384821078196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60681668255856303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70509951690631101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80338235124850899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90166518473535795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99994789521852601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0984346730599399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.19784355761298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.29450022632146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.38385770413853</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4613690340788399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.52248725921424</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5626654226636201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.57735657790398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5620159470931601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.52305821961917</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.52305821961917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198395392"/>
+        <c:axId val="196815680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198395392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>_a</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196815680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196815680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198395392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Distanza m (metri)</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Giordano!$H$7:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.4337679290079439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2281617210034952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0212677636966907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8131490697078543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.603869024669009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3934913679188523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1820801730899899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9696998285943637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7564150180128082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.542290700394704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3273920904737415</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1117846388058026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8955340118350281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6787060718941269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4613668571450267</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2435825614659741</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0254195142912084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80694416040934802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58822303972664769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36932276700128197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198395904"/>
+        <c:axId val="196817408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198395904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +2546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146904128"/>
+        <c:crossAx val="196817408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -943,7 +2554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146904128"/>
+        <c:axId val="196817408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +2565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138230272"/>
+        <c:crossAx val="198395904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,7 +2587,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1008,69 +2619,69 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Giordano!$K$7:$K$26</c:f>
+              <c:f>Giordano!$N$7:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.24011157850458509</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44893840769120735</c:v>
+                  <c:v>0.23286994543776071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66180820395006867</c:v>
+                  <c:v>0.4785354182032423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87877943172764628</c:v>
+                  <c:v>0.73721375536756195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0999170950214754</c:v>
+                  <c:v>1.0091005899828995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3252930943570771</c:v>
+                  <c:v>1.2943696759322112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5549865546334933</c:v>
+                  <c:v>1.5931727277239023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7890841230342629</c:v>
+                  <c:v>1.9056392759198413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0276802344801133</c:v>
+                  <c:v>2.2318766462928967</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2708770857160601</c:v>
+                  <c:v>2.5717334908131759</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5192318467058437</c:v>
+                  <c:v>2.9243391574571787</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7744516608796141</c:v>
+                  <c:v>3.3232054188863795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0285677385838339</c:v>
+                  <c:v>3.712922818934274</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2714567582257779</c:v>
+                  <c:v>3.9684084176071428</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4926760898561966</c:v>
+                  <c:v>4.0478538183290436</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6813620341545001</c:v>
+                  <c:v>3.9055922368613465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8260875661995133</c:v>
+                  <c:v>3.4903653084710484</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.9146789786805392</c:v>
+                  <c:v>2.7434977021467177</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9339954476952954</c:v>
+                  <c:v>1.5572792837494345</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8960976509249394</c:v>
+                  <c:v>-0.42861257970438438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,47 +2698,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138228224"/>
-        <c:axId val="166301632"/>
+        <c:axId val="149456896"/>
+        <c:axId val="210538432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138228224"/>
+        <c:axId val="149456896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>α</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>_a</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166301632"/>
+        <c:crossAx val="210538432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,7 +2719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166301632"/>
+        <c:axId val="210538432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +2730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138228224"/>
+        <c:crossAx val="149456896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,202 +2752,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>CL</c:v>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Giordano!$E$7:$E$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.115402510819653</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21368534516743501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31196817951521699</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.410251013862999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50853384821078196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60681668255856303</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70509951690631101</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.80338235124850899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90166518473535795</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99994789521852601</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0984346730599399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.19784355761298</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.29450022632146</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.38385770413853</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4613690340788399</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.52248725921424</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5626654226636201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.57735657790398</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5620159470931601</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.52305821961917</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.52305821961917</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="143890944"/>
-        <c:axId val="196488576"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="143890944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>α</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>_a</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196488576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="196488576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143890944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1391,73 +2780,76 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Distanza m (metri)</c:v>
+            <c:v>dε/dα</c:v>
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Giordano!$H$7:$H$26</c:f>
+              <c:f>Delft!$P$7:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.4337679290079439</c:v>
+                  <c:v>0.23438014029411439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2281617210034952</c:v>
+                  <c:v>0.23769520799969651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0212677636966907</c:v>
+                  <c:v>0.24101781007506587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8131490697078543</c:v>
+                  <c:v>0.24434543801554956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.603869024669009</c:v>
+                  <c:v>0.24767557364722045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3934913679188523</c:v>
+                  <c:v>0.25100570085486645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1820801730899899</c:v>
+                  <c:v>0.25433331691224792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9696998285943637</c:v>
+                  <c:v>0.25765594330296093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7564150180128082</c:v>
+                  <c:v>0.26095978436525669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.542290700394704</c:v>
+                  <c:v>0.26410867011755362</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3273920904737415</c:v>
+                  <c:v>0.26788806944964777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1117846388058026</c:v>
+                  <c:v>0.27505694766978228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8955340118350281</c:v>
+                  <c:v>0.27999848151476864</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6787060718941269</c:v>
+                  <c:v>0.27308717441307639</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4613668571450267</c:v>
+                  <c:v>0.25338620614989016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2435825614659741</c:v>
+                  <c:v>0.219456662906066</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0254195142912084</c:v>
+                  <c:v>0.16913087654917869</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.80694416040934802</c:v>
+                  <c:v>9.6195689958012046E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.58822303972664769</c:v>
+                  <c:v>5.3749809662669195E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.36932276700128197</c:v>
+                  <c:v>-9.9560999519654567E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.18759250970670097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,71 +2866,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134847488"/>
-        <c:axId val="143945664"/>
+        <c:axId val="128502272"/>
+        <c:axId val="126348096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134847488"/>
+        <c:axId val="128502272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>α</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>_a</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143945664"/>
+        <c:crossAx val="126348096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,7 +2887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143945664"/>
+        <c:axId val="126348096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +2898,494 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134847488"/>
+        <c:crossAx val="128502272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ε</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Delft!$Q$7:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23769520799969651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48203562015013174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73303631404664871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99070229458888182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2550285042743323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5259999014734875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8035916031207266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0876782749220535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3769780310579827</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6788806944964776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.025626424367605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3599817781772234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.550133267369993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5474068860984622</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2918499435909898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.706094024786859</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6353267292862048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6749657392804556E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.8916589908734367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="126536192"/>
+        <c:axId val="199804032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="126536192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199804032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199804032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126536192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Roskam!$K$6:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.21141554710975663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21280697809328983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2142070939819975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21561520494021139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21703065872248389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21845284103266394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21988117574318772</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22131512497069225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22274923908738847</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22412440495347286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2257909540841605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22785398337878934</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23043337713057238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23367857539408221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2377880977557085</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24303346885342084</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24979594951221692</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25831073071076377</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25976507839472718</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25976507839472718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25976507839472718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="126534144"/>
+        <c:axId val="8128768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="126534144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="8128768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8128768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126534144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Roskam!$L$6:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21280697809328983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.428414187963995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64684561482063418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86812263488993557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0922642051633198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3192870544591262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5492058747948458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7819939126991078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0171196445812556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.257909540841605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5063938171666829</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7652005255668684</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0378214801230685</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3290333685799189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6455020328013124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9967351921954708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.391282422082984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6757714111050888</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9355364894998166</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1953015678945436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="148474368"/>
+        <c:axId val="140150464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148474368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140150464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140150464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148474368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1701,6 +3529,231 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>306500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>26534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>597692</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>57829</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40480</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426244</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16668</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54768</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259555</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297655</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21429</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1717,10 +3770,10 @@
     <tableColumn id="5" name="r = 1/λ"/>
     <tableColumn id="6" name="X0"/>
     <tableColumn id="7" name="m0"/>
-    <tableColumn id="8" name="d" dataDxfId="58">
+    <tableColumn id="8" name="d" dataDxfId="65">
       <calculatedColumnFormula xml:space="preserve"> SQRT(I2^2 + (H2-0.75*B2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="φ" dataDxfId="57">
+    <tableColumn id="9" name="φ" dataDxfId="64">
       <calculatedColumnFormula>ATAN((Tabella2[[#This Row],[m0]]/(Tabella2[[#This Row],[X0]]-0.75*Tabella2[[#This Row],[Cr]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1729,34 +3782,65 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabella22" displayName="Tabella22" ref="BC35:BC55" totalsRowShown="0">
-  <autoFilter ref="BC35:BC55"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Φ_90" dataDxfId="17">
-      <calculatedColumnFormula>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I7-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="AQ6:BA27" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="20% - Colore 1">
+  <autoFilter ref="AQ6:BA27"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="m1">
+      <calculatedColumnFormula>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="m2">
+      <calculatedColumnFormula>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="m2meno">
+      <calculatedColumnFormula>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="m3">
+      <calculatedColumnFormula>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="m3meno">
+      <calculatedColumnFormula>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="m4">
+      <calculatedColumnFormula>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="m4meno">
+      <calculatedColumnFormula>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Φ_1" dataDxfId="19">
+      <calculatedColumnFormula>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Φ_2" dataDxfId="18">
+      <calculatedColumnFormula>Tabella9[[#This Row],[Φ_2]]+(Tabella11[[#This Row],[Φ_2]]-Tabella9[[#This Row],[Φ_2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Φ_3" dataDxfId="17">
+      <calculatedColumnFormula>Tabella9[[#This Row],[Φ_3]]+(Tabella11[[#This Row],[Φ_3]]-Tabella9[[#This Row],[Φ_3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Φ_4" dataDxfId="16">
+      <calculatedColumnFormula>Tabella9[[#This Row],[Φ_4]]+(Tabella11[[#This Row],[Φ_4]]-Tabella9[[#This Row],[Φ_4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabella224" displayName="Tabella224" ref="A1:K2" totalsRowShown="0">
-  <autoFilter ref="A1:K2"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabella224" displayName="Tabella224" ref="A1:L2" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="AR"/>
     <tableColumn id="2" name="Cr"/>
     <tableColumn id="3" name="b/2"/>
+    <tableColumn id="12" name="Λ_c/4"/>
     <tableColumn id="10" name="α0_w"/>
     <tableColumn id="11" name="iw"/>
     <tableColumn id="4" name="λ"/>
     <tableColumn id="5" name="r = 1/λ"/>
     <tableColumn id="6" name="X0"/>
     <tableColumn id="7" name="m0"/>
-    <tableColumn id="8" name="d" dataDxfId="16">
-      <calculatedColumnFormula xml:space="preserve"> SQRT(I2^2 + (H2-0.75*B2)^2)</calculatedColumnFormula>
+    <tableColumn id="8" name="d" dataDxfId="24">
+      <calculatedColumnFormula xml:space="preserve"> SQRT(J2^2 + (I2-0.75*B2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="φ" dataDxfId="15">
+    <tableColumn id="9" name="φ" dataDxfId="23">
       <calculatedColumnFormula>ATAN((Tabella224[[#This Row],[m0]]/(Tabella224[[#This Row],[X0]]-0.75*Tabella224[[#This Row],[Cr]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1765,38 +3849,76 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabella24" displayName="Tabella24" ref="A6:L27" totalsRowShown="0" headerRowCellStyle="Colore 1" dataCellStyle="Colore 1">
-  <autoFilter ref="A6:L27"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabella24" displayName="Tabella24" ref="A6:Q27" totalsRowShown="0" headerRowCellStyle="Colore 1" dataCellStyle="Colore 1">
+  <autoFilter ref="A6:Q27"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="α_abs">
       <calculatedColumnFormula>A6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="α_b" dataDxfId="3">
+    <tableColumn id="2" name="α_b" dataDxfId="22">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_abs]]+Tabella224[α0_w]*57.3-Tabella224[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="α_w" dataDxfId="2">
+    <tableColumn id="3" name="α_w" dataDxfId="21">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_b]]+Tabella224[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="CL_α"/>
     <tableColumn id="5" name="CL"/>
-    <tableColumn id="14" name="X"/>
-    <tableColumn id="6" name="X2" dataDxfId="1">
-      <calculatedColumnFormula>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A8+J6/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J6/57.3))</calculatedColumnFormula>
+    <tableColumn id="14" name="X" dataDxfId="14"/>
+    <tableColumn id="8" name="m" dataDxfId="20"/>
+    <tableColumn id="6" name="r (X/b/2)" dataDxfId="13">
+      <calculatedColumnFormula>Tabella24[[#This Row],[X]]/Tabella224[b/2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m" dataDxfId="0">
-      <calculatedColumnFormula>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</calculatedColumnFormula>
+    <tableColumn id="7" name="m (m/b/2)" dataDxfId="12">
+      <calculatedColumnFormula>Tabella24[[#This Row],[m]]/Tabella224[b/2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ">
-      <calculatedColumnFormula>Tabella14[[#This Row],[Φ_80]]+(BC36-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</calculatedColumnFormula>
+    <tableColumn id="11" name="Kε_Λ" dataDxfId="11">
+      <calculatedColumnFormula>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="ε">
-      <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</calculatedColumnFormula>
+    <tableColumn id="9" name="Kε_Λ0" dataDxfId="10">
+      <calculatedColumnFormula>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="dΦ/dα">
-      <calculatedColumnFormula>(I8-Tabella3[[#This Row],[Φ]])/(B8-Tabella3[[#This Row],[α_b]])</calculatedColumnFormula>
+    <tableColumn id="13" name="dε/dα_k" dataDxfId="9">
+      <calculatedColumnFormula>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="dε/dα">
-      <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</calculatedColumnFormula>
+    <tableColumn id="10" name="dε/dα_1" dataDxfId="8" dataCellStyle="Normale">
+      <calculatedColumnFormula>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="dε/dα_2" dataDxfId="7" dataCellStyle="Normale">
+      <calculatedColumnFormula>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="dε/dα_3" dataDxfId="6" dataCellStyle="Normale">
+      <calculatedColumnFormula>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="dε/dα" dataDxfId="5" dataCellStyle="Normale">
+      <calculatedColumnFormula>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="ε" dataDxfId="4" dataCellStyle="Normale">
+      <calculatedColumnFormula>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabella2245" displayName="Tabella2245" ref="A1:L2" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="AR"/>
+    <tableColumn id="2" name="Cr"/>
+    <tableColumn id="3" name="b/2"/>
+    <tableColumn id="12" name="Λ_c/4"/>
+    <tableColumn id="10" name="α0_w"/>
+    <tableColumn id="11" name="iw"/>
+    <tableColumn id="4" name="λ"/>
+    <tableColumn id="5" name="r = 1/λ"/>
+    <tableColumn id="6" name="X0"/>
+    <tableColumn id="7" name="m0"/>
+    <tableColumn id="8" name="d" dataDxfId="1">
+      <calculatedColumnFormula xml:space="preserve"> SQRT(J2^2 + (I2-0.75*B2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="φ" dataDxfId="0">
+      <calculatedColumnFormula>ATAN((Tabella2245[[#This Row],[m0]]/(Tabella2245[[#This Row],[X0]]-0.75*Tabella2245[[#This Row],[Cr]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1804,41 +3926,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabella3" displayName="Tabella3" ref="A6:M27" totalsRowShown="0">
-  <autoFilter ref="A6:M27"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabella3" displayName="Tabella3" ref="A6:N27" totalsRowShown="0">
+  <autoFilter ref="A6:N27"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="α_abs"/>
-    <tableColumn id="2" name="α_b" dataDxfId="14">
+    <tableColumn id="2" name="α_b" dataDxfId="63">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_abs]]+Tabella2[α0_w]*57.3-Tabella2[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="α_w" dataDxfId="13">
+    <tableColumn id="3" name="α_w" dataDxfId="62">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_b]]+Tabella2[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="CL_α"/>
-    <tableColumn id="5" name="CL" dataDxfId="12"/>
-    <tableColumn id="6" name="X" dataDxfId="11">
+    <tableColumn id="5" name="CL" dataDxfId="61"/>
+    <tableColumn id="6" name="X" dataDxfId="60">
       <calculatedColumnFormula>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A8/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="X_p" dataDxfId="10">
+    <tableColumn id="7" name="X_p" dataDxfId="59">
       <calculatedColumnFormula>(Tabella3[[#This Row],[X]]/Tabella2[b/2])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m" dataDxfId="9">
+    <tableColumn id="8" name="m" dataDxfId="58">
       <calculatedColumnFormula>Tabella2[d]*SIN(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A8/57.3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="m_P" dataDxfId="8">
+    <tableColumn id="9" name="m_P" dataDxfId="57">
       <calculatedColumnFormula>Tabella3[[#This Row],[m]]/Tabella2[b/2]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ" dataDxfId="7">
-      <calculatedColumnFormula>Tabella14[[#This Row],[Φ_80]]+(BC36-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</calculatedColumnFormula>
+    <tableColumn id="10" name="Φ" dataDxfId="2">
+      <calculatedColumnFormula>Tabella14[[#This Row],[Φ_80]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="ε" dataDxfId="6">
+    <tableColumn id="11" name="ε" dataDxfId="56">
       <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="dΦ/dα" dataDxfId="5">
+    <tableColumn id="12" name="dΦ/dα" dataDxfId="55">
       <calculatedColumnFormula>(J8-Tabella3[[#This Row],[Φ]])/(B8-Tabella3[[#This Row],[α_b]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="dε/dα" dataDxfId="4">
+    <tableColumn id="13" name="dε/dα" dataDxfId="54">
       <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Colonna1" dataDxfId="3">
+      <calculatedColumnFormula>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1900,7 +4025,7 @@
     <tableColumn id="6" name="m3meno">
       <calculatedColumnFormula>AG7-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="18">
+    <tableColumn id="7" name="m4" dataDxfId="53">
       <calculatedColumnFormula>Tabella11[[#This Row],[m3]]+10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="m4meno">
@@ -1916,85 +4041,41 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabella12" displayName="Tabella12" ref="AQ6:BA27" totalsRowShown="0" headerRowCellStyle="20% - Colore 1">
-  <autoFilter ref="AQ6:BA27"/>
-  <tableColumns count="15">
-    <tableColumn id="8" name="m1"/>
-    <tableColumn id="9" name="m2"/>
-    <tableColumn id="10" name="m2meno"/>
-    <tableColumn id="11" name="m3"/>
-    <tableColumn id="1" name="m3meno" dataDxfId="56">
-      <calculatedColumnFormula>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="m4" dataDxfId="55">
-      <calculatedColumnFormula>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="m4meno" dataDxfId="54">
-      <calculatedColumnFormula>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="Φ_1" dataDxfId="46">
-      <calculatedColumnFormula>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="Φ_2" dataDxfId="47">
-      <calculatedColumnFormula>Tabella9[[#This Row],[Φ_2]]+(Tabella11[[#This Row],[Φ_2]]-Tabella9[[#This Row],[Φ_2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="Φ_3" dataDxfId="49">
-      <calculatedColumnFormula>Tabella9[[#This Row],[Φ_3]]+(Tabella11[[#This Row],[Φ_3]]-Tabella9[[#This Row],[Φ_3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="Φ_4" dataDxfId="48">
-      <calculatedColumnFormula>Tabella9[[#This Row],[Φ_4]]+(Tabella11[[#This Row],[Φ_4]]-Tabella9[[#This Row],[Φ_4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="Φ_5" dataDxfId="53">
-      <calculatedColumnFormula>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="Φ_6" dataDxfId="52">
-      <calculatedColumnFormula>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="Φ_7" dataDxfId="50">
-      <calculatedColumnFormula>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="Φ_8" dataDxfId="51">
-      <calculatedColumnFormula>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabella14" displayName="Tabella14" ref="BC6:BC27" totalsRowShown="0">
   <autoFilter ref="BC6:BC27"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Φ_80"/>
+    <tableColumn id="1" name="Φ_80">
+      <calculatedColumnFormula>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabella18" displayName="Tabella18" ref="Q35:AB56" totalsRowShown="0" headerRowCellStyle="Neutrale" dataCellStyle="Neutrale">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabella18" displayName="Tabella18" ref="Q35:AB56" totalsRowShown="0">
   <autoFilter ref="Q35:AB56"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mTab"/>
-    <tableColumn id="2" name="m1" dataDxfId="43">
+    <tableColumn id="2" name="m1" dataDxfId="52">
       <calculatedColumnFormula>E7*Tabella18[[#This Row],[mTab]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2" dataDxfId="42">
+    <tableColumn id="3" name="m2" dataDxfId="51">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m2meno" dataDxfId="39">
+    <tableColumn id="4" name="m2meno" dataDxfId="50">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3" dataDxfId="41">
+    <tableColumn id="5" name="m3" dataDxfId="49">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m3meno" dataDxfId="38">
+    <tableColumn id="6" name="m3meno" dataDxfId="48">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2meno]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="40">
+    <tableColumn id="7" name="m4" dataDxfId="47">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m4meno" dataDxfId="37">
+    <tableColumn id="8" name="m4meno" dataDxfId="46">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3meno]]-10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Φ_1"/>
@@ -2006,30 +4087,30 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabella19" displayName="Tabella19" ref="AD35:AO56" totalsRowShown="0" headerRowDxfId="45" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AD35:AO56"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mTab"/>
-    <tableColumn id="2" name="m1" dataDxfId="36">
+    <tableColumn id="2" name="m1" dataDxfId="44">
       <calculatedColumnFormula>Tabella19[[#This Row],[mTab]]*E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2" dataDxfId="35">
+    <tableColumn id="3" name="m2" dataDxfId="43">
       <calculatedColumnFormula>Tabella19[[#This Row],[m1]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m2meno" dataDxfId="32">
+    <tableColumn id="4" name="m2meno" dataDxfId="42">
       <calculatedColumnFormula>Tabella19[[#This Row],[m1]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3" dataDxfId="34">
+    <tableColumn id="5" name="m3" dataDxfId="41">
       <calculatedColumnFormula>Tabella19[[#This Row],[m2]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m3meno" dataDxfId="31">
+    <tableColumn id="6" name="m3meno" dataDxfId="40">
       <calculatedColumnFormula>Tabella19[[#This Row],[m2meno]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="33">
+    <tableColumn id="7" name="m4" dataDxfId="39">
       <calculatedColumnFormula>Tabella19[[#This Row],[m3]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m4meno" dataDxfId="30">
+    <tableColumn id="8" name="m4meno" dataDxfId="38">
       <calculatedColumnFormula>Tabella19[[#This Row],[m3meno]]-10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Φ_1"/>
@@ -2041,45 +4122,57 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabella21" displayName="Tabella21" ref="AQ35:BA55" totalsRowShown="0" headerRowDxfId="44" headerRowCellStyle="20% - Colore 1">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabella21" displayName="Tabella21" ref="AQ35:BA55" totalsRowShown="0" headerRowDxfId="37" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AQ35:BA55"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="m1" dataDxfId="29">
+    <tableColumn id="1" name="m1" dataDxfId="36">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="m2" dataDxfId="28">
+    <tableColumn id="2" name="m2" dataDxfId="35">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2meno" dataDxfId="27">
+    <tableColumn id="3" name="m2meno" dataDxfId="34">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m3" dataDxfId="26">
+    <tableColumn id="4" name="m3" dataDxfId="33">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3meno" dataDxfId="25">
+    <tableColumn id="5" name="m3meno" dataDxfId="32">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m4" dataDxfId="24">
+    <tableColumn id="6" name="m4" dataDxfId="31">
       <calculatedColumnFormula>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4meno" dataDxfId="23">
+    <tableColumn id="7" name="m4meno" dataDxfId="30">
       <calculatedColumnFormula>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Φ_1" dataDxfId="19">
+    <tableColumn id="8" name="Φ_1" dataDxfId="29">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Φ_2" dataDxfId="20">
+    <tableColumn id="9" name="Φ_2" dataDxfId="28">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_2]]+(Tabella19[[#This Row],[Φ_2]]-Tabella18[[#This Row],[Φ_2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ_3" dataDxfId="21">
+    <tableColumn id="10" name="Φ_3" dataDxfId="27">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_3]]+(Tabella19[[#This Row],[Φ_3]]-Tabella18[[#This Row],[Φ_3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Φ_4" dataDxfId="22">
+    <tableColumn id="11" name="Φ_4" dataDxfId="26">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_4]]+(Tabella19[[#This Row],[Φ_4]]-Tabella18[[#This Row],[Φ_4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabella22" displayName="Tabella22" ref="BC35:BC55" totalsRowShown="0">
+  <autoFilter ref="BC35:BC55"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Φ_90" dataDxfId="25">
+      <calculatedColumnFormula>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I7-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2372,8 +4465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC20" sqref="BC20"/>
+    <sheetView topLeftCell="K13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2463,87 +4556,87 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AD5" s="3" t="s">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AD5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AQ5" s="3" t="s">
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AQ5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -2585,109 +4678,112 @@
       <c r="M6" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AB6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AD6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AF6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AG6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AH6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AI6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AK6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AL6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AM6" s="5" t="s">
+      <c r="AM6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AN6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AO6" s="5" t="s">
+      <c r="AO6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AQ6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AR6" s="6" t="s">
+      <c r="AR6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AS6" s="6" t="s">
+      <c r="AS6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AT6" s="6" t="s">
+      <c r="AT6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AU6" s="6" t="s">
+      <c r="AU6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AV6" s="6" t="s">
+      <c r="AV6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AW6" s="6" t="s">
+      <c r="AW6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AX6" s="6" t="s">
+      <c r="AX6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AY6" s="6" t="s">
+      <c r="AY6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AZ6" s="6" t="s">
+      <c r="AZ6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="BA6" s="6" t="s">
+      <c r="BA6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="BC6" t="s">
@@ -2729,20 +4825,24 @@
         <v>32.769903392519915</v>
       </c>
       <c r="J7">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC36-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.0806443187343042</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.2676854065248087</v>
       </c>
       <c r="K7">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.24011157850458509</v>
+        <v>0.26169658966204845</v>
       </c>
       <c r="L7">
         <f>(J8-Tabella3[[#This Row],[Φ]])/(B8-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.0287812757622706E-2</v>
+        <v>3.1849106013883251E-2</v>
       </c>
       <c r="M7">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.206832885446086</v>
+        <v>0.22655001596372387</v>
+      </c>
+      <c r="N7" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>-3.3</v>
@@ -2752,27 +4852,27 @@
         <v>-0.38082828570485489</v>
       </c>
       <c r="S7">
-        <f>R7+10</f>
+        <f t="shared" ref="S7:S28" si="0">R7+10</f>
         <v>9.6191717142951454</v>
       </c>
       <c r="T7">
-        <f>R7-10</f>
+        <f t="shared" ref="T7:T28" si="1">R7-10</f>
         <v>-10.380828285704855</v>
       </c>
       <c r="U7">
-        <f>S7+10</f>
+        <f t="shared" ref="U7:U28" si="2">S7+10</f>
         <v>19.619171714295145</v>
       </c>
       <c r="V7">
-        <f>T7-10</f>
+        <f t="shared" ref="V7:V28" si="3">T7-10</f>
         <v>-20.380828285704855</v>
       </c>
       <c r="W7">
-        <f>U7+10</f>
+        <f t="shared" ref="W7:W28" si="4">U7+10</f>
         <v>29.619171714295145</v>
       </c>
       <c r="X7">
-        <f>V7-10</f>
+        <f t="shared" ref="X7:X28" si="5">V7-10</f>
         <v>-30.380828285704855</v>
       </c>
       <c r="AA7">
@@ -2863,7 +4963,7 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC7">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.2676854065248087</v>
       </c>
     </row>
@@ -2903,20 +5003,24 @@
         <v>31.250271404312603</v>
       </c>
       <c r="J8">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC37-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.1009321314919269</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.2995345125386919</v>
       </c>
       <c r="K8">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.44893840769120735</v>
+        <v>0.49137682603625976</v>
       </c>
       <c r="L8">
         <f>(J9-Tabella3[[#This Row],[Φ]])/(B9-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.04643679154346E-2</v>
+        <v>3.212749971006934E-2</v>
       </c>
       <c r="M8">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.21085850017699662</v>
+        <v>0.23286994543776071</v>
+      </c>
+      <c r="N8" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>0.23286994543776071</v>
       </c>
       <c r="Q8">
         <v>-3.3</v>
@@ -2926,27 +5030,27 @@
         <v>-0.70516163905253548</v>
       </c>
       <c r="S8">
-        <f>R8+10</f>
+        <f t="shared" si="0"/>
         <v>9.2948383609474643</v>
       </c>
       <c r="T8">
-        <f>R8-10</f>
+        <f t="shared" si="1"/>
         <v>-10.705161639052536</v>
       </c>
       <c r="U8">
-        <f>S8+10</f>
+        <f t="shared" si="2"/>
         <v>19.294838360947466</v>
       </c>
       <c r="V8">
-        <f>T8-10</f>
+        <f t="shared" si="3"/>
         <v>-20.705161639052534</v>
       </c>
       <c r="W8">
-        <f>U8+10</f>
+        <f t="shared" si="4"/>
         <v>29.294838360947466</v>
       </c>
       <c r="X8">
-        <f>V8-10</f>
+        <f t="shared" si="5"/>
         <v>-30.705161639052534</v>
       </c>
       <c r="AA8">
@@ -2963,19 +5067,19 @@
         <v>-1.1111637948706621</v>
       </c>
       <c r="AF8">
-        <f t="shared" ref="AF8:AF26" si="0">AE8+10</f>
+        <f t="shared" ref="AF8:AF26" si="6">AE8+10</f>
         <v>8.888836205129337</v>
       </c>
       <c r="AG8">
-        <f t="shared" ref="AG8:AG27" si="1">AE8-10</f>
+        <f t="shared" ref="AG8:AG27" si="7">AE8-10</f>
         <v>-11.111163794870663</v>
       </c>
       <c r="AH8">
-        <f t="shared" ref="AH8:AH27" si="2">AF8+10</f>
+        <f t="shared" ref="AH8:AH27" si="8">AF8+10</f>
         <v>18.888836205129337</v>
       </c>
       <c r="AI8">
-        <f t="shared" ref="AI8:AI28" si="3">AG8-10</f>
+        <f t="shared" ref="AI8:AI28" si="9">AG8-10</f>
         <v>-21.111163794870663</v>
       </c>
       <c r="AJ8">
@@ -2983,7 +5087,7 @@
         <v>28.888836205129337</v>
       </c>
       <c r="AK8">
-        <f t="shared" ref="AK8:AK27" si="4">AI8-10</f>
+        <f t="shared" ref="AK8:AK27" si="10">AI8-10</f>
         <v>-31.111163794870663</v>
       </c>
       <c r="AN8">
@@ -3037,13 +5141,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC8">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.2995345125386919</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A9">
-        <f t="shared" ref="A9:A24" si="5">A8+1</f>
+        <f t="shared" ref="A9:A24" si="11">A8+1</f>
         <v>2</v>
       </c>
       <c r="B9">
@@ -3077,20 +5181,24 @@
         <v>29.721121682902375</v>
       </c>
       <c r="J9">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC38-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.1213964994073615</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.3316620122487612</v>
       </c>
       <c r="K9">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.66180820395006867</v>
+        <v>0.72740435320603358</v>
       </c>
       <c r="L9">
         <f>(J10-Tabella3[[#This Row],[Φ]])/(B10-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.0656541371008696E-2</v>
+        <v>3.2392270943989665E-2</v>
       </c>
       <c r="M9">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.21494104434381267</v>
+        <v>0.23926770910162115</v>
+      </c>
+      <c r="N9" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>0.4785354182032423</v>
       </c>
       <c r="Q9">
         <v>-3.3</v>
@@ -3100,27 +5208,27 @@
         <v>-1.0294949924002159</v>
       </c>
       <c r="S9">
-        <f>R9+10</f>
+        <f t="shared" si="0"/>
         <v>8.9705050075997832</v>
       </c>
       <c r="T9">
-        <f>R9-10</f>
+        <f t="shared" si="1"/>
         <v>-11.029494992400217</v>
       </c>
       <c r="U9">
-        <f>S9+10</f>
+        <f t="shared" si="2"/>
         <v>18.970505007599783</v>
       </c>
       <c r="V9">
-        <f>T9-10</f>
+        <f t="shared" si="3"/>
         <v>-21.029494992400217</v>
       </c>
       <c r="W9">
-        <f>U9+10</f>
+        <f t="shared" si="4"/>
         <v>28.970505007599783</v>
       </c>
       <c r="X9">
-        <f>V9-10</f>
+        <f t="shared" si="5"/>
         <v>-31.029494992400217</v>
       </c>
       <c r="AA9">
@@ -3137,19 +5245,19 @@
         <v>-1.6222345334791284</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>8.3777654665208718</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-11.622234533479128</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>18.37776546652087</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-21.62223453347913</v>
       </c>
       <c r="AJ9">
@@ -3157,7 +5265,7 @@
         <v>28.37776546652087</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-31.62223453347913</v>
       </c>
       <c r="AN9">
@@ -3211,13 +5319,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC9">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.3316620122487612</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B10">
@@ -3251,20 +5359,24 @@
         <v>28.18291995349486</v>
       </c>
       <c r="J10">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC39-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.1420530407783702</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.3640542831927509</v>
       </c>
       <c r="K10">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.87877943172764628</v>
+        <v>0.9698556665069914</v>
       </c>
       <c r="L10">
         <f>(J11-Tabella3[[#This Row],[Φ]])/(B11-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.0865118733346844E-2</v>
+        <v>3.2643339075643318E-2</v>
       </c>
       <c r="M10">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.21908698028571066</v>
+        <v>0.24573791845585397</v>
+      </c>
+      <c r="N10" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>0.73721375536756195</v>
       </c>
       <c r="Q10">
         <v>-3.3</v>
@@ -3274,27 +5386,27 @@
         <v>-1.3538283457478966</v>
       </c>
       <c r="S10">
-        <f>R10+10</f>
+        <f t="shared" si="0"/>
         <v>8.6461716542521039</v>
       </c>
       <c r="T10">
-        <f>R10-10</f>
+        <f t="shared" si="1"/>
         <v>-11.353828345747896</v>
       </c>
       <c r="U10">
-        <f>S10+10</f>
+        <f t="shared" si="2"/>
         <v>18.646171654252104</v>
       </c>
       <c r="V10">
-        <f>T10-10</f>
+        <f t="shared" si="3"/>
         <v>-21.353828345747896</v>
       </c>
       <c r="W10">
-        <f>U10+10</f>
+        <f t="shared" si="4"/>
         <v>28.646171654252104</v>
       </c>
       <c r="X10">
-        <f>V10-10</f>
+        <f t="shared" si="5"/>
         <v>-31.353828345747896</v>
       </c>
       <c r="AA10">
@@ -3311,19 +5423,19 @@
         <v>-2.1333052720875947</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7.8666947279124049</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-12.133305272087595</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>17.866694727912403</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-22.133305272087597</v>
       </c>
       <c r="AJ10">
@@ -3331,7 +5443,7 @@
         <v>27.866694727912403</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-32.133305272087597</v>
       </c>
       <c r="AN10">
@@ -3385,13 +5497,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC10">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.3640542831927509</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B11">
@@ -3425,20 +5537,24 @@
         <v>26.636134698218839</v>
       </c>
       <c r="J11">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC40-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.1629181595117171</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.3966976222683942</v>
       </c>
       <c r="K11">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.0999170950214754</v>
+        <v>1.2188018648497776</v>
       </c>
       <c r="L11">
         <f>(J12-Tabella3[[#This Row],[Φ]])/(B12-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.1090837685183491E-2</v>
+        <v>3.2880627638510067E-2</v>
       </c>
       <c r="M11">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.22330313202913496</v>
+        <v>0.25227514749572488</v>
+      </c>
+      <c r="N11" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>1.0091005899828995</v>
       </c>
       <c r="Q11">
         <v>-3.3</v>
@@ -3448,27 +5564,27 @@
         <v>-1.6781616990955803</v>
       </c>
       <c r="S11">
-        <f>R11+10</f>
+        <f t="shared" si="0"/>
         <v>8.3218383009044192</v>
       </c>
       <c r="T11">
-        <f>R11-10</f>
+        <f t="shared" si="1"/>
         <v>-11.678161699095581</v>
       </c>
       <c r="U11">
-        <f>S11+10</f>
+        <f t="shared" si="2"/>
         <v>18.321838300904417</v>
       </c>
       <c r="V11">
-        <f>T11-10</f>
+        <f t="shared" si="3"/>
         <v>-21.678161699095583</v>
       </c>
       <c r="W11">
-        <f>U11+10</f>
+        <f t="shared" si="4"/>
         <v>28.321838300904417</v>
       </c>
       <c r="X11">
-        <f>V11-10</f>
+        <f t="shared" si="5"/>
         <v>-31.678161699095583</v>
       </c>
       <c r="AA11">
@@ -3485,19 +5601,19 @@
         <v>-2.6443760106960661</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7.3556239893039344</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-12.644376010696066</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>17.355623989303936</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-22.644376010696064</v>
       </c>
       <c r="AJ11">
@@ -3505,7 +5621,7 @@
         <v>27.355623989303936</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-32.644376010696064</v>
       </c>
       <c r="AN11">
@@ -3559,13 +5675,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC11">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.3966976222683942</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B12">
@@ -3599,20 +5715,24 @@
         <v>25.081237013443108</v>
       </c>
       <c r="J12">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC41-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.1840089971969006</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.4295782499069043</v>
       </c>
       <c r="K12">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.3252930943570771</v>
+        <v>1.474308613624947</v>
       </c>
       <c r="L12">
         <f>(J13-Tabella3[[#This Row],[Φ]])/(B13-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.1334386750006668E-2</v>
+        <v>3.310406436284688E-2</v>
       </c>
       <c r="M12">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.22759665627762884</v>
+        <v>0.25887393518644225</v>
+      </c>
+      <c r="N12" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>1.2943696759322112</v>
       </c>
       <c r="Q12">
         <v>-3.3</v>
@@ -3622,27 +5742,27 @@
         <v>-2.0024950524432579</v>
       </c>
       <c r="S12">
-        <f>R12+10</f>
+        <f t="shared" si="0"/>
         <v>7.9975049475567417</v>
       </c>
       <c r="T12">
-        <f>R12-10</f>
+        <f t="shared" si="1"/>
         <v>-12.002495052443258</v>
       </c>
       <c r="U12">
-        <f>S12+10</f>
+        <f t="shared" si="2"/>
         <v>17.997504947556742</v>
       </c>
       <c r="V12">
-        <f>T12-10</f>
+        <f t="shared" si="3"/>
         <v>-22.002495052443258</v>
       </c>
       <c r="W12">
-        <f>U12+10</f>
+        <f t="shared" si="4"/>
         <v>27.997504947556742</v>
       </c>
       <c r="X12">
-        <f>V12-10</f>
+        <f t="shared" si="5"/>
         <v>-32.002495052443258</v>
       </c>
       <c r="AA12">
@@ -3659,19 +5779,19 @@
         <v>-3.1554467493045277</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.8445532506954727</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-13.155446749304527</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>16.844553250695473</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-23.155446749304527</v>
       </c>
       <c r="AJ12">
@@ -3679,7 +5799,7 @@
         <v>26.844553250695473</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-33.155446749304531</v>
       </c>
       <c r="AN12">
@@ -3733,13 +5853,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC12">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.4295782499069043</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="B13">
@@ -3773,20 +5893,24 @@
         <v>23.518700466297044</v>
       </c>
       <c r="J13">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC42-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.2053433839469072</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.4626823142697511</v>
       </c>
       <c r="K13">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.5549865546334933</v>
+        <v>1.7364361100853176</v>
       </c>
       <c r="L13">
         <f>(J14-Tabella3[[#This Row],[Φ]])/(B14-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.1596404130225011E-2</v>
+        <v>3.3313581198390452E-2</v>
       </c>
       <c r="M13">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.23197501260355982</v>
+        <v>0.26552878795398371</v>
+      </c>
+      <c r="N13" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>1.5931727277239023</v>
       </c>
       <c r="Q13">
         <v>-3.3</v>
@@ -3796,27 +5920,27 @@
         <v>-2.3268284057908262</v>
       </c>
       <c r="S13">
-        <f>R13+10</f>
+        <f t="shared" si="0"/>
         <v>7.6731715942091743</v>
       </c>
       <c r="T13">
-        <f>R13-10</f>
+        <f t="shared" si="1"/>
         <v>-12.326828405790826</v>
       </c>
       <c r="U13">
-        <f>S13+10</f>
+        <f t="shared" si="2"/>
         <v>17.673171594209172</v>
       </c>
       <c r="V13">
-        <f>T13-10</f>
+        <f t="shared" si="3"/>
         <v>-22.326828405790828</v>
       </c>
       <c r="W13">
-        <f>U13+10</f>
+        <f t="shared" si="4"/>
         <v>27.673171594209172</v>
       </c>
       <c r="X13">
-        <f>V13-10</f>
+        <f t="shared" si="5"/>
         <v>-32.326828405790828</v>
       </c>
       <c r="AA13">
@@ -3833,19 +5957,19 @@
         <v>-3.6665174879128175</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.3334825120871825</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-13.666517487912817</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>16.333482512087183</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-23.666517487912817</v>
       </c>
       <c r="AJ13">
@@ -3853,7 +5977,7 @@
         <v>26.333482512087183</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-33.666517487912813</v>
       </c>
       <c r="AN13">
@@ -3907,13 +6031,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC13">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.4626823142697511</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="B14">
@@ -3947,20 +6071,24 @@
         <v>21.949000950438759</v>
       </c>
       <c r="J14">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC43-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.2269397880771322</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.4959958954681416</v>
       </c>
       <c r="K14">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.7890841230342629</v>
+        <v>2.0052390512078233</v>
       </c>
       <c r="L14">
         <f>(J15-Tabella3[[#This Row],[Φ]])/(B15-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.1877476698644482E-2</v>
+        <v>3.3509114441924837E-2</v>
       </c>
       <c r="M14">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.23644593296237526</v>
+        <v>0.27223418227426305</v>
+      </c>
+      <c r="N14" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>1.9056392759198413</v>
       </c>
       <c r="Q14">
         <v>-3.3</v>
@@ -3970,27 +6098,27 @@
         <v>-2.6511617591200793</v>
       </c>
       <c r="S14">
-        <f>R14+10</f>
+        <f t="shared" si="0"/>
         <v>7.3488382408799211</v>
       </c>
       <c r="T14">
-        <f>R14-10</f>
+        <f t="shared" si="1"/>
         <v>-12.651161759120079</v>
       </c>
       <c r="U14">
-        <f>S14+10</f>
+        <f t="shared" si="2"/>
         <v>17.348838240879921</v>
       </c>
       <c r="V14">
-        <f>T14-10</f>
+        <f t="shared" si="3"/>
         <v>-22.651161759120079</v>
       </c>
       <c r="W14">
-        <f>U14+10</f>
+        <f t="shared" si="4"/>
         <v>27.348838240879921</v>
       </c>
       <c r="X14">
-        <f>V14-10</f>
+        <f t="shared" si="5"/>
         <v>-32.651161759120079</v>
       </c>
       <c r="AA14">
@@ -4007,19 +6135,19 @@
         <v>-4.1775882264922473</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.8224117735077527</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-14.177588226492247</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>15.822411773507753</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-24.177588226492247</v>
       </c>
       <c r="AJ14">
@@ -4027,7 +6155,7 @@
         <v>25.822411773507753</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-34.177588226492247</v>
       </c>
       <c r="AN14">
@@ -4081,13 +6209,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC14">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.4959958954681416</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="B15">
@@ -4121,20 +6249,24 @@
         <v>20.372616541114621</v>
       </c>
       <c r="J15">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC44-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.2488172647757767</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.5295050099100664</v>
       </c>
       <c r="K15">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.0276802344801133</v>
+        <v>2.2807666020495736</v>
       </c>
       <c r="L15">
         <f>(J16-Tabella3[[#This Row],[Φ]])/(B16-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.2178150660133067E-2</v>
+        <v>3.3690620091741952E-2</v>
       </c>
       <c r="M15">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.24101740078162276</v>
+        <v>0.27898458078661209</v>
+      </c>
+      <c r="N15" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>2.2318766462928967</v>
       </c>
       <c r="Q15">
         <v>-3.3</v>
@@ -4144,27 +6276,27 @@
         <v>-2.9754951096266811</v>
       </c>
       <c r="S15">
-        <f>R15+10</f>
+        <f t="shared" si="0"/>
         <v>7.0245048903733185</v>
       </c>
       <c r="T15">
-        <f>R15-10</f>
+        <f t="shared" si="1"/>
         <v>-12.975495109626682</v>
       </c>
       <c r="U15">
-        <f>S15+10</f>
+        <f t="shared" si="2"/>
         <v>17.024504890373318</v>
       </c>
       <c r="V15">
-        <f>T15-10</f>
+        <f t="shared" si="3"/>
         <v>-22.975495109626682</v>
       </c>
       <c r="W15">
-        <f>U15+10</f>
+        <f t="shared" si="4"/>
         <v>27.024504890373318</v>
       </c>
       <c r="X15">
-        <f>V15-10</f>
+        <f t="shared" si="5"/>
         <v>-32.975495109626678</v>
       </c>
       <c r="AA15">
@@ -4181,19 +6313,19 @@
         <v>-4.6886589606238616</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.3113410393761384</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-14.688658960623862</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>15.311341039376138</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-24.688658960623862</v>
       </c>
       <c r="AJ15">
@@ -4201,7 +6333,7 @@
         <v>25.311341039376138</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-34.688658960623862</v>
       </c>
       <c r="AN15">
@@ -4255,13 +6387,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC15">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.5295050099100664</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="B16">
@@ -4295,20 +6427,24 @@
         <v>18.790027349554354</v>
       </c>
       <c r="J16">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC45-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.2709954154359098</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.5631956300018084</v>
       </c>
       <c r="K16">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.2708770857160601</v>
+        <v>2.5630620752536322</v>
       </c>
       <c r="L16">
         <f>(J17-Tabella3[[#This Row],[Φ]])/(B17-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.2479024594237451E-2</v>
+        <v>3.3831849446734452E-2</v>
       </c>
       <c r="M16">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.24567767303069005</v>
+        <v>0.28574816564590844</v>
+      </c>
+      <c r="N16" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>2.5717334908131759</v>
       </c>
       <c r="Q16">
         <v>-3.3</v>
@@ -4318,27 +6454,27 @@
         <v>-3.2998280542211358</v>
       </c>
       <c r="S16">
-        <f>R16+10</f>
+        <f t="shared" si="0"/>
         <v>6.7001719457788642</v>
       </c>
       <c r="T16">
-        <f>R16-10</f>
+        <f t="shared" si="1"/>
         <v>-13.299828054221136</v>
       </c>
       <c r="U16">
-        <f>S16+10</f>
+        <f t="shared" si="2"/>
         <v>16.700171945778862</v>
       </c>
       <c r="V16">
-        <f>T16-10</f>
+        <f t="shared" si="3"/>
         <v>-23.299828054221138</v>
       </c>
       <c r="W16">
-        <f>U16+10</f>
+        <f t="shared" si="4"/>
         <v>26.700171945778862</v>
       </c>
       <c r="X16">
-        <f>V16-10</f>
+        <f t="shared" si="5"/>
         <v>-33.299828054221138</v>
       </c>
       <c r="AA16">
@@ -4355,19 +6491,19 @@
         <v>-5.1997290551363351</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.8002709448636649</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-15.199729055136334</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14.800270944863666</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-25.199729055136334</v>
       </c>
       <c r="AJ16">
@@ -4375,7 +6511,7 @@
         <v>24.800270944863666</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-35.199729055136331</v>
       </c>
       <c r="AN16">
@@ -4429,13 +6565,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC16">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.5631956300018084</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="B17">
@@ -4469,20 +6605,24 @@
         <v>17.201715376746058</v>
       </c>
       <c r="J17">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC46-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.2934744400301472</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.5970274794485428</v>
       </c>
       <c r="K17">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.5192318467058437</v>
+        <v>2.8526650303157401</v>
       </c>
       <c r="L17">
         <f>(J18-Tabella3[[#This Row],[Φ]])/(B18-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.2730913537427622E-2</v>
+        <v>3.3866874671597103E-2</v>
       </c>
       <c r="M17">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.25036888875471919</v>
+        <v>0.29243391574571787</v>
+      </c>
+      <c r="N17" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>2.9243391574571787</v>
       </c>
       <c r="Q17">
         <v>-3.3</v>
@@ -4492,27 +6632,27 @@
         <v>-3.6248344210978014</v>
       </c>
       <c r="S17">
-        <f>R17+10</f>
+        <f t="shared" si="0"/>
         <v>6.3751655789021981</v>
       </c>
       <c r="T17">
-        <f>R17-10</f>
+        <f t="shared" si="1"/>
         <v>-13.624834421097802</v>
       </c>
       <c r="U17">
-        <f>S17+10</f>
+        <f t="shared" si="2"/>
         <v>16.375165578902198</v>
       </c>
       <c r="V17">
-        <f>T17-10</f>
+        <f t="shared" si="3"/>
         <v>-23.624834421097802</v>
       </c>
       <c r="W17">
-        <f>U17+10</f>
+        <f t="shared" si="4"/>
         <v>26.375165578902198</v>
       </c>
       <c r="X17">
-        <f>V17-10</f>
+        <f t="shared" si="5"/>
         <v>-33.624834421097802</v>
       </c>
       <c r="AA17">
@@ -4529,19 +6669,19 @@
         <v>-5.7118602999116881</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.2881397000883119</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-15.711860299911688</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14.288139700088312</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-25.711860299911688</v>
       </c>
       <c r="AJ17">
@@ -4549,7 +6689,7 @@
         <v>24.288139700088312</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-35.711860299911692</v>
       </c>
       <c r="AN17">
@@ -4603,13 +6743,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC17">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.5970274794485428</v>
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="B18">
@@ -4643,20 +6783,24 @@
         <v>15.608164366635643</v>
       </c>
       <c r="J18">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC47-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.3162053535675748</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.6308943541201399</v>
       </c>
       <c r="K18">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.7744516608796141</v>
+        <v>3.1513998528431717</v>
       </c>
       <c r="L18">
         <f>(J19-Tabella3[[#This Row],[Φ]])/(B19-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.3359890997903587E-2</v>
+        <v>3.4358761970058715E-2</v>
       </c>
       <c r="M18">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.25772128269837569</v>
+        <v>0.3021095835351254</v>
+      </c>
+      <c r="N18" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>3.3232054188863795</v>
       </c>
       <c r="Q18">
         <v>-3.3</v>
@@ -4666,27 +6810,27 @@
         <v>-3.9528837401228336</v>
       </c>
       <c r="S18">
-        <f>R18+10</f>
+        <f t="shared" si="0"/>
         <v>6.0471162598771659</v>
       </c>
       <c r="T18">
-        <f>R18-10</f>
+        <f t="shared" si="1"/>
         <v>-13.952883740122834</v>
       </c>
       <c r="U18">
-        <f>S18+10</f>
+        <f t="shared" si="2"/>
         <v>16.047116259877164</v>
       </c>
       <c r="V18">
-        <f>T18-10</f>
+        <f t="shared" si="3"/>
         <v>-23.952883740122836</v>
       </c>
       <c r="W18">
-        <f>U18+10</f>
+        <f t="shared" si="4"/>
         <v>26.047116259877164</v>
       </c>
       <c r="X18">
-        <f>V18-10</f>
+        <f t="shared" si="5"/>
         <v>-33.952883740122836</v>
       </c>
       <c r="AA18">
@@ -4703,19 +6847,19 @@
         <v>-6.2287864995874962</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.7712135004125038</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-16.228786499587496</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>13.771213500412504</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-26.228786499587496</v>
       </c>
       <c r="AJ18">
@@ -4723,7 +6867,7 @@
         <v>23.771213500412504</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-36.2287864995875</v>
       </c>
       <c r="AN18">
@@ -4777,13 +6921,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC18">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.6308943541201399</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="B19">
@@ -4817,20 +6961,24 @@
         <v>14.009859658795479</v>
       </c>
       <c r="J19">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC48-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.3395652445654784</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.6652531160901987</v>
       </c>
       <c r="K19">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.0285677385838339</v>
+        <v>3.4501707619827386</v>
       </c>
       <c r="L19">
         <f>(J20-Tabella3[[#This Row],[Φ]])/(B20-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.4447145178236873E-2</v>
+        <v>3.5419345442800676E-2</v>
       </c>
       <c r="M19">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.26300030051832968</v>
+        <v>0.30941023491118952</v>
+      </c>
+      <c r="N19" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>3.712922818934274</v>
       </c>
       <c r="Q19">
         <v>-3.3</v>
@@ -4840,27 +6988,27 @@
         <v>-4.2718507468608173</v>
       </c>
       <c r="S19">
-        <f>R19+10</f>
+        <f t="shared" si="0"/>
         <v>5.7281492531391827</v>
       </c>
       <c r="T19">
-        <f>R19-10</f>
+        <f t="shared" si="1"/>
         <v>-14.271850746860817</v>
       </c>
       <c r="U19">
-        <f>S19+10</f>
+        <f t="shared" si="2"/>
         <v>15.728149253139183</v>
       </c>
       <c r="V19">
-        <f>T19-10</f>
+        <f t="shared" si="3"/>
         <v>-24.271850746860817</v>
       </c>
       <c r="W19">
-        <f>U19+10</f>
+        <f t="shared" si="4"/>
         <v>25.728149253139183</v>
       </c>
       <c r="X19">
-        <f>V19-10</f>
+        <f t="shared" si="5"/>
         <v>-34.271850746860821</v>
       </c>
       <c r="Z19">
@@ -4880,19 +7028,19 @@
         <v>-6.731401176871592</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.268598823128408</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-16.731401176871593</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>13.268598823128407</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-26.731401176871593</v>
       </c>
       <c r="AJ19">
@@ -4900,7 +7048,7 @@
         <v>23.268598823128407</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-36.731401176871593</v>
       </c>
       <c r="AN19">
@@ -4954,13 +7102,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC19">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.6652531160901987</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="B20">
@@ -4994,20 +7142,24 @@
         <v>12.407288040607</v>
       </c>
       <c r="J20">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC49-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.3640123897437153</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.7006724615329993</v>
       </c>
       <c r="K20">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.2714567582257779</v>
+        <v>3.737346392247209</v>
       </c>
       <c r="L20">
         <f>(J21-Tabella3[[#This Row],[Φ]])/(B21-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.599041475513042E-2</v>
+        <v>3.7048584762429115E-2</v>
       </c>
       <c r="M20">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.25829712395822602</v>
+        <v>0.30526218596978022</v>
+      </c>
+      <c r="N20" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>3.9684084176071428</v>
       </c>
       <c r="Q20">
         <v>-3.3</v>
@@ -5017,27 +7169,27 @@
         <v>-4.5667304236571491</v>
       </c>
       <c r="S20">
-        <f>R20+10</f>
+        <f t="shared" si="0"/>
         <v>5.4332695763428509</v>
       </c>
       <c r="T20">
-        <f>R20-10</f>
+        <f t="shared" si="1"/>
         <v>-14.566730423657148</v>
       </c>
       <c r="U20">
-        <f>S20+10</f>
+        <f t="shared" si="2"/>
         <v>15.433269576342852</v>
       </c>
       <c r="V20">
-        <f>T20-10</f>
+        <f t="shared" si="3"/>
         <v>-24.566730423657148</v>
       </c>
       <c r="W20">
-        <f>U20+10</f>
+        <f t="shared" si="4"/>
         <v>25.433269576342852</v>
       </c>
       <c r="X20">
-        <f>V20-10</f>
+        <f t="shared" si="5"/>
         <v>-34.566730423657148</v>
       </c>
       <c r="Z20">
@@ -5057,19 +7209,19 @@
         <v>-7.196060061520356</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.803939938479644</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-17.196060061520356</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>12.803939938479644</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-27.196060061520356</v>
       </c>
       <c r="AJ20">
@@ -5077,7 +7229,7 @@
         <v>22.803939938479644</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-37.196060061520356</v>
       </c>
       <c r="AN20">
@@ -5131,13 +7283,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC20">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.7006724615329993</v>
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="B21">
@@ -5171,20 +7323,24 @@
         <v>10.800937599002415</v>
       </c>
       <c r="J21">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC50-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.3900028044988457</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.7377210462954285</v>
       </c>
       <c r="K21">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.4926760898561966</v>
+        <v>4.0008207610020614</v>
       </c>
       <c r="L21">
         <f>(J22-Tabella3[[#This Row],[Φ]])/(B22-Tabella3[[#This Row],[α_b]])</f>
-        <v>2.7989209473383792E-2</v>
+        <v>3.9246446257883427E-2</v>
       </c>
       <c r="M21">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.24324317882310842</v>
+        <v>0.28913241559493169</v>
+      </c>
+      <c r="N21" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>4.0478538183290436</v>
       </c>
       <c r="Q21">
         <v>-3.3</v>
@@ -5194,27 +7350,27 @@
         <v>-4.8225178124601715</v>
       </c>
       <c r="S21">
-        <f>R21+10</f>
+        <f t="shared" si="0"/>
         <v>5.1774821875398285</v>
       </c>
       <c r="T21">
-        <f>R21-10</f>
+        <f t="shared" si="1"/>
         <v>-14.822517812460172</v>
       </c>
       <c r="U21">
-        <f>S21+10</f>
+        <f t="shared" si="2"/>
         <v>15.177482187539828</v>
       </c>
       <c r="V21">
-        <f>T21-10</f>
+        <f t="shared" si="3"/>
         <v>-24.82251781246017</v>
       </c>
       <c r="W21">
-        <f>U21+10</f>
+        <f t="shared" si="4"/>
         <v>25.17748218753983</v>
       </c>
       <c r="X21">
-        <f>V21-10</f>
+        <f t="shared" si="5"/>
         <v>-34.82251781246017</v>
       </c>
       <c r="Z21">
@@ -5234,19 +7390,19 @@
         <v>-7.5991189772099679</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.4008810227900321</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-17.599118977209969</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>12.400881022790031</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-27.599118977209969</v>
       </c>
       <c r="AJ21">
@@ -5254,7 +7410,7 @@
         <v>22.400881022790031</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-37.599118977209969</v>
       </c>
       <c r="AM21">
@@ -5311,13 +7467,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC21">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.7377210462954285</v>
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="B22" s="2">
@@ -5351,20 +7507,24 @@
         <v>9.1912975718105994</v>
       </c>
       <c r="J22">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC51-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.4179920139722295</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.7769674925533119</v>
       </c>
       <c r="K22">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.6813620341545001</v>
+        <v>4.2278976266645323</v>
       </c>
       <c r="L22">
         <f>(J23-Tabella3[[#This Row],[Φ]])/(B23-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.0444811153015561E-2</v>
+        <v>4.2012900617790283E-2</v>
       </c>
       <c r="M22">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.21737101294676683</v>
+        <v>0.26037281579075644</v>
+      </c>
+      <c r="N22" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>3.9055922368613465</v>
       </c>
       <c r="Q22">
         <v>-3.3</v>
@@ -5374,27 +7534,27 @@
         <v>-5.0242079554069914</v>
       </c>
       <c r="S22">
-        <f>R22+10</f>
+        <f t="shared" si="0"/>
         <v>4.9757920445930086</v>
       </c>
       <c r="T22">
-        <f>R22-10</f>
+        <f t="shared" si="1"/>
         <v>-15.024207955406991</v>
       </c>
       <c r="U22">
-        <f>S22+10</f>
+        <f t="shared" si="2"/>
         <v>14.975792044593009</v>
       </c>
       <c r="V22">
-        <f>T22-10</f>
+        <f t="shared" si="3"/>
         <v>-25.024207955406993</v>
       </c>
       <c r="W22">
-        <f>U22+10</f>
+        <f t="shared" si="4"/>
         <v>24.975792044593007</v>
       </c>
       <c r="X22">
-        <f>V22-10</f>
+        <f t="shared" si="5"/>
         <v>-35.024207955406993</v>
       </c>
       <c r="Z22">
@@ -5414,19 +7574,19 @@
         <v>-7.9169337479140482</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.0830662520859518</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-17.916933747914047</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>12.083066252085953</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-27.916933747914047</v>
       </c>
       <c r="AJ22">
@@ -5434,7 +7594,7 @@
         <v>22.083066252085953</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-37.916933747914044</v>
       </c>
       <c r="AM22">
@@ -5491,13 +7651,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC22">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.7769674925533119</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="B23" s="2">
@@ -5531,20 +7691,24 @@
         <v>7.5788581987524637</v>
       </c>
       <c r="J23">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC52-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.4484368251252451</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.8189803931711022</v>
       </c>
       <c r="K23">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.8260875661995133</v>
+        <v>4.4051231875751782</v>
       </c>
       <c r="L23">
         <f>(J24-Tabella3[[#This Row],[Φ]])/(B24-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.3360273589387646E-2</v>
+        <v>4.5347921576181616E-2</v>
       </c>
       <c r="M23">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.18005523618271074</v>
+        <v>0.21814783177944053</v>
+      </c>
+      <c r="N23" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>3.4903653084710484</v>
       </c>
       <c r="Q23">
         <v>-3.3</v>
@@ -5554,27 +7718,27 @@
         <v>-5.1567958947899459</v>
       </c>
       <c r="S23">
-        <f>R23+10</f>
+        <f t="shared" si="0"/>
         <v>4.8432041052100541</v>
       </c>
       <c r="T23">
-        <f>R23-10</f>
+        <f t="shared" si="1"/>
         <v>-15.156795894789946</v>
       </c>
       <c r="U23">
-        <f>S23+10</f>
+        <f t="shared" si="2"/>
         <v>14.843204105210054</v>
       </c>
       <c r="V23">
-        <f>T23-10</f>
+        <f t="shared" si="3"/>
         <v>-25.156795894789944</v>
       </c>
       <c r="W23">
-        <f>U23+10</f>
+        <f t="shared" si="4"/>
         <v>24.843204105210056</v>
       </c>
       <c r="X23">
-        <f>V23-10</f>
+        <f t="shared" si="5"/>
         <v>-35.156795894789944</v>
       </c>
       <c r="Z23">
@@ -5594,19 +7758,19 @@
         <v>-8.1258601978508249</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.8741398021491751</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-18.125860197850827</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>11.874139802149175</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-28.125860197850827</v>
       </c>
       <c r="AJ23">
@@ -5614,7 +7778,7 @@
         <v>21.874139802149173</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-38.125860197850827</v>
       </c>
       <c r="AM23">
@@ -5671,13 +7835,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC23">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.8189803931711022</v>
       </c>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="B24" s="2">
@@ -5711,20 +7875,24 @@
         <v>5.9641105721311751</v>
       </c>
       <c r="J24">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC53-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.4817970987146327</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.8643283147472838</v>
       </c>
       <c r="K24">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.9146789786805392</v>
+        <v>4.5180671085432493</v>
       </c>
       <c r="L24">
         <f>(J25-Tabella3[[#This Row],[Φ]])/(B25-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.6740215207341213E-2</v>
+        <v>4.9251210539083788E-2</v>
       </c>
       <c r="M24">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.13047037842941522</v>
+        <v>0.16138221777333633</v>
+      </c>
+      <c r="N24" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>2.7434977021467177</v>
       </c>
       <c r="Q24">
         <v>-3.3</v>
@@ -5734,27 +7902,27 @@
         <v>-5.2052767070831338</v>
       </c>
       <c r="S24">
-        <f>R24+10</f>
+        <f t="shared" si="0"/>
         <v>4.7947232929168662</v>
       </c>
       <c r="T24">
-        <f>R24-10</f>
+        <f t="shared" si="1"/>
         <v>-15.205276707083133</v>
       </c>
       <c r="U24">
-        <f>S24+10</f>
+        <f t="shared" si="2"/>
         <v>14.794723292916867</v>
       </c>
       <c r="V24">
-        <f>T24-10</f>
+        <f t="shared" si="3"/>
         <v>-25.205276707083133</v>
       </c>
       <c r="W24">
-        <f>U24+10</f>
+        <f t="shared" si="4"/>
         <v>24.794723292916867</v>
       </c>
       <c r="X24">
-        <f>V24-10</f>
+        <f t="shared" si="5"/>
         <v>-35.205276707083129</v>
       </c>
       <c r="Z24">
@@ -5774,19 +7942,19 @@
         <v>-8.2022542051006955</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.7977457948993045</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-18.202254205100694</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>11.797745794899305</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-28.202254205100694</v>
       </c>
       <c r="AJ24">
@@ -5794,7 +7962,7 @@
         <v>21.797745794899306</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-38.202254205100694</v>
       </c>
       <c r="AM24">
@@ -5851,7 +8019,7 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC24">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.8643283147472838</v>
       </c>
     </row>
@@ -5891,20 +8059,24 @@
         <v>4.3475464872627327</v>
       </c>
       <c r="J25">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC54-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.518537313921974</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.9135795252863677</v>
       </c>
       <c r="K25">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.9339954476952954</v>
+        <v>4.5510576816214252</v>
       </c>
       <c r="L25">
         <f>(J26-Tabella3[[#This Row],[Φ]])/(B26-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.9538011589306185E-2</v>
+        <v>5.2317717487098035E-2</v>
       </c>
       <c r="M25">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>6.5903354258745966E-2</v>
+        <v>8.6515515763857465E-2</v>
+      </c>
+      <c r="N25" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>1.5572792837494345</v>
       </c>
       <c r="Q25">
         <v>-3.3</v>
@@ -5914,27 +8086,27 @@
         <v>-5.1546526254074276</v>
       </c>
       <c r="S25">
-        <f>R25+10</f>
+        <f t="shared" si="0"/>
         <v>4.8453473745925724</v>
       </c>
       <c r="T25">
-        <f>R25-10</f>
+        <f t="shared" si="1"/>
         <v>-15.154652625407428</v>
       </c>
       <c r="U25">
-        <f>S25+10</f>
+        <f t="shared" si="2"/>
         <v>14.845347374592572</v>
       </c>
       <c r="V25">
-        <f>T25-10</f>
+        <f t="shared" si="3"/>
         <v>-25.154652625407429</v>
       </c>
       <c r="W25">
-        <f>U25+10</f>
+        <f t="shared" si="4"/>
         <v>24.845347374592571</v>
       </c>
       <c r="X25">
-        <f>V25-10</f>
+        <f t="shared" si="5"/>
         <v>-35.154652625407429</v>
       </c>
       <c r="Z25">
@@ -5954,19 +8126,19 @@
         <v>-8.1224829248844319</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.8775170751155681</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-18.12248292488443</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>11.877517075115568</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-28.12248292488443</v>
       </c>
       <c r="AJ25">
@@ -5974,7 +8146,7 @@
         <v>21.87751707511557</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-38.12248292488443</v>
       </c>
       <c r="AM25">
@@ -6031,13 +8203,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC25">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.9135795252863677</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A26">
-        <f t="shared" ref="A26:A31" si="6">A25+1</f>
+        <f t="shared" ref="A26:A27" si="12">A25+1</f>
         <v>19</v>
       </c>
       <c r="B26" s="2">
@@ -6071,19 +8243,23 @@
         <v>2.729658292692402</v>
       </c>
       <c r="J26">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC55-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>2.5580753255112803</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.9658972427734658</v>
       </c>
       <c r="K26">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.8960976509249394</v>
+        <v>4.5172341741519597</v>
       </c>
       <c r="L26">
         <v>4.4544E-2</v>
       </c>
       <c r="M26">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>-1.0127991581535281E-2</v>
+        <v>-2.2558556826546547E-2</v>
+      </c>
+      <c r="N26" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>-0.42861257970438438</v>
       </c>
       <c r="Q26">
         <v>-3.3</v>
@@ -6093,27 +8269,27 @@
         <v>-5.0260921247432604</v>
       </c>
       <c r="S26">
-        <f>R26+10</f>
+        <f t="shared" si="0"/>
         <v>4.9739078752567396</v>
       </c>
       <c r="T26">
-        <f>R26-10</f>
+        <f t="shared" si="1"/>
         <v>-15.026092124743261</v>
       </c>
       <c r="U26">
-        <f>S26+10</f>
+        <f t="shared" si="2"/>
         <v>14.973907875256739</v>
       </c>
       <c r="V26">
-        <f>T26-10</f>
+        <f t="shared" si="3"/>
         <v>-25.026092124743261</v>
       </c>
       <c r="W26">
-        <f>U26+10</f>
+        <f t="shared" si="4"/>
         <v>24.973907875256739</v>
       </c>
       <c r="X26">
-        <f>V26-10</f>
+        <f t="shared" si="5"/>
         <v>-35.026092124743258</v>
       </c>
       <c r="Y26">
@@ -6136,19 +8312,19 @@
         <v>-7.9199027420196844</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.0800972579803156</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-17.919902742019683</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>12.080097257980317</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-27.919902742019683</v>
       </c>
       <c r="AJ26">
@@ -6156,7 +8332,7 @@
         <v>22.080097257980317</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-37.919902742019687</v>
       </c>
       <c r="AM26">
@@ -6213,13 +8389,13 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC26">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.9658972427734658</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="B27" s="2">
@@ -6253,20 +8429,24 @@
         <v>34.279554821085362</v>
       </c>
       <c r="J27">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC56-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-1.8564609321321726</v>
+        <f>Tabella14[[#This Row],[Φ_80]]</f>
+        <v>2.0430627693179719</v>
       </c>
       <c r="K27">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>-2.8274980820857714</v>
+        <v>3.1117035440076415</v>
       </c>
       <c r="L27">
         <f>(J28-Tabella3[[#This Row],[Φ]])/(B28-Tabella3[[#This Row],[α_b]])</f>
-        <v>-0.10711460373670061</v>
+        <v>0.11788120889425754</v>
       </c>
       <c r="M27">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>-5.652332501490101E-2</v>
+        <v>6.2204756877577899E-2</v>
+      </c>
+      <c r="N27" s="2">
+        <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
+        <v>1.2440951375515579</v>
       </c>
       <c r="Q27">
         <v>-3.3</v>
@@ -6276,27 +8456,27 @@
         <v>-5.0260921247432604</v>
       </c>
       <c r="S27">
-        <f>R27+10</f>
+        <f t="shared" si="0"/>
         <v>4.9739078752567396</v>
       </c>
       <c r="T27">
-        <f>R27-10</f>
+        <f t="shared" si="1"/>
         <v>-15.026092124743261</v>
       </c>
       <c r="U27">
-        <f>S27+10</f>
+        <f t="shared" si="2"/>
         <v>14.973907875256739</v>
       </c>
       <c r="V27">
-        <f>T27-10</f>
+        <f t="shared" si="3"/>
         <v>-25.026092124743261</v>
       </c>
       <c r="W27">
-        <f>U27+10</f>
+        <f t="shared" si="4"/>
         <v>24.973907875256739</v>
       </c>
       <c r="X27">
-        <f>V27-10</f>
+        <f t="shared" si="5"/>
         <v>-35.026092124743258</v>
       </c>
       <c r="Y27">
@@ -6323,15 +8503,15 @@
         <v>2.0800972579803156</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-17.919902742019683</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>12.080097257980317</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-27.919902742019683</v>
       </c>
       <c r="AJ27">
@@ -6339,7 +8519,7 @@
         <v>22.080097257980317</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-37.919902742019687</v>
       </c>
       <c r="AL27">
@@ -6399,7 +8579,7 @@
         <v>2.3635000000000002</v>
       </c>
       <c r="BC27">
-        <f>Tabella12[[#This Row],[Φ_3]]+(Tabella12[[#This Row],[Φ_4]]-Tabella12[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella12[[#This Row],[m3]])/(Tabella12[[#This Row],[m4]]-Tabella12[[#This Row],[m3]]))</f>
+        <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
         <v>2.0430627693179719</v>
       </c>
     </row>
@@ -6409,226 +8589,226 @@
         <v>#VALUE!</v>
       </c>
       <c r="S28" t="e">
-        <f>R28+10</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="T28" t="e">
-        <f>R28-10</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="U28" t="e">
-        <f>S28+10</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="V28" t="e">
-        <f>T28-10</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="W28" t="e">
-        <f>U28+10</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="X28" t="e">
-        <f>V28-10</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA28">
         <v>2.2000000000000002</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-10</v>
       </c>
     </row>
     <row r="33" spans="17:55" x14ac:dyDescent="0.45">
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="4"/>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="4"/>
-      <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
-      <c r="AV33" s="4"/>
-      <c r="AW33" s="4"/>
-      <c r="AX33" s="4"/>
-      <c r="AY33" s="4"/>
-      <c r="AZ33" s="4"/>
-      <c r="BA33" s="4"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="9"/>
     </row>
     <row r="34" spans="17:55" x14ac:dyDescent="0.45">
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AD34" s="3" t="s">
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AD34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AQ34" s="3" t="s">
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AQ34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
     </row>
     <row r="35" spans="17:55" x14ac:dyDescent="0.45">
-      <c r="Q35" s="9" t="s">
+      <c r="Q35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="R35" s="10" t="s">
+      <c r="R35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S35" s="10" t="s">
+      <c r="S35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T35" s="10" t="s">
+      <c r="T35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="10" t="s">
+      <c r="U35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="V35" s="10" t="s">
+      <c r="V35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W35" s="10" t="s">
+      <c r="W35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="X35" s="10" t="s">
+      <c r="X35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y35" s="10" t="s">
+      <c r="Y35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z35" s="10" t="s">
+      <c r="Z35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AA35" s="10" t="s">
+      <c r="AA35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AB35" s="10" t="s">
+      <c r="AB35" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="10" t="s">
+      <c r="AD35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE35" s="10" t="s">
+      <c r="AE35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AF35" s="10" t="s">
+      <c r="AF35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AG35" s="10" t="s">
+      <c r="AG35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AH35" s="10" t="s">
+      <c r="AH35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AI35" s="10" t="s">
+      <c r="AI35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ35" s="10" t="s">
+      <c r="AJ35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AK35" s="10" t="s">
+      <c r="AK35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AL35" s="10" t="s">
+      <c r="AL35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AM35" s="10" t="s">
+      <c r="AM35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AN35" s="10" t="s">
+      <c r="AN35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AO35" s="10" t="s">
+      <c r="AO35" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AP35" s="1"/>
-      <c r="AQ35" s="10" t="s">
+      <c r="AQ35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AR35" s="10" t="s">
+      <c r="AR35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AS35" s="10" t="s">
+      <c r="AS35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AT35" s="10" t="s">
+      <c r="AT35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AU35" s="10" t="s">
+      <c r="AU35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AV35" s="10" t="s">
+      <c r="AV35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AW35" s="10" t="s">
+      <c r="AW35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AX35" s="10" t="s">
+      <c r="AX35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AY35" s="10" t="s">
+      <c r="AY35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AZ35" s="10" t="s">
+      <c r="AZ35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="BA35" s="10" t="s">
+      <c r="BA35" s="8" t="s">
         <v>38</v>
       </c>
       <c r="BC35" t="s">
@@ -9319,14 +11499,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q4:BA4"/>
+    <mergeCell ref="AQ5:BA5"/>
+    <mergeCell ref="R5:X5"/>
     <mergeCell ref="AD34:AO34"/>
     <mergeCell ref="AQ34:BA34"/>
     <mergeCell ref="Q33:BA33"/>
     <mergeCell ref="R34:X34"/>
     <mergeCell ref="AD5:AO5"/>
-    <mergeCell ref="Q4:BA4"/>
-    <mergeCell ref="AQ5:BA5"/>
-    <mergeCell ref="R5:X5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9349,15 +11529,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.3984375" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" customWidth="1"/>
+    <col min="12" max="12" width="12.53125" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.46484375" customWidth="1"/>
+    <col min="15" max="15" width="11.9296875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9368,31 +11558,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>12</v>
       </c>
@@ -9403,33 +11596,36 @@
         <v>13.53</v>
       </c>
       <c r="D2">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="E2">
         <v>-2.0369999999999999E-2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.63600000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.57</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>13.74</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.09</v>
       </c>
-      <c r="J2">
-        <f xml:space="preserve"> SQRT(I2^2 + (H2-0.75*B2)^2)</f>
+      <c r="K2">
+        <f xml:space="preserve"> SQRT(J2^2 + (I2-0.75*B2)^2)</f>
         <v>12.552279576335925</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>ATAN((Tabella224[[#This Row],[m0]]/(Tabella224[[#This Row],[X0]]-0.75*Tabella224[[#This Row],[Cr]])))</f>
         <v>0.3318971510674355</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -9449,25 +11645,40 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9485,32 +11696,54 @@
       <c r="E7">
         <v>0.115402510819653</v>
       </c>
-      <c r="G7" t="e">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A8+J6/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J6/57.3))</f>
-        <v>#VALUE!</v>
+      <c r="F7">
+        <v>13.6917312039044</v>
+      </c>
+      <c r="G7">
+        <v>4.3124999907486403</v>
       </c>
       <c r="H7">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>4.6380237672928493</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.011953525787465</v>
       </c>
       <c r="I7">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC36-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-2.4105696915299992</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.31873614122310723</v>
       </c>
       <c r="J7">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.24011157850458509</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2140674721088893</v>
       </c>
       <c r="K7">
-        <f>(I8-Tabella3[[#This Row],[Φ]])/(B8-Tabella3[[#This Row],[α_b]])</f>
-        <v>-4.65159476502415</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2109506899516331</v>
       </c>
       <c r="L7">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.206832885446086</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0014097022477351</v>
+      </c>
+      <c r="M7">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33065171554502809</v>
+      </c>
+      <c r="N7">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.7740967362851428</v>
+      </c>
+      <c r="O7">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.69631679064277896</v>
+      </c>
+      <c r="P7">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.23438014029411439</v>
+      </c>
+      <c r="Q7">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>A7+1</f>
         <v>1</v>
@@ -9529,29 +11762,54 @@
       <c r="E8" s="2">
         <v>0.21368534516743501</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>13.745889410382899</v>
+      </c>
+      <c r="G8">
+        <v>4.1566379898647403</v>
+      </c>
       <c r="H8">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>4.4337679290079439</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.015956349621796</v>
       </c>
       <c r="I8">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC37-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-2.5709504462898449</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.30721640723316634</v>
       </c>
       <c r="J8">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.44893840769120735</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.212781077112667</v>
       </c>
       <c r="K8">
-        <f>(I9-Tabella3[[#This Row],[Φ]])/(B9-Tabella3[[#This Row],[α_b]])</f>
-        <v>-4.8289094620527244</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2096888065451057</v>
       </c>
       <c r="L8">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.21085850017699662</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.001399414505066</v>
+      </c>
+      <c r="M8">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33160697458203492</v>
+      </c>
+      <c r="N8">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.7789759798761058</v>
+      </c>
+      <c r="O8">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.70632975131188802</v>
+      </c>
+      <c r="P8">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.23769520799969651</v>
+      </c>
+      <c r="Q8">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>0.23769520799969651</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" ref="A9:A24" si="0">A8+1</f>
         <v>2</v>
@@ -9570,32 +11828,54 @@
       <c r="E9">
         <v>0.31196817951521699</v>
       </c>
+      <c r="F9">
+        <v>13.797222731719399</v>
+      </c>
       <c r="G9">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A10+J8/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J8/57.3))</f>
-        <v>-11.574536740568639</v>
+        <v>4.0014437301949703</v>
       </c>
       <c r="H9">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>4.2281617210034952</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0197503866754916</v>
       </c>
       <c r="I9">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC38-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-2.7279773305607971</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.29574602588285076</v>
       </c>
       <c r="J9">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.66180820395006867</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2115743012197755</v>
       </c>
       <c r="K9">
-        <f>(I10-Tabella3[[#This Row],[Φ]])/(B10-Tabella3[[#This Row],[α_b]])</f>
-        <v>-5.0027392104851298</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.208504997770719</v>
       </c>
       <c r="L9">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.21494104434381267</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013897652267731</v>
+      </c>
+      <c r="M9">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33253065535569154</v>
+      </c>
+      <c r="N9">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.7836977083445222</v>
+      </c>
+      <c r="O9">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.71639679710965742</v>
+      </c>
+      <c r="P9">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.24101781007506587</v>
+      </c>
+      <c r="Q9">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>0.48203562015013174</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9614,32 +11894,54 @@
       <c r="E10">
         <v>0.410251013862999</v>
       </c>
+      <c r="F10">
+        <v>13.8457845025516</v>
+      </c>
       <c r="G10">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A11+J9/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J9/57.3))</f>
-        <v>-13.044980173200287</v>
+        <v>3.8469638352084101</v>
       </c>
       <c r="H10">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>4.0212677636966907</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0233395789025574</v>
       </c>
       <c r="I10">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC39-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-2.8813427110777678</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.28432844310483446</v>
       </c>
       <c r="J10">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.87877943172764628</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2104437406090698</v>
       </c>
       <c r="K10">
-        <f>(I11-Tabella3[[#This Row],[Φ]])/(B11-Tabella3[[#This Row],[α_b]])</f>
-        <v>-5.1727844469948359</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2073959295391989</v>
       </c>
       <c r="L10">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.21908698028571066</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013807269593484</v>
+      </c>
+      <c r="M10">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33342375348083841</v>
+      </c>
+      <c r="N10">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.7882587989490237</v>
+      </c>
+      <c r="O10">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.72651150113990948</v>
+      </c>
+      <c r="P10">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.24434543801554956</v>
+      </c>
+      <c r="Q10">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>0.73303631404664871</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9658,32 +11960,54 @@
       <c r="E11">
         <v>0.50853384821078196</v>
       </c>
+      <c r="F11">
+        <v>13.8916290583707</v>
+      </c>
       <c r="G11">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A12+J10/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J10/57.3))</f>
-        <v>-2.6043822209211238</v>
+        <v>3.6932413891250002</v>
       </c>
       <c r="H11">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>3.8131490697078543</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0267279422299114</v>
       </c>
       <c r="I11">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC40-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-3.0307314062164656</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.27296684324648929</v>
       </c>
       <c r="J11">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.0999170950214754</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2093861766885432</v>
       </c>
       <c r="K11">
-        <f>(I12-Tabella3[[#This Row],[Φ]])/(B12-Tabella3[[#This Row],[α_b]])</f>
-        <v>-5.3387393820979181</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2063584489344619</v>
       </c>
       <c r="L11">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.22330313202913496</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013722737370909</v>
+      </c>
+      <c r="M11">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33428722109076525</v>
+      </c>
+      <c r="N11">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.7926563739117429</v>
+      </c>
+      <c r="O11">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.73666748610261179</v>
+      </c>
+      <c r="P11">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.24767557364722045</v>
+      </c>
+      <c r="Q11">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>0.99070229458888182</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9702,32 +12026,54 @@
       <c r="E12">
         <v>0.60681668255856303</v>
       </c>
+      <c r="F12">
+        <v>13.934811533044799</v>
+      </c>
       <c r="G12">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A13+J11/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J11/57.3))</f>
-        <v>10.213389778668054</v>
+        <v>3.54031591967399</v>
       </c>
       <c r="H12">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>3.603869024669009</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0299195515923725</v>
       </c>
       <c r="I12">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC41-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-3.1758212225862019</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.26166414779556468</v>
       </c>
       <c r="J12">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.3252930943570771</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2083985652707456</v>
       </c>
       <c r="K12">
-        <f>(I13-Tabella3[[#This Row],[Φ]])/(B13-Tabella3[[#This Row],[α_b]])</f>
-        <v>-5.5002925013036563</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2053895736430604</v>
       </c>
       <c r="L12">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.22759665627762884</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013643809980994</v>
+      </c>
+      <c r="M12">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33512196826487806</v>
+      </c>
+      <c r="N12">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.7968878126248142</v>
+      </c>
+      <c r="O12">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.74685844952100688</v>
+      </c>
+      <c r="P12">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.25100570085486645</v>
+      </c>
+      <c r="Q12">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>1.2550285042743323</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9746,32 +12092,54 @@
       <c r="E13">
         <v>0.70509951690631101</v>
       </c>
+      <c r="F13">
+        <v>13.9753876574768</v>
+      </c>
       <c r="G13">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A14+J12/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J12/57.3))</f>
-        <v>13.707515065420766</v>
+        <v>3.3882234021856799</v>
       </c>
       <c r="H13">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>3.3934913679188523</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0329185260515004</v>
       </c>
       <c r="I13">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC42-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-3.31628350410675</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.25042301568260755</v>
       </c>
       <c r="J13">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.5549865546334933</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2074780267082947</v>
       </c>
       <c r="K13">
-        <f>(I14-Tabella3[[#This Row],[Φ]])/(B14-Tabella3[[#This Row],[α_b]])</f>
-        <v>-5.6571270767785862</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.204486482321292</v>
       </c>
       <c r="L13">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.23197501260355982</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013570255072977</v>
+      </c>
+      <c r="M13">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33592886440664349</v>
+      </c>
+      <c r="N13">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.800950761633858</v>
+      </c>
+      <c r="O13">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.75707818748401379</v>
+      </c>
+      <c r="P13">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.25433331691224792</v>
+      </c>
+      <c r="Q13">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>1.5259999014734875</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9790,32 +12158,54 @@
       <c r="E14">
         <v>0.80338235124850899</v>
       </c>
+      <c r="F14">
+        <v>14.0134135612502</v>
+      </c>
       <c r="G14">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A15+J13/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J13/57.3))</f>
-        <v>4.6906373424753296</v>
+        <v>3.2369962841600901</v>
       </c>
       <c r="H14">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>3.1820801730899899</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0357290141352697</v>
       </c>
       <c r="I14">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC43-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-3.4517836928316794</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.23924584509682856</v>
       </c>
       <c r="J14">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.7890841230342629</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2066218368835759</v>
       </c>
       <c r="K14">
-        <f>(I15-Tabella3[[#This Row],[Φ]])/(B15-Tabella3[[#This Row],[α_b]])</f>
-        <v>-5.8089216889918927</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2036465057964585</v>
       </c>
       <c r="L14">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.23644593296237526</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013501852857485</v>
+      </c>
+      <c r="M14">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33670873956986869</v>
+      </c>
+      <c r="N14">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8048431423654554</v>
+      </c>
+      <c r="O14">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.76732061670090257</v>
+      </c>
+      <c r="P14">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.25765594330296093</v>
+      </c>
+      <c r="Q14">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>1.8035916031207266</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9834,32 +12224,54 @@
       <c r="E15">
         <v>0.90166518473535795</v>
       </c>
+      <c r="F15">
+        <v>14.0488295971388</v>
+      </c>
       <c r="G15">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A16+J14/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J14/57.3))</f>
-        <v>-8.6063291522634575</v>
+        <v>3.0871771656852101</v>
       </c>
       <c r="H15">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>2.9696998285943637</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.038346607327332</v>
       </c>
       <c r="I15">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC44-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-3.58198190091476</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.22817273951849298</v>
       </c>
       <c r="J15">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.0276802344801133</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2058300032834297</v>
       </c>
       <c r="K15">
-        <f>(I16-Tabella3[[#This Row],[Φ]])/(B16-Tabella3[[#This Row],[α_b]])</f>
-        <v>-5.9553507797696028</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2028696544567707</v>
       </c>
       <c r="L15">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.24101740078162276</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013438601874014</v>
+      </c>
+      <c r="M15">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33745978875422239</v>
+      </c>
+      <c r="N15">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8085507324027958</v>
+      </c>
+      <c r="O15">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.77754461429027499</v>
+      </c>
+      <c r="P15">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.26095978436525669</v>
+      </c>
+      <c r="Q15">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>2.0876782749220535</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9878,32 +12290,54 @@
       <c r="E16">
         <v>0.99994789521852601</v>
       </c>
+      <c r="F16">
+        <v>14.0804149076745</v>
+      </c>
       <c r="G16">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A17+J15/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J15/57.3))</f>
-        <v>-14.049862736561661</v>
+        <v>2.9448243312074101</v>
       </c>
       <c r="H16">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>2.7564150180128082</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0406810722597561</v>
       </c>
       <c r="I16">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC45-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-3.7065335149938266</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.21765146572116853</v>
       </c>
       <c r="J16">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.2708770857160601</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2051283249114042</v>
       </c>
       <c r="K16">
-        <f>(I17-Tabella3[[#This Row],[Φ]])/(B17-Tabella3[[#This Row],[α_b]])</f>
-        <v>-6.0960466030989515</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2021812425493512</v>
       </c>
       <c r="L16">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.24567767303069005</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013382560459199</v>
+      </c>
+      <c r="M16">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.3381541608313417</v>
+      </c>
+      <c r="N16">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8119332091116302</v>
+      </c>
+      <c r="O16">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.78732762397636136</v>
+      </c>
+      <c r="P16">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.26410867011755362</v>
+      </c>
+      <c r="Q16">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>2.3769780310579827</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9922,32 +12356,54 @@
       <c r="E17">
         <v>1.0984346730599399</v>
       </c>
+      <c r="F17">
+        <v>14.1156952451298</v>
+      </c>
       <c r="G17">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A18+J16/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J16/57.3))</f>
-        <v>-6.6753401212984746</v>
+        <v>2.77397755795876</v>
       </c>
       <c r="H17">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>2.542290700394704</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0432886360036808</v>
       </c>
       <c r="I17">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC46-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-3.8250511876630418</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.20502420975304952</v>
       </c>
       <c r="J17">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.5192318467058437</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2043495394148307</v>
       </c>
       <c r="K17">
-        <f>(I18-Tabella3[[#This Row],[Φ]])/(B18-Tabella3[[#This Row],[α_b]])</f>
-        <v>-6.2305174003416601</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2014171703380456</v>
       </c>
       <c r="L17">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.25036888875471919</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013320369788588</v>
+      </c>
+      <c r="M17">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33896309404902553</v>
+      </c>
+      <c r="N17">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8158078831244562</v>
+      </c>
+      <c r="O17">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.79915361990014755</v>
+      </c>
+      <c r="P17">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.26788806944964777</v>
+      </c>
+      <c r="Q17">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>2.6788806944964776</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9966,32 +12422,54 @@
       <c r="E18">
         <v>1.19784355761298</v>
       </c>
+      <c r="F18">
+        <v>14.1549967368558</v>
+      </c>
       <c r="G18">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A19+J17/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J17/57.3))</f>
-        <v>6.7877313399469399</v>
+        <v>2.56495212438475</v>
       </c>
       <c r="H18">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>2.3273920904737415</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0461934025761863</v>
       </c>
       <c r="I18">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC47-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-3.9370429603115129</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.18957517549037325</v>
       </c>
       <c r="J18">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.7744516608796141</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2034881186858044</v>
       </c>
       <c r="K18">
-        <f>(I19-Tabella3[[#This Row],[Φ]])/(B19-Tabella3[[#This Row],[α_b]])</f>
-        <v>-6.3590664383769901</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.2005720105082114</v>
       </c>
       <c r="L18">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.25772128269837569</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013251591693741</v>
+      </c>
+      <c r="M18">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.33991746056362732</v>
+      </c>
+      <c r="N18">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8202667319053294</v>
+      </c>
+      <c r="O18">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.81374221753634024</v>
+      </c>
+      <c r="P18">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.27505694766978228</v>
+      </c>
+      <c r="Q18">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>3.025626424367605</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10010,32 +12488,54 @@
       <c r="E19">
         <v>1.29450022632146</v>
       </c>
+      <c r="F19">
+        <v>14.1976370788321</v>
+      </c>
       <c r="G19">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A20+J18/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J18/57.3))</f>
-        <v>14.059514113180098</v>
+        <v>2.3073371737589401</v>
       </c>
       <c r="H19">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>2.1117846388058026</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0493449430031117</v>
       </c>
       <c r="I19">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC48-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-4.0428610848094149</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.17053489828225721</v>
       </c>
       <c r="J19">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.0285677385838339</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2025607459156227</v>
       </c>
       <c r="K19">
-        <f>(I20-Tabella3[[#This Row],[Φ]])/(B20-Tabella3[[#This Row],[α_b]])</f>
-        <v>-6.4826270491312687</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.1996621275676072</v>
       </c>
       <c r="L19">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.26300030051832968</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013177561734088</v>
+      </c>
+      <c r="M19">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.34104199462163204</v>
+      </c>
+      <c r="N19">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8253219792332911</v>
+      </c>
+      <c r="O19">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.83189205332185356</v>
+      </c>
+      <c r="P19">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.27999848151476864</v>
+      </c>
+      <c r="Q19">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>3.3599817781772234</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10054,32 +12554,54 @@
       <c r="E20">
         <v>1.38385770413853</v>
       </c>
+      <c r="F20">
+        <v>14.241623411473</v>
+      </c>
       <c r="G20">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A21+J19/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J19/57.3))</f>
-        <v>8.510066873914278</v>
+        <v>1.9888920790517799</v>
       </c>
       <c r="H20">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>1.8955340118350281</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0525959653712491</v>
       </c>
       <c r="I20">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC49-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-4.1430618045657903</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.14699867546576348</v>
       </c>
       <c r="J20">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.2714567582257779</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.201611896604001</v>
       </c>
       <c r="K20">
-        <f>(I21-Tabella3[[#This Row],[Φ]])/(B21-Tabella3[[#This Row],[α_b]])</f>
-        <v>-6.602237891972746</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.1987311558098437</v>
       </c>
       <c r="L20">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.25829712395822602</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013101832784537</v>
+      </c>
+      <c r="M20">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.34235463241395681</v>
+      </c>
+      <c r="N20">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8308750681761583</v>
+      </c>
+      <c r="O20">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.85456425860185714</v>
+      </c>
+      <c r="P20">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.27308717441307639</v>
+      </c>
+      <c r="Q20">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>3.550133267369993</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -10098,32 +12620,54 @@
       <c r="E21">
         <v>1.4613690340788399</v>
       </c>
+      <c r="F21">
+        <v>14.282923617969701</v>
+      </c>
       <c r="G21">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A22+J20/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J20/57.3))</f>
-        <v>-4.8026686889387893</v>
+        <v>1.59433050140411</v>
       </c>
       <c r="H21">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>1.6787060718941269</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0556484566126905</v>
       </c>
       <c r="I21">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC50-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-4.2382255022290307</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>0.11783669633437621</v>
       </c>
       <c r="J21">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.4926760898561966</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2007281176927309</v>
       </c>
       <c r="K21">
-        <f>(I22-Tabella3[[#This Row],[Φ]])/(B22-Tabella3[[#This Row],[α_b]])</f>
-        <v>-6.7189413912271565</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.1978640125930213</v>
       </c>
       <c r="L21">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.24324317882310842</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013031311688527</v>
+      </c>
+      <c r="M21">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.34386503240794652</v>
+      </c>
+      <c r="N21">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8366441945832599</v>
+      </c>
+      <c r="O21">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.88297299113463379</v>
+      </c>
+      <c r="P21">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.25338620614989016</v>
+      </c>
+      <c r="Q21">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>3.5474068860984622</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10142,32 +12686,54 @@
       <c r="E22">
         <v>1.52248725921424</v>
       </c>
+      <c r="F22">
+        <v>14.3141548321128</v>
+      </c>
       <c r="G22">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A23+J21/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J21/57.3))</f>
-        <v>-13.735268304853548</v>
+        <v>1.1042071248401699</v>
       </c>
       <c r="H22">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>1.4613668571450267</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0579567503409313</v>
       </c>
       <c r="I22">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC51-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-4.3289385867283112</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>8.161176088988692E-2</v>
       </c>
       <c r="J22">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.6813620341545001</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2000643406261209</v>
       </c>
       <c r="K22">
-        <f>(I23-Tabella3[[#This Row],[Φ]])/(B23-Tabella3[[#This Row],[α_b]])</f>
-        <v>-6.8337673622791524</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.1972127199376055</v>
       </c>
       <c r="L22">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.21737101294676683</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.001297835508888</v>
+      </c>
+      <c r="M22">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.34556541753676046</v>
+      </c>
+      <c r="N22">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.84202133975537</v>
+      </c>
+      <c r="O22">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.91865867566043502</v>
+      </c>
+      <c r="P22">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.219456662906066</v>
+      </c>
+      <c r="Q22">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>3.2918499435909898</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10186,32 +12752,54 @@
       <c r="E23">
         <v>1.5626654226636201</v>
       </c>
+      <c r="F23">
+        <v>14.322331931719701</v>
+      </c>
       <c r="G23">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A24+J22/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J22/57.3))</f>
-        <v>-10.123289459747772</v>
+        <v>0.49356996853757601</v>
       </c>
       <c r="H23">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>1.2435825614659741</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0585611183828307</v>
       </c>
       <c r="I23">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC52-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-4.4157753483069229</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>3.6479672471365562E-2</v>
       </c>
       <c r="J23">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.8260875661995133</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.1998911882616734</v>
       </c>
       <c r="K23">
-        <f>(I24-Tabella3[[#This Row],[Φ]])/(B24-Tabella3[[#This Row],[α_b]])</f>
-        <v>-6.947716627132845</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.1970428228153929</v>
       </c>
       <c r="L23">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.18005523618271074</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.001296454223241</v>
+      </c>
+      <c r="M23">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.34741170159860763</v>
+      </c>
+      <c r="N23">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8458253867783627</v>
+      </c>
+      <c r="O23">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.9635445762923287</v>
+      </c>
+      <c r="P23">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>0.16913087654917869</v>
+      </c>
+      <c r="Q23">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>2.706094024786859</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10230,32 +12818,54 @@
       <c r="E24">
         <v>1.57735657790398</v>
       </c>
+      <c r="F24">
+        <v>14.2872889124111</v>
+      </c>
       <c r="G24">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A25+J23/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J23/57.3))</f>
-        <v>2.750560851373208</v>
+        <v>-0.24306371705337901</v>
       </c>
       <c r="H24">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>1.0254195142912084</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0559710947827865</v>
       </c>
       <c r="I24">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC53-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-4.4992798020076004</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>-1.7964798008379825E-2</v>
       </c>
       <c r="J24">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.9146789786805392</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.2006351053590523</v>
       </c>
       <c r="K24">
-        <f>(I25-Tabella3[[#This Row],[Φ]])/(B25-Tabella3[[#This Row],[α_b]])</f>
-        <v>-7.0617442066695553</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.1977727501717488</v>
       </c>
       <c r="L24">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.13047037842941522</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.0013023890605068</v>
+      </c>
+      <c r="M24">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.34922275710213274</v>
+      </c>
+      <c r="N24">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.845992768426477</v>
+      </c>
+      <c r="O24">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.98203810021539073</v>
+      </c>
+      <c r="P24">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>9.6195689958012046E-2</v>
+      </c>
+      <c r="Q24">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>1.6353267292862048</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>A24+1</f>
         <v>18</v>
@@ -10274,32 +12884,54 @@
       <c r="E25">
         <v>1.5620159470931601</v>
       </c>
+      <c r="F25">
+        <v>14.277065867523399</v>
+      </c>
       <c r="G25">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A26+J24/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J24/57.3))</f>
-        <v>13.112317447985284</v>
+        <v>-0.36563982436565901</v>
       </c>
       <c r="H25">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>0.80694416040934802</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0552155112729786</v>
       </c>
       <c r="I25">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC54-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-4.5799471079549354</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>-2.7024377262798153E-2</v>
       </c>
       <c r="J25">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.9339954476952954</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.200853049965759</v>
       </c>
       <c r="K25">
-        <f>(I26-Tabella3[[#This Row],[Φ]])/(B26-Tabella3[[#This Row],[α_b]])</f>
-        <v>-7.1745375228382011</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.1979865941512946</v>
       </c>
       <c r="L25">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>6.5903354258745966E-2</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.001304127978802</v>
+      </c>
+      <c r="M25">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.34946361441363799</v>
+      </c>
+      <c r="N25">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8455506085198849</v>
+      </c>
+      <c r="O25">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.97298548551592579</v>
+      </c>
+      <c r="P25">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>5.3749809662669195E-3</v>
+      </c>
+      <c r="Q25">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>9.6749657392804556E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" ref="A26:A27" si="1">A25+1</f>
         <v>19</v>
@@ -10318,31 +12950,54 @@
       <c r="E26">
         <v>1.52305821961917</v>
       </c>
+      <c r="F26">
+        <v>14.277065867523399</v>
+      </c>
       <c r="G26">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A27+J25/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J25/57.3))</f>
-        <v>11.442825617057524</v>
+        <v>-0.36563982436565901</v>
       </c>
       <c r="H26">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>0.58822303972664769</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0552155112729786</v>
       </c>
       <c r="I26">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC55-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-4.6560002089162396</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>-2.7024377262798153E-2</v>
       </c>
       <c r="J26">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.8960976509249394</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.200853049965759</v>
       </c>
       <c r="K26">
-        <v>4.4544E-2</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.1979865941512946</v>
       </c>
       <c r="L26">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>-1.0127991581535281E-2</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.001304127978802</v>
+      </c>
+      <c r="M26">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.34946361441363799</v>
+      </c>
+      <c r="N26">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8455506085198849</v>
+      </c>
+      <c r="O26">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.97298548551592579</v>
+      </c>
+      <c r="P26">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>-9.9560999519654567E-2</v>
+      </c>
+      <c r="Q26">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>-1.8916589908734367</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -10361,49 +13016,1168 @@
       <c r="E27">
         <v>1.52305821961917</v>
       </c>
+      <c r="F27">
+        <v>14.277065867523399</v>
+      </c>
       <c r="G27">
-        <f>Tabella224[d]*COS(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-A28+J26/57.3)+ (0.75*Tabella224[Cr]*COS(-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]+J26/57.3))</f>
-        <v>12.234046640912963</v>
+        <v>-0.36563982436565901</v>
       </c>
       <c r="H27">
-        <f>Tabella224[d]*SIN(Tabella224[φ]+Tabella224[iw]-Tabella224[α0_w]-Tabella24[[#This Row],[α_abs]]/57.3+0)</f>
-        <v>0.36932276700128197</v>
+        <f>Tabella24[[#This Row],[X]]/Tabella224[b/2]</f>
+        <v>1.0552155112729786</v>
       </c>
       <c r="I27">
-        <f>Tabella14[[#This Row],[Φ_80]]+(BC56-Tabella14[[#This Row],[Φ_80]])*((Tabella3[[#This Row],[X_p]]-80)/(90-80))</f>
-        <v>-1.8564609321321726</v>
+        <f>Tabella24[[#This Row],[m]]/Tabella224[b/2]</f>
+        <v>-2.7024377262798153E-2</v>
       </c>
       <c r="J27">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>-2.8274980820857714</v>
+        <f>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</f>
+        <v>2.200853049965759</v>
       </c>
       <c r="K27">
-        <f>(J28-Tabella3[[#This Row],[Φ]])/(B28-Tabella3[[#This Row],[α_b]])</f>
-        <v>-0.10711460373670061</v>
+        <f>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</f>
+        <v>2.1979865941512946</v>
       </c>
       <c r="L27">
-        <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>-5.652332501490101E-2</v>
+        <f>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</f>
+        <v>1.001304127978802</v>
+      </c>
+      <c r="M27">
+        <f>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</f>
+        <v>0.34946361441363799</v>
+      </c>
+      <c r="N27">
+        <f>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</f>
+        <v>1.8455506085198849</v>
+      </c>
+      <c r="O27">
+        <f>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</f>
+        <v>0.97298548551592579</v>
+      </c>
+      <c r="P27">
+        <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
+        <v>-0.18759250970670097</v>
+      </c>
+      <c r="Q27">
+        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+        <v>-3.7518501941340192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.06640625" customWidth="1"/>
+    <col min="8" max="8" width="7.265625" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="C2">
+        <v>13.53</v>
+      </c>
+      <c r="D2">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>-2.0369999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H2">
+        <v>1.57</v>
+      </c>
+      <c r="I2">
+        <v>13.74</v>
+      </c>
+      <c r="J2">
+        <v>4.09</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> SQRT(J2^2 + (I2-0.75*B2)^2)</f>
+        <v>12.552279576335925</v>
+      </c>
+      <c r="L2">
+        <f>ATAN((Tabella2245[[#This Row],[m0]]/(Tabella2245[[#This Row],[X0]]-0.75*Tabella2245[[#This Row],[Cr]])))</f>
+        <v>0.3318971510674355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="11">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12">
+        <f>A6+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>-2.6684609999999997</v>
+      </c>
+      <c r="C6" s="12">
+        <f>B6+Tabella2245[iw]*57.3</f>
+        <v>-1.1672009999999997</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9.8282834347781997E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.115402510819653</v>
+      </c>
+      <c r="F6" s="12">
+        <v>13.6917312039044</v>
+      </c>
+      <c r="G6" s="12">
+        <v>4.3124999907486403</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I6" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J6" s="12">
+        <f>(1-(G6/(Tabella2245[b/2]*2)))/(((F6/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.83730887078770322</v>
+      </c>
+      <c r="K6" s="12">
+        <f>4.44*(H6*I6*J6* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.21141554710975663</v>
+      </c>
+      <c r="L6" s="12">
+        <f>A6*K6</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>2*G6/(Tabella2245[b/2]*2)</f>
+        <v>0.31873614122310723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="13">
+        <f>A6+1</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="12">
+        <f>A7+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>-1.668461</v>
+      </c>
+      <c r="C7" s="12">
+        <f>B7+Tabella2245[iw]*57.3</f>
+        <v>-0.16720099999999993</v>
+      </c>
+      <c r="D7" s="14">
+        <v>9.8282834347781997E-2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.21368534516743501</v>
+      </c>
+      <c r="F7" s="15">
+        <v>13.745889410382899</v>
+      </c>
+      <c r="G7" s="14">
+        <v>4.1566379898647403</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I7" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J7" s="12">
+        <f>(1-(G7/(Tabella2245[b/2]*2)))/(((F7/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.84193732331697446</v>
+      </c>
+      <c r="K7" s="12">
+        <f>4.44*(H7*I7*J7* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.21280697809328983</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" ref="L7:L26" si="0">A7*K7</f>
+        <v>0.21280697809328983</v>
+      </c>
+      <c r="N7">
+        <f>F6/Tabella2245[b/2]</f>
+        <v>1.011953525787465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
+        <f t="shared" ref="A8:A23" si="1">A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <f>A8+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>-0.66846099999999997</v>
+      </c>
+      <c r="C8" s="12">
+        <f>B8+Tabella2245[iw]*57.3</f>
+        <v>0.83279900000000007</v>
+      </c>
+      <c r="D8" s="12">
+        <v>9.8282834347781997E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.31196817951521699</v>
+      </c>
+      <c r="F8" s="12">
+        <v>13.797222731719399</v>
+      </c>
+      <c r="G8" s="12">
+        <v>4.0014437301949703</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I8" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J8" s="12">
+        <f>(1-(G8/(Tabella2245[b/2]*2)))/(((F8/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.84658979064039164</v>
+      </c>
+      <c r="K8" s="12">
+        <f>4.44*(H8*I8*J8* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.2142070939819975</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.428414187963995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="12">
+        <f>A9+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>0.33153900000000003</v>
+      </c>
+      <c r="C9" s="12">
+        <f>B9+Tabella2245[iw]*57.3</f>
+        <v>1.8327990000000001</v>
+      </c>
+      <c r="D9" s="14">
+        <v>9.8282834347781997E-2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.410251013862999</v>
+      </c>
+      <c r="F9" s="14">
+        <v>13.8457845025516</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3.8469638352084101</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I9" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J9" s="12">
+        <f>(1-(G9/(Tabella2245[b/2]*2)))/(((F9/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.85126393048195292</v>
+      </c>
+      <c r="K9" s="12">
+        <f>4.44*(H9*I9*J9* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.21561520494021139</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.64684561482063418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="12">
+        <f>A10+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>1.331539</v>
+      </c>
+      <c r="C10" s="12">
+        <f>B10+Tabella2245[iw]*57.3</f>
+        <v>2.8327990000000001</v>
+      </c>
+      <c r="D10" s="12">
+        <v>9.8282834347781997E-2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.50853384821078196</v>
+      </c>
+      <c r="F10" s="12">
+        <v>13.8916290583707</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3.6932413891250002</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I10" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J10" s="12">
+        <f>(1-(G10/(Tabella2245[b/2]*2)))/(((F10/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.85595753500617189</v>
+      </c>
+      <c r="K10" s="12">
+        <f>4.44*(H10*I10*J10* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.21703065872248389</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.86812263488993557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="12">
+        <f>A11+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>2.3315390000000003</v>
+      </c>
+      <c r="C11" s="12">
+        <f>B11+Tabella2245[iw]*57.3</f>
+        <v>3.8327990000000005</v>
+      </c>
+      <c r="D11" s="14">
+        <v>9.8282834347781997E-2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.60681668255856303</v>
+      </c>
+      <c r="F11" s="14">
+        <v>13.934811533044799</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3.54031591967399</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I11" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J11" s="12">
+        <f>(1-(G11/(Tabella2245[b/2]*2)))/(((F11/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.86066853130470378</v>
+      </c>
+      <c r="K11" s="12">
+        <f>4.44*(H11*I11*J11* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.21845284103266394</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0922642051633198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="12">
+        <f>A12+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>3.3315389999999994</v>
+      </c>
+      <c r="C12" s="12">
+        <f>B12+Tabella2245[iw]*57.3</f>
+        <v>4.8327989999999996</v>
+      </c>
+      <c r="D12" s="12">
+        <v>9.8282834347779194E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.70509951690631101</v>
+      </c>
+      <c r="F12" s="12">
+        <v>13.9753876574768</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.3882234021856799</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I12" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J12" s="12">
+        <f>(1-(G12/(Tabella2245[b/2]*2)))/(((F12/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.86539498140749371</v>
+      </c>
+      <c r="K12" s="12">
+        <f>4.44*(H12*I12*J12* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.21988117574318772</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3192870544591262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="12">
+        <f>A13+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>4.3315389999999994</v>
+      </c>
+      <c r="C13" s="12">
+        <f>B13+Tabella2245[iw]*57.3</f>
+        <v>5.8327989999999996</v>
+      </c>
+      <c r="D13" s="14">
+        <v>9.8282834347227094E-2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.80338235124850899</v>
+      </c>
+      <c r="F13" s="14">
+        <v>14.0134135612502</v>
+      </c>
+      <c r="G13" s="14">
+        <v>3.2369962841600901</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I13" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J13" s="12">
+        <f>(1-(G13/(Tabella2245[b/2]*2)))/(((F13/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.87013508181158605</v>
+      </c>
+      <c r="K13" s="12">
+        <f>4.44*(H13*I13*J13* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.22131512497069225</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5492058747948458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="12">
+        <f>A14+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>5.3315389999999994</v>
+      </c>
+      <c r="C14" s="12">
+        <f>B14+Tabella2245[iw]*57.3</f>
+        <v>6.8327989999999996</v>
+      </c>
+      <c r="D14" s="12">
+        <v>9.8282834239803205E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.90166518473535795</v>
+      </c>
+      <c r="F14" s="12">
+        <v>14.0488295971388</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3.0871771656852101</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I14" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J14" s="12">
+        <f>(1-(G14/(Tabella2245[b/2]*2)))/(((F14/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.87487082531166904</v>
+      </c>
+      <c r="K14" s="12">
+        <f>4.44*(H14*I14*J14* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.22274923908738847</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="0"/>
+        <v>1.7819939126991078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="12">
+        <f>A15+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>6.3315389999999994</v>
+      </c>
+      <c r="C15" s="12">
+        <f>B15+Tabella2245[iw]*57.3</f>
+        <v>7.8327989999999996</v>
+      </c>
+      <c r="D15" s="14">
+        <v>9.8282813863925997E-2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.99994789521852601</v>
+      </c>
+      <c r="F15" s="14">
+        <v>14.0804149076745</v>
+      </c>
+      <c r="G15" s="14">
+        <v>2.9448243312074101</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I15" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J15" s="12">
+        <f>(1-(G15/(Tabella2245[b/2]*2)))/(((F15/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.87940733916781999</v>
+      </c>
+      <c r="K15" s="12">
+        <f>4.44*(H15*I15*J15* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.22412440495347286</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0171196445812556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="12">
+        <f>A16+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>7.3315389999999994</v>
+      </c>
+      <c r="C16" s="12">
+        <f>B16+Tabella2245[iw]*57.3</f>
+        <v>8.8327989999999996</v>
+      </c>
+      <c r="D16" s="12">
+        <v>9.8279039539641996E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1.0984346730599399</v>
+      </c>
+      <c r="F16" s="12">
+        <v>14.1156952451298</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2.77397755795876</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I16" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J16" s="12">
+        <f>(1-(G16/(Tabella2245[b/2]*2)))/(((F16/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.88489914221861798</v>
+      </c>
+      <c r="K16" s="12">
+        <f>4.44*(H16*I16*J16* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.2257909540841605</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="0"/>
+        <v>2.257909540841605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="12">
+        <f>A17+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>8.3315389999999994</v>
+      </c>
+      <c r="C17" s="12">
+        <f>B17+Tabella2245[iw]*57.3</f>
+        <v>9.8327989999999996</v>
+      </c>
+      <c r="D17" s="14">
+        <v>9.9188004814052794E-2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1.19784355761298</v>
+      </c>
+      <c r="F17" s="14">
+        <v>14.1549967368558</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2.56495212438475</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I17" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J17" s="12">
+        <f>(1-(G17/(Tabella2245[b/2]*2)))/(((F17/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.89168851861220011</v>
+      </c>
+      <c r="K17" s="12">
+        <f>4.44*(H17*I17*J17* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.22785398337878934</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5063938171666829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="12">
+        <f>A18+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>9.3315389999999994</v>
+      </c>
+      <c r="C18" s="12">
+        <f>B18+Tabella2245[iw]*57.3</f>
+        <v>10.832799</v>
+      </c>
+      <c r="D18" s="12">
+        <v>9.8887374946945397E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1.29450022632146</v>
+      </c>
+      <c r="F18" s="12">
+        <v>14.1976370788321</v>
+      </c>
+      <c r="G18" s="12">
+        <v>2.3073371737589401</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I18" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J18" s="12">
+        <f>(1-(G18/(Tabella2245[b/2]*2)))/(((F18/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.90016345171049772</v>
+      </c>
+      <c r="K18" s="12">
+        <f>4.44*(H18*I18*J18* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.23043337713057238</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7652005255668684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="12">
+        <f>A19+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>10.331538999999999</v>
+      </c>
+      <c r="C19" s="12">
+        <f>B19+Tabella2245[iw]*57.3</f>
+        <v>11.832799</v>
+      </c>
+      <c r="D19" s="14">
+        <v>9.4047767782505606E-2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1.38385770413853</v>
+      </c>
+      <c r="F19" s="14">
+        <v>14.241623411473</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1.9888920790517799</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I19" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J19" s="12">
+        <f>(1-(G19/(Tabella2245[b/2]*2)))/(((F19/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.91080449878771463</v>
+      </c>
+      <c r="K19" s="12">
+        <f>4.44*(H19*I19*J19* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.23367857539408221</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>3.0378214801230685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="12">
+        <f>A20+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>11.331538999999999</v>
+      </c>
+      <c r="C20" s="12">
+        <f>B20+Tabella2245[iw]*57.3</f>
+        <v>12.832799</v>
+      </c>
+      <c r="D20" s="12">
+        <v>8.4661245764850707E-2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1.4613690340788399</v>
+      </c>
+      <c r="F20" s="12">
+        <v>14.282923617969701</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1.59433050140411</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I20" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J20" s="12">
+        <f>(1-(G20/(Tabella2245[b/2]*2)))/(((F20/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.92424590222758451</v>
+      </c>
+      <c r="K20" s="12">
+        <f>4.44*(H20*I20*J20* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.2377880977557085</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>3.3290333685799189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="12">
+        <f>A21+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>12.331538999999999</v>
+      </c>
+      <c r="C21" s="12">
+        <f>B21+Tabella2245[iw]*57.3</f>
+        <v>13.832799</v>
+      </c>
+      <c r="D21" s="14">
+        <v>7.0727767035164896E-2</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1.52248725921424</v>
+      </c>
+      <c r="F21" s="14">
+        <v>14.3141548321128</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1.1042071248401699</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I21" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J21" s="12">
+        <f>(1-(G21/(Tabella2245[b/2]*2)))/(((F21/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.94134871974877865</v>
+      </c>
+      <c r="K21" s="12">
+        <f>4.44*(H21*I21*J21* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.24303346885342084</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
+        <v>3.6455020328013124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="12">
+        <f>A22+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>13.331538999999999</v>
+      </c>
+      <c r="C22" s="12">
+        <f>B22+Tabella2245[iw]*57.3</f>
+        <v>14.832799</v>
+      </c>
+      <c r="D22" s="12">
+        <v>5.22473313753695E-2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1.5626654226636201</v>
+      </c>
+      <c r="F22" s="12">
+        <v>14.322331931719701</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.49356996853757601</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I22" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J22" s="12">
+        <f>(1-(G22/(Tabella2245[b/2]*2)))/(((F22/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.96331153351232401</v>
+      </c>
+      <c r="K22" s="12">
+        <f>4.44*(H22*I22*J22* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.24979594951221692</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>3.9967351921954708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="13">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="12">
+        <f>A23+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>14.331538999999999</v>
+      </c>
+      <c r="C23" s="12">
+        <f>B23+Tabella2245[iw]*57.3</f>
+        <v>15.832799</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2.92199383809684E-2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1.57735657790398</v>
+      </c>
+      <c r="F23" s="14">
+        <v>14.2872889124111</v>
+      </c>
+      <c r="G23" s="14">
+        <v>-0.24306371705337901</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I23" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J23" s="12">
+        <f>(1-(G23/(Tabella2245[b/2]*2)))/(((F23/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.99083098716491791</v>
+      </c>
+      <c r="K23" s="12">
+        <f>4.44*(H23*I23*J23* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.25831073071076377</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>4.391282422082984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="11">
+        <f>A23+1</f>
+        <v>18</v>
+      </c>
+      <c r="B24" s="12">
+        <f>A24+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>15.331539000000001</v>
+      </c>
+      <c r="C24" s="12">
+        <f>B24+Tabella2245[iw]*57.3</f>
+        <v>16.832799000000001</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1.6455383118552101E-3</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1.5620159470931601</v>
+      </c>
+      <c r="F24" s="12">
+        <v>14.277065867523399</v>
+      </c>
+      <c r="G24" s="12">
+        <v>-0.36563982436565901</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I24" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J24" s="12">
+        <f>(1-(G24/(Tabella2245[b/2]*2)))/(((F24/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.99551678547335065</v>
+      </c>
+      <c r="K24" s="12">
+        <f>4.44*(H24*I24*J24* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.25976507839472718</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
+        <v>4.6757714111050888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="13">
+        <f t="shared" ref="A25:A26" si="2">A24+1</f>
+        <v>19</v>
+      </c>
+      <c r="B25" s="12">
+        <f>A25+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>16.331539000000003</v>
+      </c>
+      <c r="C25" s="12">
+        <f>B25+Tabella2245[iw]*57.3</f>
+        <v>17.832799000000001</v>
+      </c>
+      <c r="D25" s="14">
+        <v>-3.0480375670981299E-2</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1.52305821961917</v>
+      </c>
+      <c r="F25" s="14">
+        <v>14.277065867523399</v>
+      </c>
+      <c r="G25" s="14">
+        <v>-0.36563982436565901</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I25" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J25" s="12">
+        <f>(1-(G25/(Tabella2245[b/2]*2)))/(((F25/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.99551678547335065</v>
+      </c>
+      <c r="K25" s="12">
+        <f>4.44*(H25*I25*J25* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.25976507839472718</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
+        <v>4.9355364894998166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="12">
+        <f>A26+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
+        <v>17.331539000000003</v>
+      </c>
+      <c r="C26" s="12">
+        <f>B26+Tabella2245[iw]*57.3</f>
+        <v>18.832799000000001</v>
+      </c>
+      <c r="D26" s="12">
+        <v>-5.7431024161159298E-2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1.52305821961917</v>
+      </c>
+      <c r="F26" s="12">
+        <v>14.277065867523399</v>
+      </c>
+      <c r="G26" s="12">
+        <v>-0.36563982436565901</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I26" s="12">
+        <f>(10-3*Tabella2245[λ])/7</f>
+        <v>1.1560000000000001</v>
+      </c>
+      <c r="J26" s="12">
+        <f>(1-(G26/(Tabella2245[b/2]*2)))/(((F26/Tabella2245[b/2]))^(1/3))</f>
+        <v>0.99551678547335065</v>
+      </c>
+      <c r="K26" s="12">
+        <f>4.44*(H26*I26*J26* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
+        <v>0.25976507839472718</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="0"/>
+        <v>5.1953015678945436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOCS/Theses/Ruocco/Latex/Giordano.xlsx
+++ b/DOCS/Theses/Ruocco/Latex/Giordano.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="113" windowWidth="23310" windowHeight="9983" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="113" windowWidth="23310" windowHeight="9983" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Giordano" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
   <si>
     <t>AR</t>
   </si>
@@ -702,12 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -715,6 +709,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
@@ -724,6 +724,27 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="66">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -785,33 +806,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -960,6 +954,12 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1078,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198394368"/>
-        <c:axId val="171146560"/>
+        <c:axId val="143565312"/>
+        <c:axId val="143075008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198394368"/>
+        <c:axId val="143565312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171146560"/>
+        <c:crossAx val="143075008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1151,7 +1151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171146560"/>
+        <c:axId val="143075008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198394368"/>
+        <c:crossAx val="143565312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1499,11 +1499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148059648"/>
-        <c:axId val="140154496"/>
+        <c:axId val="146200064"/>
+        <c:axId val="146261696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148059648"/>
+        <c:axId val="146200064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140154496"/>
+        <c:crossAx val="146261696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1550,7 +1550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140154496"/>
+        <c:axId val="146261696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148059648"/>
+        <c:crossAx val="146200064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1723,7 +1723,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Delft!$Q$7:$Q$26</c:f>
+              <c:f>Delft!$R$7:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1879,11 +1879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144143872"/>
-        <c:axId val="141890048"/>
+        <c:axId val="146202112"/>
+        <c:axId val="146263424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144143872"/>
+        <c:axId val="146202112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141890048"/>
+        <c:crossAx val="146263424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141890048"/>
+        <c:axId val="146263424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +1962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144143872"/>
+        <c:crossAx val="146202112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2095,11 +2095,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198394880"/>
-        <c:axId val="196813952"/>
+        <c:axId val="143565824"/>
+        <c:axId val="143073280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198394880"/>
+        <c:axId val="143565824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,7 +2135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196813952"/>
+        <c:crossAx val="143073280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2143,7 +2143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196813952"/>
+        <c:axId val="143073280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198394880"/>
+        <c:crossAx val="143565824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2290,11 +2290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198395392"/>
-        <c:axId val="196815680"/>
+        <c:axId val="143566336"/>
+        <c:axId val="143077312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198395392"/>
+        <c:axId val="143566336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196815680"/>
+        <c:crossAx val="143077312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2338,7 +2338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196815680"/>
+        <c:axId val="143077312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198395392"/>
+        <c:crossAx val="143566336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2482,11 +2482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198395904"/>
-        <c:axId val="196817408"/>
+        <c:axId val="143566848"/>
+        <c:axId val="143079040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198395904"/>
+        <c:axId val="143566848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,7 +2546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196817408"/>
+        <c:crossAx val="143079040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2554,7 +2554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196817408"/>
+        <c:axId val="143079040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198395904"/>
+        <c:crossAx val="143566848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2602,7 +2602,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2698,11 +2697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149456896"/>
-        <c:axId val="210538432"/>
+        <c:axId val="143567360"/>
+        <c:axId val="143080768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149456896"/>
+        <c:axId val="143567360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +2710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210538432"/>
+        <c:crossAx val="143080768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2719,7 +2718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210538432"/>
+        <c:axId val="143080768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,14 +2729,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149456896"/>
+        <c:crossAx val="143567360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2866,11 +2864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128502272"/>
-        <c:axId val="126348096"/>
+        <c:axId val="139107840"/>
+        <c:axId val="144960320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128502272"/>
+        <c:axId val="139107840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,7 +2877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126348096"/>
+        <c:crossAx val="144960320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2887,7 +2885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126348096"/>
+        <c:axId val="144960320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,7 +2896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128502272"/>
+        <c:crossAx val="139107840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2952,7 +2950,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Delft!$Q$7:$Q$26</c:f>
+              <c:f>Delft!$R$7:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3031,11 +3029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126536192"/>
-        <c:axId val="199804032"/>
+        <c:axId val="143567872"/>
+        <c:axId val="144961472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126536192"/>
+        <c:axId val="143567872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,7 +3042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199804032"/>
+        <c:crossAx val="144961472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3052,7 +3050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199804032"/>
+        <c:axId val="144961472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126536192"/>
+        <c:crossAx val="143567872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3192,11 +3190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126534144"/>
-        <c:axId val="8128768"/>
+        <c:axId val="146199040"/>
+        <c:axId val="144963776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126534144"/>
+        <c:axId val="146199040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3205,7 +3203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8128768"/>
+        <c:crossAx val="144963776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3213,7 +3211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8128768"/>
+        <c:axId val="144963776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3224,7 +3222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126534144"/>
+        <c:crossAx val="146199040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3353,11 +3351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148474368"/>
-        <c:axId val="140150464"/>
+        <c:axId val="146200576"/>
+        <c:axId val="146259968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148474368"/>
+        <c:axId val="146200576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,7 +3364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140150464"/>
+        <c:crossAx val="146259968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3374,7 +3372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140150464"/>
+        <c:axId val="146259968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148474368"/>
+        <c:crossAx val="146200576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3782,7 +3780,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="AQ6:BA27" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="20% - Colore 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="AQ6:BA27" totalsRowShown="0" headerRowDxfId="22" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AQ6:BA27"/>
   <tableColumns count="11">
     <tableColumn id="1" name="m1">
@@ -3806,16 +3804,16 @@
     <tableColumn id="7" name="m4meno">
       <calculatedColumnFormula>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Φ_1" dataDxfId="19">
+    <tableColumn id="8" name="Φ_1" dataDxfId="21">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Φ_2" dataDxfId="18">
+    <tableColumn id="9" name="Φ_2" dataDxfId="20">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_2]]+(Tabella11[[#This Row],[Φ_2]]-Tabella9[[#This Row],[Φ_2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ_3" dataDxfId="17">
+    <tableColumn id="10" name="Φ_3" dataDxfId="19">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_3]]+(Tabella11[[#This Row],[Φ_3]]-Tabella9[[#This Row],[Φ_3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Φ_4" dataDxfId="16">
+    <tableColumn id="11" name="Φ_4" dataDxfId="18">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_4]]+(Tabella11[[#This Row],[Φ_4]]-Tabella9[[#This Row],[Φ_4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3837,10 +3835,10 @@
     <tableColumn id="5" name="r = 1/λ"/>
     <tableColumn id="6" name="X0"/>
     <tableColumn id="7" name="m0"/>
-    <tableColumn id="8" name="d" dataDxfId="24">
+    <tableColumn id="8" name="d" dataDxfId="17">
       <calculatedColumnFormula xml:space="preserve"> SQRT(J2^2 + (I2-0.75*B2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="φ" dataDxfId="23">
+    <tableColumn id="9" name="φ" dataDxfId="16">
       <calculatedColumnFormula>ATAN((Tabella224[[#This Row],[m0]]/(Tabella224[[#This Row],[X0]]-0.75*Tabella224[[#This Row],[Cr]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3849,50 +3847,51 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabella24" displayName="Tabella24" ref="A6:Q27" totalsRowShown="0" headerRowCellStyle="Colore 1" dataCellStyle="Colore 1">
-  <autoFilter ref="A6:Q27"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabella24" displayName="Tabella24" ref="A6:R27" totalsRowShown="0" headerRowCellStyle="Colore 1" dataCellStyle="Colore 1">
+  <autoFilter ref="A6:R27"/>
+  <tableColumns count="18">
     <tableColumn id="1" name="α_abs">
       <calculatedColumnFormula>A6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="α_b" dataDxfId="22">
+    <tableColumn id="2" name="α_b" dataDxfId="15">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_abs]]+Tabella224[α0_w]*57.3-Tabella224[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="α_w" dataDxfId="21">
+    <tableColumn id="3" name="α_w" dataDxfId="14">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_b]]+Tabella224[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="CL_α"/>
     <tableColumn id="5" name="CL"/>
-    <tableColumn id="14" name="X" dataDxfId="14"/>
-    <tableColumn id="8" name="m" dataDxfId="20"/>
-    <tableColumn id="6" name="r (X/b/2)" dataDxfId="13">
+    <tableColumn id="14" name="X" dataDxfId="13"/>
+    <tableColumn id="8" name="m" dataDxfId="12"/>
+    <tableColumn id="6" name="r (X/b/2)" dataDxfId="11">
       <calculatedColumnFormula>Tabella24[[#This Row],[X]]/Tabella224[b/2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m (m/b/2)" dataDxfId="12">
+    <tableColumn id="7" name="m (m/b/2)" dataDxfId="10">
       <calculatedColumnFormula>Tabella24[[#This Row],[m]]/Tabella224[b/2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Kε_Λ" dataDxfId="11">
+    <tableColumn id="11" name="Kε_Λ" dataDxfId="9">
       <calculatedColumnFormula>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kε_Λ0" dataDxfId="10">
+    <tableColumn id="9" name="Kε_Λ0" dataDxfId="8">
       <calculatedColumnFormula>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="dε/dα_k" dataDxfId="9">
+    <tableColumn id="13" name="dε/dα_k" dataDxfId="7">
       <calculatedColumnFormula>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="dε/dα_1" dataDxfId="8" dataCellStyle="Normale">
+    <tableColumn id="10" name="dε/dα_1" dataDxfId="6" dataCellStyle="Normale">
       <calculatedColumnFormula>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="dε/dα_2" dataDxfId="7" dataCellStyle="Normale">
+    <tableColumn id="12" name="dε/dα_2" dataDxfId="5" dataCellStyle="Normale">
       <calculatedColumnFormula>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="dε/dα_3" dataDxfId="6" dataCellStyle="Normale">
+    <tableColumn id="15" name="dε/dα_3" dataDxfId="4" dataCellStyle="Normale">
       <calculatedColumnFormula>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="dε/dα" dataDxfId="5" dataCellStyle="Normale">
+    <tableColumn id="16" name="dε/dα" dataDxfId="3" dataCellStyle="Normale">
       <calculatedColumnFormula>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="ε" dataDxfId="4" dataCellStyle="Normale">
+    <tableColumn id="18" name="Colonna1"/>
+    <tableColumn id="17" name="ε" dataDxfId="2" dataCellStyle="Normale">
       <calculatedColumnFormula>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3950,19 +3949,19 @@
     <tableColumn id="9" name="m_P" dataDxfId="57">
       <calculatedColumnFormula>Tabella3[[#This Row],[m]]/Tabella2[b/2]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ" dataDxfId="2">
+    <tableColumn id="10" name="Φ" dataDxfId="56">
       <calculatedColumnFormula>Tabella14[[#This Row],[Φ_80]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="ε" dataDxfId="56">
+    <tableColumn id="11" name="ε" dataDxfId="55">
       <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="dΦ/dα" dataDxfId="55">
+    <tableColumn id="12" name="dΦ/dα" dataDxfId="54">
       <calculatedColumnFormula>(J8-Tabella3[[#This Row],[Φ]])/(B8-Tabella3[[#This Row],[α_b]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="dε/dα" dataDxfId="54">
+    <tableColumn id="13" name="dε/dα" dataDxfId="53">
       <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Colonna1" dataDxfId="3">
+    <tableColumn id="14" name="Colonna1" dataDxfId="52">
       <calculatedColumnFormula>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4025,7 +4024,7 @@
     <tableColumn id="6" name="m3meno">
       <calculatedColumnFormula>AG7-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="53">
+    <tableColumn id="7" name="m4" dataDxfId="51">
       <calculatedColumnFormula>Tabella11[[#This Row],[m3]]+10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="m4meno">
@@ -4057,25 +4056,25 @@
   <autoFilter ref="Q35:AB56"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mTab"/>
-    <tableColumn id="2" name="m1" dataDxfId="52">
+    <tableColumn id="2" name="m1" dataDxfId="50">
       <calculatedColumnFormula>E7*Tabella18[[#This Row],[mTab]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2" dataDxfId="51">
+    <tableColumn id="3" name="m2" dataDxfId="49">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m2meno" dataDxfId="50">
+    <tableColumn id="4" name="m2meno" dataDxfId="48">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3" dataDxfId="49">
+    <tableColumn id="5" name="m3" dataDxfId="47">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m3meno" dataDxfId="48">
+    <tableColumn id="6" name="m3meno" dataDxfId="46">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2meno]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="47">
+    <tableColumn id="7" name="m4" dataDxfId="45">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m4meno" dataDxfId="46">
+    <tableColumn id="8" name="m4meno" dataDxfId="44">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3meno]]-10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Φ_1"/>
@@ -4088,29 +4087,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabella19" displayName="Tabella19" ref="AD35:AO56" totalsRowShown="0" headerRowDxfId="45" headerRowCellStyle="20% - Colore 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabella19" displayName="Tabella19" ref="AD35:AO56" totalsRowShown="0" headerRowDxfId="43" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AD35:AO56"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mTab"/>
-    <tableColumn id="2" name="m1" dataDxfId="44">
+    <tableColumn id="2" name="m1" dataDxfId="42">
       <calculatedColumnFormula>Tabella19[[#This Row],[mTab]]*E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2" dataDxfId="43">
+    <tableColumn id="3" name="m2" dataDxfId="41">
       <calculatedColumnFormula>Tabella19[[#This Row],[m1]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m2meno" dataDxfId="42">
+    <tableColumn id="4" name="m2meno" dataDxfId="40">
       <calculatedColumnFormula>Tabella19[[#This Row],[m1]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3" dataDxfId="41">
+    <tableColumn id="5" name="m3" dataDxfId="39">
       <calculatedColumnFormula>Tabella19[[#This Row],[m2]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m3meno" dataDxfId="40">
+    <tableColumn id="6" name="m3meno" dataDxfId="38">
       <calculatedColumnFormula>Tabella19[[#This Row],[m2meno]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="39">
+    <tableColumn id="7" name="m4" dataDxfId="37">
       <calculatedColumnFormula>Tabella19[[#This Row],[m3]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m4meno" dataDxfId="38">
+    <tableColumn id="8" name="m4meno" dataDxfId="36">
       <calculatedColumnFormula>Tabella19[[#This Row],[m3meno]]-10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Φ_1"/>
@@ -4123,40 +4122,40 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabella21" displayName="Tabella21" ref="AQ35:BA55" totalsRowShown="0" headerRowDxfId="37" headerRowCellStyle="20% - Colore 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabella21" displayName="Tabella21" ref="AQ35:BA55" totalsRowShown="0" headerRowDxfId="35" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AQ35:BA55"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="m1" dataDxfId="36">
+    <tableColumn id="1" name="m1" dataDxfId="34">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="m2" dataDxfId="35">
+    <tableColumn id="2" name="m2" dataDxfId="33">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2meno" dataDxfId="34">
+    <tableColumn id="3" name="m2meno" dataDxfId="32">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m3" dataDxfId="33">
+    <tableColumn id="4" name="m3" dataDxfId="31">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3meno" dataDxfId="32">
+    <tableColumn id="5" name="m3meno" dataDxfId="30">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m4" dataDxfId="31">
+    <tableColumn id="6" name="m4" dataDxfId="29">
       <calculatedColumnFormula>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4meno" dataDxfId="30">
+    <tableColumn id="7" name="m4meno" dataDxfId="28">
       <calculatedColumnFormula>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Φ_1" dataDxfId="29">
+    <tableColumn id="8" name="Φ_1" dataDxfId="27">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Φ_2" dataDxfId="28">
+    <tableColumn id="9" name="Φ_2" dataDxfId="26">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_2]]+(Tabella19[[#This Row],[Φ_2]]-Tabella18[[#This Row],[Φ_2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ_3" dataDxfId="27">
+    <tableColumn id="10" name="Φ_3" dataDxfId="25">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_3]]+(Tabella19[[#This Row],[Φ_3]]-Tabella18[[#This Row],[Φ_3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Φ_4" dataDxfId="26">
+    <tableColumn id="11" name="Φ_4" dataDxfId="24">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_4]]+(Tabella19[[#This Row],[Φ_4]]-Tabella18[[#This Row],[Φ_4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4168,7 +4167,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabella22" displayName="Tabella22" ref="BC35:BC55" totalsRowShown="0">
   <autoFilter ref="BC35:BC55"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Φ_90" dataDxfId="25">
+    <tableColumn id="1" name="Φ_90" dataDxfId="23">
       <calculatedColumnFormula>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I7-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4465,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC56"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4556,87 +4555,87 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AQ5" s="10" t="s">
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AQ5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+      <c r="BA5" s="17"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -8621,87 +8620,87 @@
       </c>
     </row>
     <row r="33" spans="17:55" x14ac:dyDescent="0.45">
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="9"/>
-      <c r="BA33" s="9"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="16"/>
+      <c r="AX33" s="16"/>
+      <c r="AY33" s="16"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="16"/>
     </row>
     <row r="34" spans="17:55" x14ac:dyDescent="0.45">
-      <c r="R34" s="10" t="s">
+      <c r="R34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AD34" s="10" t="s">
+      <c r="AD34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AQ34" s="10" t="s">
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AQ34" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
     </row>
     <row r="35" spans="17:55" x14ac:dyDescent="0.45">
       <c r="Q35" s="7" t="s">
@@ -11529,10 +11528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11544,10 +11543,10 @@
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="11.46484375" customWidth="1"/>
     <col min="15" max="15" width="11.9296875" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="16" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>12</v>
       </c>
@@ -11625,7 +11624,7 @@
         <v>0.3318971510674355</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -11675,10 +11674,13 @@
         <v>21</v>
       </c>
       <c r="Q6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11738,12 +11740,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.23438014029411439</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>A7+1</f>
         <v>1</v>
@@ -11804,12 +11806,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.23769520799969651</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>0.23769520799969651</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" ref="A9:A24" si="0">A8+1</f>
         <v>2</v>
@@ -11870,12 +11872,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.24101781007506587</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>0.48203562015013174</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -11936,12 +11938,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.24434543801554956</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>0.73303631404664871</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12002,12 +12004,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.24767557364722045</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>0.99070229458888182</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12068,12 +12070,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.25100570085486645</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>1.2550285042743323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12134,12 +12136,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.25433331691224792</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>1.5259999014734875</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12200,12 +12202,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.25765594330296093</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>1.8035916031207266</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12266,12 +12268,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.26095978436525669</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>2.0876782749220535</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12332,12 +12334,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.26410867011755362</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>2.3769780310579827</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12398,12 +12400,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.26788806944964777</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>2.6788806944964776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12464,12 +12466,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.27505694766978228</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>3.025626424367605</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12530,12 +12532,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.27999848151476864</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>3.3599817781772234</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12596,12 +12598,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.27308717441307639</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>3.550133267369993</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -12662,12 +12664,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.25338620614989016</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>3.5474068860984622</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -12728,12 +12730,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.219456662906066</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>3.2918499435909898</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12794,12 +12796,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.16913087654917869</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>2.706094024786859</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12860,12 +12862,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>9.6195689958012046E-2</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>1.6353267292862048</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>A24+1</f>
         <v>18</v>
@@ -12926,12 +12928,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>5.3749809662669195E-3</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>9.6749657392804556E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" ref="A26:A27" si="1">A25+1</f>
         <v>19</v>
@@ -12992,12 +12994,12 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>-9.9560999519654567E-2</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>-1.8916589908734367</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -13058,7 +13060,7 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>-0.18759250970670097</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
         <v>-3.7518501941340192</v>
       </c>
@@ -13078,7 +13080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -13168,83 +13170,83 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <f>A6+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>-2.6684609999999997</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <f>B6+Tabella2245[iw]*57.3</f>
         <v>-1.1672009999999997</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>9.8282834347781997E-2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>0.115402510819653</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>13.6917312039044</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>4.3124999907486403</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>0.08</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <f>(1-(G6/(Tabella2245[b/2]*2)))/(((F6/Tabella2245[b/2]))^(1/3))</f>
         <v>0.83730887078770322</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <f>4.44*(H6*I6*J6* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.21141554710975663</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="10">
         <f>A6*K6</f>
         <v>0</v>
       </c>
@@ -13254,46 +13256,46 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <f>A6+1</f>
         <v>1</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <f>A7+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>-1.668461</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <f>B7+Tabella2245[iw]*57.3</f>
         <v>-0.16720099999999993</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>9.8282834347781997E-2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>0.21368534516743501</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>13.745889410382899</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>4.1566379898647403</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>0.08</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <f>(1-(G7/(Tabella2245[b/2]*2)))/(((F7/Tabella2245[b/2]))^(1/3))</f>
         <v>0.84193732331697446</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <f>4.44*(H7*I7*J7* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.21280697809328983</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="10">
         <f t="shared" ref="L7:L26" si="0">A7*K7</f>
         <v>0.21280697809328983</v>
       </c>
@@ -13303,856 +13305,856 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <f t="shared" ref="A8:A23" si="1">A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <f>A8+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>-0.66846099999999997</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f>B8+Tabella2245[iw]*57.3</f>
         <v>0.83279900000000007</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>9.8282834347781997E-2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>0.31196817951521699</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>13.797222731719399</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>4.0014437301949703</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>0.08</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <f>(1-(G8/(Tabella2245[b/2]*2)))/(((F8/Tabella2245[b/2]))^(1/3))</f>
         <v>0.84658979064039164</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <f>4.44*(H8*I8*J8* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.2142070939819975</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="10">
         <f t="shared" si="0"/>
         <v>0.428414187963995</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <f>A9+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>0.33153900000000003</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <f>B9+Tabella2245[iw]*57.3</f>
         <v>1.8327990000000001</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>9.8282834347781997E-2</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>0.410251013862999</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>13.8457845025516</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>3.8469638352084101</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>0.08</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <f>(1-(G9/(Tabella2245[b/2]*2)))/(((F9/Tabella2245[b/2]))^(1/3))</f>
         <v>0.85126393048195292</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <f>4.44*(H9*I9*J9* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.21561520494021139</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="10">
         <f t="shared" si="0"/>
         <v>0.64684561482063418</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <f>A10+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>1.331539</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <f>B10+Tabella2245[iw]*57.3</f>
         <v>2.8327990000000001</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>9.8282834347781997E-2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>0.50853384821078196</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>13.8916290583707</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>3.6932413891250002</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>0.08</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <f>(1-(G10/(Tabella2245[b/2]*2)))/(((F10/Tabella2245[b/2]))^(1/3))</f>
         <v>0.85595753500617189</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <f>4.44*(H10*I10*J10* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.21703065872248389</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <f t="shared" si="0"/>
         <v>0.86812263488993557</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <f>A11+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>2.3315390000000003</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <f>B11+Tabella2245[iw]*57.3</f>
         <v>3.8327990000000005</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>9.8282834347781997E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>0.60681668255856303</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>13.934811533044799</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>3.54031591967399</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>0.08</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <f>(1-(G11/(Tabella2245[b/2]*2)))/(((F11/Tabella2245[b/2]))^(1/3))</f>
         <v>0.86066853130470378</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <f>4.44*(H11*I11*J11* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.21845284103266394</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="10">
         <f t="shared" si="0"/>
         <v>1.0922642051633198</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <f>A12+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>3.3315389999999994</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <f>B12+Tabella2245[iw]*57.3</f>
         <v>4.8327989999999996</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>9.8282834347779194E-2</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>0.70509951690631101</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>13.9753876574768</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>3.3882234021856799</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>0.08</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <f>(1-(G12/(Tabella2245[b/2]*2)))/(((F12/Tabella2245[b/2]))^(1/3))</f>
         <v>0.86539498140749371</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <f>4.44*(H12*I12*J12* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.21988117574318772</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="10">
         <f t="shared" si="0"/>
         <v>1.3192870544591262</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <f>A13+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>4.3315389999999994</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <f>B13+Tabella2245[iw]*57.3</f>
         <v>5.8327989999999996</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>9.8282834347227094E-2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>0.80338235124850899</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>14.0134135612502</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>3.2369962841600901</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>0.08</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <f>(1-(G13/(Tabella2245[b/2]*2)))/(((F13/Tabella2245[b/2]))^(1/3))</f>
         <v>0.87013508181158605</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <f>4.44*(H13*I13*J13* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.22131512497069225</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="10">
         <f t="shared" si="0"/>
         <v>1.5492058747948458</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <f>A14+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>5.3315389999999994</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <f>B14+Tabella2245[iw]*57.3</f>
         <v>6.8327989999999996</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>9.8282834239803205E-2</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>0.90166518473535795</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>14.0488295971388</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>3.0871771656852101</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>0.08</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <f>(1-(G14/(Tabella2245[b/2]*2)))/(((F14/Tabella2245[b/2]))^(1/3))</f>
         <v>0.87487082531166904</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <f>4.44*(H14*I14*J14* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.22274923908738847</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="10">
         <f t="shared" si="0"/>
         <v>1.7819939126991078</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <f>A15+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>6.3315389999999994</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <f>B15+Tabella2245[iw]*57.3</f>
         <v>7.8327989999999996</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>9.8282813863925997E-2</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>0.99994789521852601</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>14.0804149076745</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>2.9448243312074101</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>0.08</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <f>(1-(G15/(Tabella2245[b/2]*2)))/(((F15/Tabella2245[b/2]))^(1/3))</f>
         <v>0.87940733916781999</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <f>4.44*(H15*I15*J15* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.22412440495347286</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="10">
         <f t="shared" si="0"/>
         <v>2.0171196445812556</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <f>A16+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>7.3315389999999994</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <f>B16+Tabella2245[iw]*57.3</f>
         <v>8.8327989999999996</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>9.8279039539641996E-2</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>1.0984346730599399</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>14.1156952451298</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>2.77397755795876</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>0.08</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <f>(1-(G16/(Tabella2245[b/2]*2)))/(((F16/Tabella2245[b/2]))^(1/3))</f>
         <v>0.88489914221861798</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="10">
         <f>4.44*(H16*I16*J16* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.2257909540841605</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="10">
         <f t="shared" si="0"/>
         <v>2.257909540841605</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <f>A17+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>8.3315389999999994</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <f>B17+Tabella2245[iw]*57.3</f>
         <v>9.8327989999999996</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>9.9188004814052794E-2</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>1.19784355761298</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>14.1549967368558</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>2.56495212438475</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>0.08</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <f>(1-(G17/(Tabella2245[b/2]*2)))/(((F17/Tabella2245[b/2]))^(1/3))</f>
         <v>0.89168851861220011</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="10">
         <f>4.44*(H17*I17*J17* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.22785398337878934</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="10">
         <f t="shared" si="0"/>
         <v>2.5063938171666829</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <f>A18+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>9.3315389999999994</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <f>B18+Tabella2245[iw]*57.3</f>
         <v>10.832799</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>9.8887374946945397E-2</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>1.29450022632146</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>14.1976370788321</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>2.3073371737589401</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>0.08</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <f>(1-(G18/(Tabella2245[b/2]*2)))/(((F18/Tabella2245[b/2]))^(1/3))</f>
         <v>0.90016345171049772</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="10">
         <f>4.44*(H18*I18*J18* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.23043337713057238</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="10">
         <f t="shared" si="0"/>
         <v>2.7652005255668684</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <f>A19+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>10.331538999999999</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <f>B19+Tabella2245[iw]*57.3</f>
         <v>11.832799</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>9.4047767782505606E-2</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>1.38385770413853</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>14.241623411473</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>1.9888920790517799</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <v>0.08</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <f>(1-(G19/(Tabella2245[b/2]*2)))/(((F19/Tabella2245[b/2]))^(1/3))</f>
         <v>0.91080449878771463</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="10">
         <f>4.44*(H19*I19*J19* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.23367857539408221</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="10">
         <f t="shared" si="0"/>
         <v>3.0378214801230685</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <f>A20+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>11.331538999999999</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <f>B20+Tabella2245[iw]*57.3</f>
         <v>12.832799</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>8.4661245764850707E-2</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>1.4613690340788399</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>14.282923617969701</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>1.59433050140411</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <v>0.08</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <f>(1-(G20/(Tabella2245[b/2]*2)))/(((F20/Tabella2245[b/2]))^(1/3))</f>
         <v>0.92424590222758451</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="10">
         <f>4.44*(H20*I20*J20* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.2377880977557085</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="10">
         <f t="shared" si="0"/>
         <v>3.3290333685799189</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <f>A21+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>12.331538999999999</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <f>B21+Tabella2245[iw]*57.3</f>
         <v>13.832799</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>7.0727767035164896E-2</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>1.52248725921424</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>14.3141548321128</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>1.1042071248401699</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>0.08</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <f>(1-(G21/(Tabella2245[b/2]*2)))/(((F21/Tabella2245[b/2]))^(1/3))</f>
         <v>0.94134871974877865</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="10">
         <f>4.44*(H21*I21*J21* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.24303346885342084</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="10">
         <f t="shared" si="0"/>
         <v>3.6455020328013124</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <f>A22+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>13.331538999999999</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <f>B22+Tabella2245[iw]*57.3</f>
         <v>14.832799</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>5.22473313753695E-2</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>1.5626654226636201</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>14.322331931719701</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>0.49356996853757601</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <v>0.08</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="10">
         <f>(1-(G22/(Tabella2245[b/2]*2)))/(((F22/Tabella2245[b/2]))^(1/3))</f>
         <v>0.96331153351232401</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="10">
         <f>4.44*(H22*I22*J22* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.24979594951221692</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="10">
         <f t="shared" si="0"/>
         <v>3.9967351921954708</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <f>A23+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>14.331538999999999</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <f>B23+Tabella2245[iw]*57.3</f>
         <v>15.832799</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>2.92199383809684E-2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>1.57735657790398</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <v>14.2872889124111</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>-0.24306371705337901</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <v>0.08</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="10">
         <f>(1-(G23/(Tabella2245[b/2]*2)))/(((F23/Tabella2245[b/2]))^(1/3))</f>
         <v>0.99083098716491791</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="10">
         <f>4.44*(H23*I23*J23* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.25831073071076377</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="10">
         <f t="shared" si="0"/>
         <v>4.391282422082984</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <f>A23+1</f>
         <v>18</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <f>A24+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>15.331539000000001</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <f>B24+Tabella2245[iw]*57.3</f>
         <v>16.832799000000001</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>1.6455383118552101E-3</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>1.5620159470931601</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <v>14.277065867523399</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>-0.36563982436565901</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <v>0.08</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <f>(1-(G24/(Tabella2245[b/2]*2)))/(((F24/Tabella2245[b/2]))^(1/3))</f>
         <v>0.99551678547335065</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="10">
         <f>4.44*(H24*I24*J24* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.25976507839472718</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="10">
         <f t="shared" si="0"/>
         <v>4.6757714111050888</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <f t="shared" ref="A25:A26" si="2">A24+1</f>
         <v>19</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <f>A25+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>16.331539000000003</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <f>B25+Tabella2245[iw]*57.3</f>
         <v>17.832799000000001</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>-3.0480375670981299E-2</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>1.52305821961917</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>14.277065867523399</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>-0.36563982436565901</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <v>0.08</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="10">
         <f>(1-(G25/(Tabella2245[b/2]*2)))/(((F25/Tabella2245[b/2]))^(1/3))</f>
         <v>0.99551678547335065</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="10">
         <f>4.44*(H25*I25*J25* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.25976507839472718</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="10">
         <f t="shared" si="0"/>
         <v>4.9355364894998166</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="11">
+      <c r="A26" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <f>A26+Tabella2245[α0_w]*57.3 - Tabella2245[iw]*57.3</f>
         <v>17.331539000000003</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <f>B26+Tabella2245[iw]*57.3</f>
         <v>18.832799000000001</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>-5.7431024161159298E-2</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>1.52305821961917</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>14.277065867523399</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>-0.36563982436565901</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <v>0.08</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="10">
         <f>(10-3*Tabella2245[λ])/7</f>
         <v>1.1560000000000001</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <f>(1-(G26/(Tabella2245[b/2]*2)))/(((F26/Tabella2245[b/2]))^(1/3))</f>
         <v>0.99551678547335065</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="10">
         <f>4.44*(H26*I26*J26* SQRT(COS(Tabella2245[Λ_c/4])))^(1.19)</f>
         <v>0.25976507839472718</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="10">
         <f t="shared" si="0"/>
         <v>5.1953015678945436</v>
       </c>

--- a/DOCS/Theses/Ruocco/Latex/Giordano.xlsx
+++ b/DOCS/Theses/Ruocco/Latex/Giordano.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
   <si>
     <t>AR</t>
   </si>
@@ -690,7 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -715,6 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
@@ -723,7 +724,16 @@
     <cellStyle name="Colore 1" xfId="1" builtinId="29"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="67">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -806,9 +816,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -957,9 +964,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1007,61 +1011,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.22655001596372387</c:v>
+                  <c:v>0.20566018977753953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23286994543776071</c:v>
+                  <c:v>0.20964183868105979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23926770910162115</c:v>
+                  <c:v>0.21367474729118865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24573791845585397</c:v>
+                  <c:v>0.21776525481420062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25227514749572488</c:v>
+                  <c:v>0.2219200485117469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25887393518644225</c:v>
+                  <c:v>0.22614613632726147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26552878795398371</c:v>
+                  <c:v>0.23045081875381279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27223418227426305</c:v>
+                  <c:v>0.23484165999535339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27898458078661209</c:v>
+                  <c:v>0.23932645823967333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28574816564590844</c:v>
+                  <c:v>0.24391316990997422</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29243391574571787</c:v>
+                  <c:v>0.24858345308203011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3021095835351254</c:v>
+                  <c:v>0.2553314028163472</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30941023491118952</c:v>
+                  <c:v>0.259583109118938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30526218596978022</c:v>
+                  <c:v>0.25358461815115124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28913241559493169</c:v>
+                  <c:v>0.23706989571519377</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26037281579075644</c:v>
+                  <c:v>0.20963251589825277</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21814783177944053</c:v>
+                  <c:v>0.17085262557634143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16138221777333633</c:v>
+                  <c:v>0.12017492423377124</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6515515763857465E-2</c:v>
+                  <c:v>5.6890657586024206E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,11 +1082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143565312"/>
-        <c:axId val="143075008"/>
+        <c:axId val="127434752"/>
+        <c:axId val="171154752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143565312"/>
+        <c:axId val="127434752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143075008"/>
+        <c:crossAx val="171154752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1151,7 +1155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143075008"/>
+        <c:axId val="171154752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143565312"/>
+        <c:crossAx val="127434752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1256,7 +1260,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Giordano</c:v>
+            <c:v>NACA 648 mod.</c:v>
           </c:tx>
           <c:val>
             <c:numRef>
@@ -1265,64 +1269,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.22655001596372387</c:v>
+                  <c:v>0.20566018977753953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23286994543776071</c:v>
+                  <c:v>0.20964183868105979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23926770910162115</c:v>
+                  <c:v>0.21367474729118865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24573791845585397</c:v>
+                  <c:v>0.21776525481420062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25227514749572488</c:v>
+                  <c:v>0.2219200485117469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25887393518644225</c:v>
+                  <c:v>0.22614613632726147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26552878795398371</c:v>
+                  <c:v>0.23045081875381279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27223418227426305</c:v>
+                  <c:v>0.23484165999535339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27898458078661209</c:v>
+                  <c:v>0.23932645823967333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28574816564590844</c:v>
+                  <c:v>0.24391316990997422</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29243391574571787</c:v>
+                  <c:v>0.24858345308203011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3021095835351254</c:v>
+                  <c:v>0.2553314028163472</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30941023491118952</c:v>
+                  <c:v>0.259583109118938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30526218596978022</c:v>
+                  <c:v>0.25358461815115124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28913241559493169</c:v>
+                  <c:v>0.23706989571519377</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26037281579075644</c:v>
+                  <c:v>0.20963251589825277</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21814783177944053</c:v>
+                  <c:v>0.17085262557634143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16138221777333633</c:v>
+                  <c:v>0.12017492423377124</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6515515763857465E-2</c:v>
+                  <c:v>5.6890657586024206E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.2558556826546547E-2</c:v>
+                  <c:v>-9.490570955132574E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1499,11 +1503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146200064"/>
-        <c:axId val="146261696"/>
+        <c:axId val="133431296"/>
+        <c:axId val="149058624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146200064"/>
+        <c:axId val="133431296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146261696"/>
+        <c:crossAx val="149058624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1550,7 +1554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146261696"/>
+        <c:axId val="149058624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146200064"/>
+        <c:crossAx val="133431296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,73 +1646,73 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Giordano</c:v>
+            <c:v>NACA 648 mod.</c:v>
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Giordano!$N$7:$N$26</c:f>
+              <c:f>Giordano!$K$7:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.3045959088844022E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23286994543776071</c:v>
+                  <c:v>0.19414161252038961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4785354182032423</c:v>
+                  <c:v>0.39082862330057661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73721375536756195</c:v>
+                  <c:v>0.59141717974767016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0091005899828995</c:v>
+                  <c:v>0.79596512871945613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2943696759322112</c:v>
+                  <c:v>1.0045369505183994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5931727277239023</c:v>
+                  <c:v>1.2172040698309514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9056392759198413</c:v>
+                  <c:v>1.4340451387776094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2318766462928967</c:v>
+                  <c:v>1.6551462913831496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5717334908131759</c:v>
+                  <c:v>1.880601368830435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9243391574571787</c:v>
+                  <c:v>2.1105121149161925</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3232054188863795</c:v>
+                  <c:v>2.34544013704854</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.712922818934274</c:v>
+                  <c:v>2.5894821659197023</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9684084176071428</c:v>
+                  <c:v>2.8387483837241563</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0478538183290436</c:v>
+                  <c:v>3.0845999028858699</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9055922368613465</c:v>
+                  <c:v>3.3173303016890743</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4903653084710484</c:v>
+                  <c:v>3.527986676877795</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7434977021467177</c:v>
+                  <c:v>3.7069417844514363</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5572792837494345</c:v>
+                  <c:v>3.8440418701350385</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.42861257970438438</c:v>
+                  <c:v>3.9284622117175716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,7 +1727,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Delft!$R$7:$R$26</c:f>
+              <c:f>Delft!$Q$7:$Q$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1731,61 +1735,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23769520799969651</c:v>
+                  <c:v>0.21143034979706399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48203562015013174</c:v>
+                  <c:v>0.42599579673041499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73303631404664871</c:v>
+                  <c:v>0.64372387060119296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99070229458888182</c:v>
+                  <c:v>0.86464020454194102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2550285042743323</c:v>
+                  <c:v>1.08876841289015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5259999014734875</c:v>
+                  <c:v>1.3161299736399099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8035916031207266</c:v>
+                  <c:v>1.54674411631326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0876782749220535</c:v>
+                  <c:v>1.78062771608014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3769780310579827</c:v>
+                  <c:v>2.0177951949317001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6788806944964776</c:v>
+                  <c:v>2.2582584306772402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.025626424367605</c:v>
+                  <c:v>2.50332384816942</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3599817781772234</c:v>
+                  <c:v>2.7575607680135898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.550133267369993</c:v>
+                  <c:v>3.01114472660104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5474068860984622</c:v>
+                  <c:v>3.25322266351289</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2918499435909898</c:v>
+                  <c:v>3.47250301119908</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.706094024786859</c:v>
+                  <c:v>3.65718809385683</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6353267292862048</c:v>
+                  <c:v>3.7951240328802198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.6749657392804556E-2</c:v>
+                  <c:v>3.8735294059974001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.8916589908734367</c:v>
+                  <c:v>3.8788440711932299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,10 +1804,10 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Roskam!$L$6:$L$25</c:f>
+              <c:f>Roskam!$N$6:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1811,58 +1815,61 @@
                   <c:v>0.21280697809328983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.428414187963995</c:v>
+                  <c:v>0.4270140720752873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64684561482063418</c:v>
+                  <c:v>0.64262927701549866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86812263488993557</c:v>
+                  <c:v>0.85965993573798261</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0922642051633198</c:v>
+                  <c:v>1.0781127767706464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3192870544591262</c:v>
+                  <c:v>1.2979939525138342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5492058747948458</c:v>
+                  <c:v>1.5193090774845264</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7819939126991078</c:v>
+                  <c:v>1.7420583165719148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0171196445812556</c:v>
+                  <c:v>1.9661827215253878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.257909540841605</c:v>
+                  <c:v>2.1919736756095483</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5063938171666829</c:v>
+                  <c:v>2.4198276589883374</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7652005255668684</c:v>
+                  <c:v>2.6502610361189096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0378214801230685</c:v>
+                  <c:v>2.8839396115129921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3290333685799189</c:v>
+                  <c:v>3.1217277092687006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6455020328013124</c:v>
+                  <c:v>3.3647611781221216</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9967351921954708</c:v>
+                  <c:v>3.6145571276343387</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.391282422082984</c:v>
+                  <c:v>3.8728678583451024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6757714111050888</c:v>
+                  <c:v>4.1326329367398298</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9355364894998166</c:v>
+                  <c:v>4.3923980151345567</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6521630935292837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,11 +1886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146202112"/>
-        <c:axId val="146263424"/>
+        <c:axId val="133432832"/>
+        <c:axId val="149060352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146202112"/>
+        <c:axId val="133432832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146263424"/>
+        <c:crossAx val="149060352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146263424"/>
+        <c:axId val="149060352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +1969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146202112"/>
+        <c:crossAx val="133432832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2021,64 +2028,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.26169658966204845</c:v>
+                  <c:v>1.3045959088844022E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49137682603625976</c:v>
+                  <c:v>0.19414161252038961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72740435320603358</c:v>
+                  <c:v>0.39082862330057661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9698556665069914</c:v>
+                  <c:v>0.59141717974767016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2188018648497776</c:v>
+                  <c:v>0.79596512871945613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.474308613624947</c:v>
+                  <c:v>1.0045369505183994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7364361100853176</c:v>
+                  <c:v>1.2172040698309514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0052390512078233</c:v>
+                  <c:v>1.4340451387776094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2807666020495736</c:v>
+                  <c:v>1.6551462913831496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5630620752536322</c:v>
+                  <c:v>1.880601368830435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8526650303157401</c:v>
+                  <c:v>2.1105121149161925</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1513998528431717</c:v>
+                  <c:v>2.34544013704854</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4501707619827386</c:v>
+                  <c:v>2.5894821659197023</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.737346392247209</c:v>
+                  <c:v>2.8387483837241563</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0008207610020614</c:v>
+                  <c:v>3.0845999028858699</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2278976266645323</c:v>
+                  <c:v>3.3173303016890743</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4051231875751782</c:v>
+                  <c:v>3.527986676877795</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5180671085432493</c:v>
+                  <c:v>3.7069417844514363</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5510576816214252</c:v>
+                  <c:v>3.8440418701350385</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5172341741519597</c:v>
+                  <c:v>3.9284622117175716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,11 +2102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143565824"/>
-        <c:axId val="143073280"/>
+        <c:axId val="127436800"/>
+        <c:axId val="171153024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143565824"/>
+        <c:axId val="127436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,7 +2142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143073280"/>
+        <c:crossAx val="171153024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2143,7 +2150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143073280"/>
+        <c:axId val="171153024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143565824"/>
+        <c:crossAx val="127436800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2212,68 +2219,68 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.115402510819653</c:v>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>6.2349217073731601E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21368534516743501</c:v>
+                  <c:v>9.1865403228994696E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31196817951521699</c:v>
+                  <c:v>0.18310731428725199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.410251013862999</c:v>
+                  <c:v>0.27434922534550898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50853384821078196</c:v>
+                  <c:v>0.365591136403767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60681668255856303</c:v>
+                  <c:v>0.45683304746202402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70509951690631101</c:v>
+                  <c:v>0.54807495852028099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80338235124850899</c:v>
+                  <c:v>0.63931686957853895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90166518473535795</c:v>
+                  <c:v>0.73055878063679602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99994789521852601</c:v>
+                  <c:v>0.82180069169505399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0984346730599399</c:v>
+                  <c:v>0.91304260275331095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.19784355761298</c:v>
+                  <c:v>1.0044864309736501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.29450022632146</c:v>
+                  <c:v>1.09789441965757</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.38385770413853</c:v>
+                  <c:v>1.1914556159937499</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4613690340788399</c:v>
+                  <c:v>1.2813235760414099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.52248725921424</c:v>
+                  <c:v>1.36329831386787</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5626654226636201</c:v>
+                  <c:v>1.4336509319803099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.57735657790398</c:v>
+                  <c:v>1.4885331083611999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5620159470931601</c:v>
+                  <c:v>1.5240946027695901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.52305821961917</c:v>
+                  <c:v>1.5364851749644699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.52305821961917</c:v>
+                  <c:v>1.5218545847048699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,11 +2297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143566336"/>
-        <c:axId val="143077312"/>
+        <c:axId val="131678720"/>
+        <c:axId val="208833344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143566336"/>
+        <c:axId val="131678720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143077312"/>
+        <c:crossAx val="208833344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2338,18 +2345,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143077312"/>
+        <c:axId val="208833344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143566336"/>
+        <c:crossAx val="131678720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2482,11 +2489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143566848"/>
-        <c:axId val="143079040"/>
+        <c:axId val="131678208"/>
+        <c:axId val="126485632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143566848"/>
+        <c:axId val="131678208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,7 +2553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143079040"/>
+        <c:crossAx val="126485632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2554,7 +2561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143079040"/>
+        <c:axId val="126485632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143566848"/>
+        <c:crossAx val="131678208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2602,6 +2609,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2626,61 +2634,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23286994543776071</c:v>
+                  <c:v>0.20964183868105979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4785354182032423</c:v>
+                  <c:v>0.42734949458237731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73721375536756195</c:v>
+                  <c:v>0.65329576444260185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0091005899828995</c:v>
+                  <c:v>0.88768019404698761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2943696759322112</c:v>
+                  <c:v>1.1307306816363074</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5931727277239023</c:v>
+                  <c:v>1.3827049125228768</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9056392759198413</c:v>
+                  <c:v>1.6438916199674738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2318766462928967</c:v>
+                  <c:v>1.9146116659173866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5717334908131759</c:v>
+                  <c:v>2.1952185291897681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9243391574571787</c:v>
+                  <c:v>2.4858345308203011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3232054188863795</c:v>
+                  <c:v>2.8086454309798192</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.712922818934274</c:v>
+                  <c:v>3.1149973094272561</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9684084176071428</c:v>
+                  <c:v>3.2966000359649663</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0478538183290436</c:v>
+                  <c:v>3.3189785400127128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9055922368613465</c:v>
+                  <c:v>3.1444877384737917</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4903653084710484</c:v>
+                  <c:v>2.7336420092214628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7434977021467177</c:v>
+                  <c:v>2.0429737119741112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5572792837494345</c:v>
+                  <c:v>1.0240318365484358</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.42861257970438438</c:v>
+                  <c:v>-0.18032084814751892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,11 +2705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143567360"/>
-        <c:axId val="143080768"/>
+        <c:axId val="131679232"/>
+        <c:axId val="126487360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143567360"/>
+        <c:axId val="131679232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2710,7 +2718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143080768"/>
+        <c:crossAx val="126487360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2718,7 +2726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143080768"/>
+        <c:axId val="126487360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,13 +2737,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143567360"/>
+        <c:crossAx val="131679232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2864,11 +2873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139107840"/>
-        <c:axId val="144960320"/>
+        <c:axId val="131679744"/>
+        <c:axId val="126490816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139107840"/>
+        <c:axId val="131679744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,7 +2886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144960320"/>
+        <c:crossAx val="126490816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2885,7 +2894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144960320"/>
+        <c:axId val="126490816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,7 +2905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139107840"/>
+        <c:crossAx val="131679744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2950,7 +2959,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Delft!$R$7:$R$26</c:f>
+              <c:f>Delft!$Q$7:$Q$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2958,61 +2967,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23769520799969651</c:v>
+                  <c:v>0.21143034979706399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48203562015013174</c:v>
+                  <c:v>0.42599579673041499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73303631404664871</c:v>
+                  <c:v>0.64372387060119296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99070229458888182</c:v>
+                  <c:v>0.86464020454194102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2550285042743323</c:v>
+                  <c:v>1.08876841289015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5259999014734875</c:v>
+                  <c:v>1.3161299736399099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8035916031207266</c:v>
+                  <c:v>1.54674411631326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0876782749220535</c:v>
+                  <c:v>1.78062771608014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3769780310579827</c:v>
+                  <c:v>2.0177951949317001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6788806944964776</c:v>
+                  <c:v>2.2582584306772402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.025626424367605</c:v>
+                  <c:v>2.50332384816942</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3599817781772234</c:v>
+                  <c:v>2.7575607680135898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.550133267369993</c:v>
+                  <c:v>3.01114472660104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5474068860984622</c:v>
+                  <c:v>3.25322266351289</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2918499435909898</c:v>
+                  <c:v>3.47250301119908</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.706094024786859</c:v>
+                  <c:v>3.65718809385683</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6353267292862048</c:v>
+                  <c:v>3.7951240328802198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.6749657392804556E-2</c:v>
+                  <c:v>3.8735294059974001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.8916589908734367</c:v>
+                  <c:v>3.8788440711932299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,11 +3038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143567872"/>
-        <c:axId val="144961472"/>
+        <c:axId val="206087168"/>
+        <c:axId val="126491968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143567872"/>
+        <c:axId val="206087168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144961472"/>
+        <c:crossAx val="126491968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3050,7 +3059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144961472"/>
+        <c:axId val="126491968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143567872"/>
+        <c:crossAx val="206087168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3190,11 +3199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146199040"/>
-        <c:axId val="144963776"/>
+        <c:axId val="131876352"/>
+        <c:axId val="149055168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146199040"/>
+        <c:axId val="131876352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,7 +3212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144963776"/>
+        <c:crossAx val="149055168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3211,7 +3220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144963776"/>
+        <c:axId val="149055168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,7 +3231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146199040"/>
+        <c:crossAx val="131876352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3351,11 +3360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146200576"/>
-        <c:axId val="146259968"/>
+        <c:axId val="131875840"/>
+        <c:axId val="149056896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146200576"/>
+        <c:axId val="131875840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146259968"/>
+        <c:crossAx val="149056896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3372,7 +3381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146259968"/>
+        <c:axId val="149056896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,7 +3392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146200576"/>
+        <c:crossAx val="131875840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3768,10 +3777,10 @@
     <tableColumn id="5" name="r = 1/λ"/>
     <tableColumn id="6" name="X0"/>
     <tableColumn id="7" name="m0"/>
-    <tableColumn id="8" name="d" dataDxfId="65">
+    <tableColumn id="8" name="d" dataDxfId="66">
       <calculatedColumnFormula xml:space="preserve"> SQRT(I2^2 + (H2-0.75*B2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="φ" dataDxfId="64">
+    <tableColumn id="9" name="φ" dataDxfId="65">
       <calculatedColumnFormula>ATAN((Tabella2[[#This Row],[m0]]/(Tabella2[[#This Row],[X0]]-0.75*Tabella2[[#This Row],[Cr]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3780,7 +3789,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="AQ6:BA27" totalsRowShown="0" headerRowDxfId="22" headerRowCellStyle="20% - Colore 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="AQ6:BA27" totalsRowShown="0" headerRowDxfId="25" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AQ6:BA27"/>
   <tableColumns count="11">
     <tableColumn id="1" name="m1">
@@ -3804,16 +3813,16 @@
     <tableColumn id="7" name="m4meno">
       <calculatedColumnFormula>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Φ_1" dataDxfId="21">
+    <tableColumn id="8" name="Φ_1" dataDxfId="24">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Φ_2" dataDxfId="20">
+    <tableColumn id="9" name="Φ_2" dataDxfId="23">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_2]]+(Tabella11[[#This Row],[Φ_2]]-Tabella9[[#This Row],[Φ_2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ_3" dataDxfId="19">
+    <tableColumn id="10" name="Φ_3" dataDxfId="22">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_3]]+(Tabella11[[#This Row],[Φ_3]]-Tabella9[[#This Row],[Φ_3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Φ_4" dataDxfId="18">
+    <tableColumn id="11" name="Φ_4" dataDxfId="21">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_4]]+(Tabella11[[#This Row],[Φ_4]]-Tabella9[[#This Row],[Φ_4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3835,10 +3844,10 @@
     <tableColumn id="5" name="r = 1/λ"/>
     <tableColumn id="6" name="X0"/>
     <tableColumn id="7" name="m0"/>
-    <tableColumn id="8" name="d" dataDxfId="17">
+    <tableColumn id="8" name="d" dataDxfId="20">
       <calculatedColumnFormula xml:space="preserve"> SQRT(J2^2 + (I2-0.75*B2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="φ" dataDxfId="16">
+    <tableColumn id="9" name="φ" dataDxfId="19">
       <calculatedColumnFormula>ATAN((Tabella224[[#This Row],[m0]]/(Tabella224[[#This Row],[X0]]-0.75*Tabella224[[#This Row],[Cr]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3847,53 +3856,50 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabella24" displayName="Tabella24" ref="A6:R27" totalsRowShown="0" headerRowCellStyle="Colore 1" dataCellStyle="Colore 1">
-  <autoFilter ref="A6:R27"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabella24" displayName="Tabella24" ref="A6:Q27" totalsRowShown="0" headerRowCellStyle="Colore 1" dataCellStyle="Colore 1">
+  <autoFilter ref="A6:Q27"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="α_abs">
       <calculatedColumnFormula>A6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="α_b" dataDxfId="15">
+    <tableColumn id="2" name="α_b" dataDxfId="18">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_abs]]+Tabella224[α0_w]*57.3-Tabella224[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="α_w" dataDxfId="14">
+    <tableColumn id="3" name="α_w" dataDxfId="17">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_b]]+Tabella224[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="CL_α"/>
     <tableColumn id="5" name="CL"/>
-    <tableColumn id="14" name="X" dataDxfId="13"/>
-    <tableColumn id="8" name="m" dataDxfId="12"/>
-    <tableColumn id="6" name="r (X/b/2)" dataDxfId="11">
+    <tableColumn id="14" name="X" dataDxfId="16"/>
+    <tableColumn id="8" name="m" dataDxfId="15"/>
+    <tableColumn id="6" name="r (X/b/2)" dataDxfId="14">
       <calculatedColumnFormula>Tabella24[[#This Row],[X]]/Tabella224[b/2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m (m/b/2)" dataDxfId="10">
+    <tableColumn id="7" name="m (m/b/2)" dataDxfId="13">
       <calculatedColumnFormula>Tabella24[[#This Row],[m]]/Tabella224[b/2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Kε_Λ" dataDxfId="9">
+    <tableColumn id="11" name="Kε_Λ" dataDxfId="12">
       <calculatedColumnFormula>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kε_Λ0" dataDxfId="8">
+    <tableColumn id="9" name="Kε_Λ0" dataDxfId="11">
       <calculatedColumnFormula>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="dε/dα_k" dataDxfId="7">
+    <tableColumn id="13" name="dε/dα_k" dataDxfId="10">
       <calculatedColumnFormula>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="dε/dα_1" dataDxfId="6" dataCellStyle="Normale">
+    <tableColumn id="10" name="dε/dα_1" dataDxfId="9" dataCellStyle="Normale">
       <calculatedColumnFormula>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="dε/dα_2" dataDxfId="5" dataCellStyle="Normale">
+    <tableColumn id="12" name="dε/dα_2" dataDxfId="8" dataCellStyle="Normale">
       <calculatedColumnFormula>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="dε/dα_3" dataDxfId="4" dataCellStyle="Normale">
+    <tableColumn id="15" name="dε/dα_3" dataDxfId="7" dataCellStyle="Normale">
       <calculatedColumnFormula>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="dε/dα" dataDxfId="3" dataCellStyle="Normale">
+    <tableColumn id="16" name="dε/dα" dataDxfId="6" dataCellStyle="Normale">
       <calculatedColumnFormula>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Colonna1"/>
-    <tableColumn id="17" name="ε" dataDxfId="2" dataCellStyle="Normale">
-      <calculatedColumnFormula>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="17" name="ε" dataDxfId="5" dataCellStyle="Normale"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3913,10 +3919,10 @@
     <tableColumn id="5" name="r = 1/λ"/>
     <tableColumn id="6" name="X0"/>
     <tableColumn id="7" name="m0"/>
-    <tableColumn id="8" name="d" dataDxfId="1">
+    <tableColumn id="8" name="d" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> SQRT(J2^2 + (I2-0.75*B2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="φ" dataDxfId="0">
+    <tableColumn id="9" name="φ" dataDxfId="3">
       <calculatedColumnFormula>ATAN((Tabella2245[[#This Row],[m0]]/(Tabella2245[[#This Row],[X0]]-0.75*Tabella2245[[#This Row],[Cr]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3929,39 +3935,39 @@
   <autoFilter ref="A6:N27"/>
   <tableColumns count="14">
     <tableColumn id="1" name="α_abs"/>
-    <tableColumn id="2" name="α_b" dataDxfId="63">
+    <tableColumn id="2" name="α_b" dataDxfId="64">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_abs]]+Tabella2[α0_w]*57.3-Tabella2[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="α_w" dataDxfId="62">
+    <tableColumn id="3" name="α_w" dataDxfId="63">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_b]]+Tabella2[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="CL_α"/>
-    <tableColumn id="5" name="CL" dataDxfId="61"/>
-    <tableColumn id="6" name="X" dataDxfId="60">
+    <tableColumn id="5" name="CL" dataDxfId="62"/>
+    <tableColumn id="6" name="X" dataDxfId="61">
       <calculatedColumnFormula>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A8/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="X_p" dataDxfId="59">
+    <tableColumn id="7" name="X_p" dataDxfId="60">
       <calculatedColumnFormula>(Tabella3[[#This Row],[X]]/Tabella2[b/2])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m" dataDxfId="58">
+    <tableColumn id="8" name="m" dataDxfId="59">
       <calculatedColumnFormula>Tabella2[d]*SIN(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A8/57.3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="m_P" dataDxfId="57">
+    <tableColumn id="9" name="m_P" dataDxfId="58">
       <calculatedColumnFormula>Tabella3[[#This Row],[m]]/Tabella2[b/2]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ" dataDxfId="56">
-      <calculatedColumnFormula>Tabella14[[#This Row],[Φ_80]]</calculatedColumnFormula>
+    <tableColumn id="10" name="Φ" dataDxfId="0">
+      <calculatedColumnFormula>Tabella14[[#This Row],[Φ_80]]+(BC36-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="ε" dataDxfId="55">
+    <tableColumn id="11" name="ε" dataDxfId="57">
       <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="dΦ/dα" dataDxfId="54">
+    <tableColumn id="12" name="dΦ/dα" dataDxfId="56">
       <calculatedColumnFormula>(J8-Tabella3[[#This Row],[Φ]])/(B8-Tabella3[[#This Row],[α_b]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="dε/dα" dataDxfId="53">
+    <tableColumn id="13" name="dε/dα" dataDxfId="55">
       <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Colonna1" dataDxfId="52">
+    <tableColumn id="14" name="Colonna1" dataDxfId="54">
       <calculatedColumnFormula>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4024,7 +4030,7 @@
     <tableColumn id="6" name="m3meno">
       <calculatedColumnFormula>AG7-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="51">
+    <tableColumn id="7" name="m4" dataDxfId="53">
       <calculatedColumnFormula>Tabella11[[#This Row],[m3]]+10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="m4meno">
@@ -4043,7 +4049,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabella14" displayName="Tabella14" ref="BC6:BC27" totalsRowShown="0">
   <autoFilter ref="BC6:BC27"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Φ_80">
+    <tableColumn id="1" name="Φ_80" dataDxfId="2">
       <calculatedColumnFormula>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4056,25 +4062,25 @@
   <autoFilter ref="Q35:AB56"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mTab"/>
-    <tableColumn id="2" name="m1" dataDxfId="50">
+    <tableColumn id="2" name="m1" dataDxfId="52">
       <calculatedColumnFormula>E7*Tabella18[[#This Row],[mTab]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2" dataDxfId="49">
+    <tableColumn id="3" name="m2" dataDxfId="51">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m2meno" dataDxfId="48">
+    <tableColumn id="4" name="m2meno" dataDxfId="50">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3" dataDxfId="47">
+    <tableColumn id="5" name="m3" dataDxfId="49">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m3meno" dataDxfId="46">
+    <tableColumn id="6" name="m3meno" dataDxfId="48">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2meno]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="45">
+    <tableColumn id="7" name="m4" dataDxfId="47">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m4meno" dataDxfId="44">
+    <tableColumn id="8" name="m4meno" dataDxfId="46">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3meno]]-10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Φ_1"/>
@@ -4087,29 +4093,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabella19" displayName="Tabella19" ref="AD35:AO56" totalsRowShown="0" headerRowDxfId="43" headerRowCellStyle="20% - Colore 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabella19" displayName="Tabella19" ref="AD35:AO56" totalsRowShown="0" headerRowDxfId="45" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AD35:AO56"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mTab"/>
-    <tableColumn id="2" name="m1" dataDxfId="42">
+    <tableColumn id="2" name="m1" dataDxfId="44">
       <calculatedColumnFormula>Tabella19[[#This Row],[mTab]]*E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2" dataDxfId="41">
+    <tableColumn id="3" name="m2" dataDxfId="43">
       <calculatedColumnFormula>Tabella19[[#This Row],[m1]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m2meno" dataDxfId="40">
+    <tableColumn id="4" name="m2meno" dataDxfId="42">
       <calculatedColumnFormula>Tabella19[[#This Row],[m1]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3" dataDxfId="39">
+    <tableColumn id="5" name="m3" dataDxfId="41">
       <calculatedColumnFormula>Tabella19[[#This Row],[m2]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m3meno" dataDxfId="38">
+    <tableColumn id="6" name="m3meno" dataDxfId="40">
       <calculatedColumnFormula>Tabella19[[#This Row],[m2meno]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="37">
+    <tableColumn id="7" name="m4" dataDxfId="39">
       <calculatedColumnFormula>Tabella19[[#This Row],[m3]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m4meno" dataDxfId="36">
+    <tableColumn id="8" name="m4meno" dataDxfId="38">
       <calculatedColumnFormula>Tabella19[[#This Row],[m3meno]]-10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Φ_1"/>
@@ -4122,40 +4128,40 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabella21" displayName="Tabella21" ref="AQ35:BA55" totalsRowShown="0" headerRowDxfId="35" headerRowCellStyle="20% - Colore 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabella21" displayName="Tabella21" ref="AQ35:BA55" totalsRowShown="0" headerRowDxfId="37" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AQ35:BA55"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="m1" dataDxfId="34">
+    <tableColumn id="1" name="m1" dataDxfId="36">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="m2" dataDxfId="33">
+    <tableColumn id="2" name="m2" dataDxfId="35">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2meno" dataDxfId="32">
+    <tableColumn id="3" name="m2meno" dataDxfId="34">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m3" dataDxfId="31">
+    <tableColumn id="4" name="m3" dataDxfId="33">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3meno" dataDxfId="30">
+    <tableColumn id="5" name="m3meno" dataDxfId="32">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m4" dataDxfId="29">
+    <tableColumn id="6" name="m4" dataDxfId="31">
       <calculatedColumnFormula>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4meno" dataDxfId="28">
+    <tableColumn id="7" name="m4meno" dataDxfId="30">
       <calculatedColumnFormula>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Φ_1" dataDxfId="27">
+    <tableColumn id="8" name="Φ_1" dataDxfId="29">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Φ_2" dataDxfId="26">
+    <tableColumn id="9" name="Φ_2" dataDxfId="28">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_2]]+(Tabella19[[#This Row],[Φ_2]]-Tabella18[[#This Row],[Φ_2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ_3" dataDxfId="25">
+    <tableColumn id="10" name="Φ_3" dataDxfId="27">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_3]]+(Tabella19[[#This Row],[Φ_3]]-Tabella18[[#This Row],[Φ_3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Φ_4" dataDxfId="24">
+    <tableColumn id="11" name="Φ_4" dataDxfId="26">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_4]]+(Tabella19[[#This Row],[Φ_4]]-Tabella18[[#This Row],[Φ_4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4167,7 +4173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabella22" displayName="Tabella22" ref="BC35:BC55" totalsRowShown="0">
   <autoFilter ref="BC35:BC55"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Φ_90" dataDxfId="23">
+    <tableColumn id="1" name="Φ_90" dataDxfId="1">
       <calculatedColumnFormula>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I7-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4464,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC49" sqref="BC49:BC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4804,8 +4810,8 @@
       <c r="D7">
         <v>9.8282834347781997E-2</v>
       </c>
-      <c r="E7">
-        <v>0.115402510819653</v>
+      <c r="E7" s="18">
+        <v>6.2349217073731601E-4</v>
       </c>
       <c r="F7">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A8/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -4824,20 +4830,20 @@
         <v>32.769903392519915</v>
       </c>
       <c r="J7">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.2676854065248087</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC36-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.0924014287807995</v>
       </c>
       <c r="K7">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.26169658966204845</v>
+        <v>1.3045959088844022E-3</v>
       </c>
       <c r="L7">
         <f>(J8-Tabella3[[#This Row],[Φ]])/(B8-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.1849106013883251E-2</v>
+        <v>2.0925304640802004E-2</v>
       </c>
       <c r="M7">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.22655001596372387</v>
+        <v>0.20566018977753953</v>
       </c>
       <c r="N7" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
@@ -4848,31 +4854,31 @@
       </c>
       <c r="R7">
         <f>Q7*Tabella3[[#This Row],[CL]]</f>
-        <v>-0.38082828570485489</v>
+        <v>-2.0575241634331427E-3</v>
       </c>
       <c r="S7">
         <f t="shared" ref="S7:S28" si="0">R7+10</f>
-        <v>9.6191717142951454</v>
+        <v>9.9979424758365667</v>
       </c>
       <c r="T7">
         <f t="shared" ref="T7:T28" si="1">R7-10</f>
-        <v>-10.380828285704855</v>
+        <v>-10.002057524163433</v>
       </c>
       <c r="U7">
         <f t="shared" ref="U7:U28" si="2">S7+10</f>
-        <v>19.619171714295145</v>
+        <v>19.997942475836567</v>
       </c>
       <c r="V7">
         <f t="shared" ref="V7:V28" si="3">T7-10</f>
-        <v>-20.380828285704855</v>
+        <v>-20.002057524163433</v>
       </c>
       <c r="W7">
         <f t="shared" ref="W7:W28" si="4">U7+10</f>
-        <v>29.619171714295145</v>
+        <v>29.997942475836567</v>
       </c>
       <c r="X7">
         <f t="shared" ref="X7:X28" si="5">V7-10</f>
-        <v>-30.380828285704855</v>
+        <v>-30.002057524163433</v>
       </c>
       <c r="AA7">
         <v>2.2000000000000002</v>
@@ -4885,31 +4891,31 @@
       </c>
       <c r="AE7">
         <f>AD7*Tabella3[[#This Row],[CL]]</f>
-        <v>-0.60009305626219556</v>
+        <v>-3.2421592878340432E-3</v>
       </c>
       <c r="AF7">
         <f>AE7+10</f>
-        <v>9.399906943737804</v>
+        <v>9.9967578407121653</v>
       </c>
       <c r="AG7">
         <f>AE7-10</f>
-        <v>-10.600093056262196</v>
+        <v>-10.003242159287835</v>
       </c>
       <c r="AH7">
         <f>AF7+10</f>
-        <v>19.399906943737804</v>
+        <v>19.996757840712164</v>
       </c>
       <c r="AI7">
         <f>AG7-10</f>
-        <v>-20.600093056262196</v>
+        <v>-20.003242159287836</v>
       </c>
       <c r="AJ7">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>29.399906943737804</v>
+        <v>29.996757840712164</v>
       </c>
       <c r="AK7">
         <f>AI7-10</f>
-        <v>-30.600093056262196</v>
+        <v>-30.003242159287836</v>
       </c>
       <c r="AN7">
         <v>3</v>
@@ -4919,31 +4925,31 @@
       </c>
       <c r="AQ7">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-0.50580920492253911</v>
+        <v>-2.7327661843416558E-3</v>
       </c>
       <c r="AR7">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>9.4941907950774613</v>
+        <v>9.9972672338156574</v>
       </c>
       <c r="AS7">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-10.505809204922539</v>
+        <v>-10.002732766184343</v>
       </c>
       <c r="AT7">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>19.494190795077461</v>
+        <v>19.997267233815656</v>
       </c>
       <c r="AU7">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-20.505809204922539</v>
+        <v>-20.002732766184344</v>
       </c>
       <c r="AV7">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>29.494190795077461</v>
+        <v>29.997267233815656</v>
       </c>
       <c r="AW7">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-30.505809204922539</v>
+        <v>-30.002732766184344</v>
       </c>
       <c r="AX7" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -4963,7 +4969,7 @@
       </c>
       <c r="BC7">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.2676854065248087</v>
+        <v>2.2824003923579008</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.45">
@@ -4982,8 +4988,8 @@
       <c r="D8">
         <v>9.8282834347781997E-2</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.21368534516743501</v>
+      <c r="E8">
+        <v>9.1865403228994696E-2</v>
       </c>
       <c r="F8">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A9/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -5002,55 +5008,55 @@
         <v>31.250271404312603</v>
       </c>
       <c r="J8">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.2995345125386919</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC37-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.1133267334216015</v>
       </c>
       <c r="K8">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.49137682603625976</v>
+        <v>0.19414161252038961</v>
       </c>
       <c r="L8">
         <f>(J9-Tabella3[[#This Row],[Φ]])/(B9-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.212749971006934E-2</v>
+        <v>2.1097141571502664E-2</v>
       </c>
       <c r="M8">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.23286994543776071</v>
+        <v>0.20964183868105979</v>
       </c>
       <c r="N8" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>0.23286994543776071</v>
+        <v>0.20964183868105979</v>
       </c>
       <c r="Q8">
         <v>-3.3</v>
       </c>
       <c r="R8">
         <f>Q8*Tabella3[[#This Row],[CL]]</f>
-        <v>-0.70516163905253548</v>
+        <v>-0.30315583065568247</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>9.2948383609474643</v>
+        <v>9.6968441693443168</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
-        <v>-10.705161639052536</v>
+        <v>-10.303155830655683</v>
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
-        <v>19.294838360947466</v>
+        <v>19.696844169344317</v>
       </c>
       <c r="V8">
         <f t="shared" si="3"/>
-        <v>-20.705161639052534</v>
+        <v>-20.303155830655683</v>
       </c>
       <c r="W8">
         <f t="shared" si="4"/>
-        <v>29.294838360947466</v>
+        <v>29.696844169344317</v>
       </c>
       <c r="X8">
         <f t="shared" si="5"/>
-        <v>-30.705161639052534</v>
+        <v>-30.303155830655683</v>
       </c>
       <c r="AA8">
         <v>2.2000000000000002</v>
@@ -5063,31 +5069,31 @@
       </c>
       <c r="AE8">
         <f>AD8*Tabella3[[#This Row],[CL]]</f>
-        <v>-1.1111637948706621</v>
+        <v>-0.47770009679077241</v>
       </c>
       <c r="AF8">
         <f t="shared" ref="AF8:AF26" si="6">AE8+10</f>
-        <v>8.888836205129337</v>
+        <v>9.5222999032092268</v>
       </c>
       <c r="AG8">
         <f t="shared" ref="AG8:AG27" si="7">AE8-10</f>
-        <v>-11.111163794870663</v>
+        <v>-10.477700096790773</v>
       </c>
       <c r="AH8">
         <f t="shared" ref="AH8:AH27" si="8">AF8+10</f>
-        <v>18.888836205129337</v>
+        <v>19.522299903209227</v>
       </c>
       <c r="AI8">
         <f t="shared" ref="AI8:AI28" si="9">AG8-10</f>
-        <v>-21.111163794870663</v>
+        <v>-20.477700096790773</v>
       </c>
       <c r="AJ8">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>28.888836205129337</v>
+        <v>29.522299903209227</v>
       </c>
       <c r="AK8">
         <f t="shared" ref="AK8:AK27" si="10">AI8-10</f>
-        <v>-31.111163794870663</v>
+        <v>-30.477700096790773</v>
       </c>
       <c r="AN8">
         <v>3</v>
@@ -5097,31 +5103,31 @@
       </c>
       <c r="AQ8">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-0.93658286786886769</v>
+        <v>-0.40264606235268374</v>
       </c>
       <c r="AR8">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>9.0634171321311321</v>
+        <v>9.5973539376473163</v>
       </c>
       <c r="AS8">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-10.936582867868868</v>
+        <v>-10.402646062352684</v>
       </c>
       <c r="AT8">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>19.063417132131132</v>
+        <v>19.597353937647316</v>
       </c>
       <c r="AU8">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-20.936582867868868</v>
+        <v>-20.402646062352684</v>
       </c>
       <c r="AV8">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>29.063417132131132</v>
+        <v>29.597353937647316</v>
       </c>
       <c r="AW8">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-30.936582867868868</v>
+        <v>-30.402646062352684</v>
       </c>
       <c r="AX8" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -5141,7 +5147,7 @@
       </c>
       <c r="BC8">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.2995345125386919</v>
+        <v>2.3151521641000405</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.45">
@@ -5161,7 +5167,7 @@
         <v>9.8282834347781997E-2</v>
       </c>
       <c r="E9">
-        <v>0.31196817951521699</v>
+        <v>0.18310731428725199</v>
       </c>
       <c r="F9">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A10/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -5180,55 +5186,55 @@
         <v>29.721121682902375</v>
       </c>
       <c r="J9">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.3316620122487612</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC38-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.1344238749931042</v>
       </c>
       <c r="K9">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.72740435320603358</v>
+        <v>0.39082862330057661</v>
       </c>
       <c r="L9">
         <f>(J10-Tabella3[[#This Row],[Φ]])/(B10-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.2392270943989665E-2</v>
+        <v>2.1285436753095244E-2</v>
       </c>
       <c r="M9">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.23926770910162115</v>
+        <v>0.21367474729118865</v>
       </c>
       <c r="N9" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>0.4785354182032423</v>
+        <v>0.42734949458237731</v>
       </c>
       <c r="Q9">
         <v>-3.3</v>
       </c>
       <c r="R9">
         <f>Q9*Tabella3[[#This Row],[CL]]</f>
-        <v>-1.0294949924002159</v>
+        <v>-0.60425413714793152</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>8.9705050075997832</v>
+        <v>9.3957458628520687</v>
       </c>
       <c r="T9">
         <f t="shared" si="1"/>
-        <v>-11.029494992400217</v>
+        <v>-10.604254137147931</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>18.970505007599783</v>
+        <v>19.395745862852067</v>
       </c>
       <c r="V9">
         <f t="shared" si="3"/>
-        <v>-21.029494992400217</v>
+        <v>-20.604254137147933</v>
       </c>
       <c r="W9">
         <f t="shared" si="4"/>
-        <v>28.970505007599783</v>
+        <v>29.395745862852067</v>
       </c>
       <c r="X9">
         <f t="shared" si="5"/>
-        <v>-31.029494992400217</v>
+        <v>-30.604254137147933</v>
       </c>
       <c r="AA9">
         <v>2.2000000000000002</v>
@@ -5241,31 +5247,31 @@
       </c>
       <c r="AE9">
         <f>AD9*Tabella3[[#This Row],[CL]]</f>
-        <v>-1.6222345334791284</v>
+        <v>-0.95215803429371038</v>
       </c>
       <c r="AF9">
         <f t="shared" si="6"/>
-        <v>8.3777654665208718</v>
+        <v>9.0478419657062901</v>
       </c>
       <c r="AG9">
         <f t="shared" si="7"/>
-        <v>-11.622234533479128</v>
+        <v>-10.95215803429371</v>
       </c>
       <c r="AH9">
         <f t="shared" si="8"/>
-        <v>18.37776546652087</v>
+        <v>19.04784196570629</v>
       </c>
       <c r="AI9">
         <f t="shared" si="9"/>
-        <v>-21.62223453347913</v>
+        <v>-20.95215803429371</v>
       </c>
       <c r="AJ9">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>28.37776546652087</v>
+        <v>29.04784196570629</v>
       </c>
       <c r="AK9">
         <f t="shared" si="10"/>
-        <v>-31.62223453347913</v>
+        <v>-30.95215803429371</v>
       </c>
       <c r="AN9">
         <v>3</v>
@@ -5275,31 +5281,31 @@
       </c>
       <c r="AQ9">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-1.367356530815196</v>
+        <v>-0.80255935852102556</v>
       </c>
       <c r="AR9">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>8.6326434691848029</v>
+        <v>9.1974406414789751</v>
       </c>
       <c r="AS9">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-11.367356530815197</v>
+        <v>-10.802559358521025</v>
       </c>
       <c r="AT9">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>18.632643469184803</v>
+        <v>19.197440641478973</v>
       </c>
       <c r="AU9">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-21.367356530815197</v>
+        <v>-20.802559358521027</v>
       </c>
       <c r="AV9">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>28.632643469184803</v>
+        <v>29.197440641478973</v>
       </c>
       <c r="AW9">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-31.367356530815197</v>
+        <v>-30.802559358521027</v>
       </c>
       <c r="AX9" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -5319,7 +5325,7 @@
       </c>
       <c r="BC9">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.3316620122487612</v>
+        <v>2.3481823295383659</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.45">
@@ -5339,7 +5345,7 @@
         <v>9.8282834347781997E-2</v>
       </c>
       <c r="E10">
-        <v>0.410251013862999</v>
+        <v>0.27434922534550898</v>
       </c>
       <c r="F10">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A11/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -5358,55 +5364,55 @@
         <v>28.18291995349486</v>
       </c>
       <c r="J10">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.3640542831927509</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC39-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.1557093117461994</v>
       </c>
       <c r="K10">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>0.9698556665069914</v>
+        <v>0.59141717974767016</v>
       </c>
       <c r="L10">
         <f>(J11-Tabella3[[#This Row],[Φ]])/(B11-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.2643339075643318E-2</v>
+        <v>2.1490979675457211E-2</v>
       </c>
       <c r="M10">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.24573791845585397</v>
+        <v>0.21776525481420062</v>
       </c>
       <c r="N10" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>0.73721375536756195</v>
+        <v>0.65329576444260185</v>
       </c>
       <c r="Q10">
         <v>-3.3</v>
       </c>
       <c r="R10">
         <f>Q10*Tabella3[[#This Row],[CL]]</f>
-        <v>-1.3538283457478966</v>
+        <v>-0.90535244364017964</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>8.6461716542521039</v>
+        <v>9.0946475563598206</v>
       </c>
       <c r="T10">
         <f t="shared" si="1"/>
-        <v>-11.353828345747896</v>
+        <v>-10.905352443640179</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>18.646171654252104</v>
+        <v>19.094647556359821</v>
       </c>
       <c r="V10">
         <f t="shared" si="3"/>
-        <v>-21.353828345747896</v>
+        <v>-20.905352443640179</v>
       </c>
       <c r="W10">
         <f t="shared" si="4"/>
-        <v>28.646171654252104</v>
+        <v>29.094647556359821</v>
       </c>
       <c r="X10">
         <f t="shared" si="5"/>
-        <v>-31.353828345747896</v>
+        <v>-30.905352443640179</v>
       </c>
       <c r="AA10">
         <v>2.2000000000000002</v>
@@ -5419,31 +5425,31 @@
       </c>
       <c r="AE10">
         <f>AD10*Tabella3[[#This Row],[CL]]</f>
-        <v>-2.1333052720875947</v>
+        <v>-1.4266159717966467</v>
       </c>
       <c r="AF10">
         <f t="shared" si="6"/>
-        <v>7.8666947279124049</v>
+        <v>8.5733840282033533</v>
       </c>
       <c r="AG10">
         <f t="shared" si="7"/>
-        <v>-12.133305272087595</v>
+        <v>-11.426615971796647</v>
       </c>
       <c r="AH10">
         <f t="shared" si="8"/>
-        <v>17.866694727912403</v>
+        <v>18.573384028203353</v>
       </c>
       <c r="AI10">
         <f t="shared" si="9"/>
-        <v>-22.133305272087597</v>
+        <v>-21.426615971796647</v>
       </c>
       <c r="AJ10">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>27.866694727912403</v>
+        <v>28.573384028203353</v>
       </c>
       <c r="AK10">
         <f t="shared" si="10"/>
-        <v>-32.133305272087597</v>
+        <v>-31.426615971796647</v>
       </c>
       <c r="AN10">
         <v>3</v>
@@ -5453,31 +5459,31 @@
       </c>
       <c r="AQ10">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-1.7981301937615246</v>
+        <v>-1.2024726546893658</v>
       </c>
       <c r="AR10">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>8.2018698062384754</v>
+        <v>8.797527345310634</v>
       </c>
       <c r="AS10">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-11.798130193761525</v>
+        <v>-11.202472654689366</v>
       </c>
       <c r="AT10">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>18.201869806238474</v>
+        <v>18.797527345310634</v>
       </c>
       <c r="AU10">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-21.798130193761526</v>
+        <v>-21.202472654689366</v>
       </c>
       <c r="AV10">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>28.201869806238474</v>
+        <v>28.797527345310634</v>
       </c>
       <c r="AW10">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-31.798130193761526</v>
+        <v>-31.202472654689366</v>
       </c>
       <c r="AX10" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -5497,7 +5503,7 @@
       </c>
       <c r="BC10">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.3640542831927509</v>
+        <v>2.3814772662106116</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.45">
@@ -5517,7 +5523,7 @@
         <v>9.8282834347781997E-2</v>
       </c>
       <c r="E11">
-        <v>0.50853384821078196</v>
+        <v>0.365591136403767</v>
       </c>
       <c r="F11">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A12/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -5536,55 +5542,55 @@
         <v>26.636134698218839</v>
       </c>
       <c r="J11">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.3966976222683942</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC40-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.1772002914216566</v>
       </c>
       <c r="K11">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.2188018648497776</v>
+        <v>0.79596512871945613</v>
       </c>
       <c r="L11">
         <f>(J12-Tabella3[[#This Row],[Φ]])/(B12-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.2880627638510067E-2</v>
+        <v>2.1714511478861272E-2</v>
       </c>
       <c r="M11">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.25227514749572488</v>
+        <v>0.2219200485117469</v>
       </c>
       <c r="N11" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>1.0091005899828995</v>
+        <v>0.88768019404698761</v>
       </c>
       <c r="Q11">
         <v>-3.3</v>
       </c>
       <c r="R11">
         <f>Q11*Tabella3[[#This Row],[CL]]</f>
-        <v>-1.6781616990955803</v>
+        <v>-1.2064507501324311</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>8.3218383009044192</v>
+        <v>8.7935492498675689</v>
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>-11.678161699095581</v>
+        <v>-11.206450750132431</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>18.321838300904417</v>
+        <v>18.793549249867567</v>
       </c>
       <c r="V11">
         <f t="shared" si="3"/>
-        <v>-21.678161699095583</v>
+        <v>-21.206450750132433</v>
       </c>
       <c r="W11">
         <f t="shared" si="4"/>
-        <v>28.321838300904417</v>
+        <v>28.793549249867567</v>
       </c>
       <c r="X11">
         <f t="shared" si="5"/>
-        <v>-31.678161699095583</v>
+        <v>-31.206450750132433</v>
       </c>
       <c r="AA11">
         <v>2.2000000000000002</v>
@@ -5597,31 +5603,31 @@
       </c>
       <c r="AE11">
         <f>AD11*Tabella3[[#This Row],[CL]]</f>
-        <v>-2.6443760106960661</v>
+        <v>-1.9010739092995885</v>
       </c>
       <c r="AF11">
         <f t="shared" si="6"/>
-        <v>7.3556239893039344</v>
+        <v>8.0989260907004113</v>
       </c>
       <c r="AG11">
         <f t="shared" si="7"/>
-        <v>-12.644376010696066</v>
+        <v>-11.901073909299589</v>
       </c>
       <c r="AH11">
         <f t="shared" si="8"/>
-        <v>17.355623989303936</v>
+        <v>18.098926090700409</v>
       </c>
       <c r="AI11">
         <f t="shared" si="9"/>
-        <v>-22.644376010696064</v>
+        <v>-21.901073909299591</v>
       </c>
       <c r="AJ11">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>27.355623989303936</v>
+        <v>28.098926090700409</v>
       </c>
       <c r="AK11">
         <f t="shared" si="10"/>
-        <v>-32.644376010696064</v>
+        <v>-31.901073909299591</v>
       </c>
       <c r="AN11">
         <v>3</v>
@@ -5631,31 +5637,31 @@
       </c>
       <c r="AQ11">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-2.2289038567078574</v>
+        <v>-1.6023859508577107</v>
       </c>
       <c r="AR11">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>7.7710961432921426</v>
+        <v>8.3976140491422893</v>
       </c>
       <c r="AS11">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-12.228903856707857</v>
+        <v>-11.602385950857711</v>
       </c>
       <c r="AT11">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>17.771096143292144</v>
+        <v>18.397614049142287</v>
       </c>
       <c r="AU11">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-22.228903856707856</v>
+        <v>-21.602385950857713</v>
       </c>
       <c r="AV11">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>27.771096143292144</v>
+        <v>28.397614049142287</v>
       </c>
       <c r="AW11">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-32.228903856707859</v>
+        <v>-31.602385950857713</v>
       </c>
       <c r="AX11" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -5675,7 +5681,7 @@
       </c>
       <c r="BC11">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.3966976222683942</v>
+        <v>2.415023271014511</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.45">
@@ -5695,7 +5701,7 @@
         <v>9.8282834347781997E-2</v>
       </c>
       <c r="E12">
-        <v>0.60681668255856303</v>
+        <v>0.45683304746202402</v>
       </c>
       <c r="F12">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A13/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -5714,55 +5720,55 @@
         <v>25.081237013443108</v>
       </c>
       <c r="J12">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.4295782499069043</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC41-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.1989148029005179</v>
       </c>
       <c r="K12">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.474308613624947</v>
+        <v>1.0045369505183994</v>
       </c>
       <c r="L12">
         <f>(J13-Tabella3[[#This Row],[Φ]])/(B13-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.310406436284688E-2</v>
+        <v>2.1956723719156933E-2</v>
       </c>
       <c r="M12">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.25887393518644225</v>
+        <v>0.22614613632726147</v>
       </c>
       <c r="N12" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>1.2943696759322112</v>
+        <v>1.1307306816363074</v>
       </c>
       <c r="Q12">
         <v>-3.3</v>
       </c>
       <c r="R12">
         <f>Q12*Tabella3[[#This Row],[CL]]</f>
-        <v>-2.0024950524432579</v>
+        <v>-1.5075490566246792</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>7.9975049475567417</v>
+        <v>8.4924509433753208</v>
       </c>
       <c r="T12">
         <f t="shared" si="1"/>
-        <v>-12.002495052443258</v>
+        <v>-11.507549056624679</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>17.997504947556742</v>
+        <v>18.492450943375321</v>
       </c>
       <c r="V12">
         <f t="shared" si="3"/>
-        <v>-22.002495052443258</v>
+        <v>-21.507549056624679</v>
       </c>
       <c r="W12">
         <f t="shared" si="4"/>
-        <v>27.997504947556742</v>
+        <v>28.492450943375321</v>
       </c>
       <c r="X12">
         <f t="shared" si="5"/>
-        <v>-32.002495052443258</v>
+        <v>-31.507549056624679</v>
       </c>
       <c r="AA12">
         <v>2.2000000000000002</v>
@@ -5775,31 +5781,31 @@
       </c>
       <c r="AE12">
         <f>AD12*Tabella3[[#This Row],[CL]]</f>
-        <v>-3.1554467493045277</v>
+        <v>-2.375531846802525</v>
       </c>
       <c r="AF12">
         <f t="shared" si="6"/>
-        <v>6.8445532506954727</v>
+        <v>7.6244681531974745</v>
       </c>
       <c r="AG12">
         <f t="shared" si="7"/>
-        <v>-13.155446749304527</v>
+        <v>-12.375531846802525</v>
       </c>
       <c r="AH12">
         <f t="shared" si="8"/>
-        <v>16.844553250695473</v>
+        <v>17.624468153197476</v>
       </c>
       <c r="AI12">
         <f t="shared" si="9"/>
-        <v>-23.155446749304527</v>
+        <v>-22.375531846802524</v>
       </c>
       <c r="AJ12">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>26.844553250695473</v>
+        <v>27.624468153197476</v>
       </c>
       <c r="AK12">
         <f t="shared" si="10"/>
-        <v>-33.155446749304531</v>
+        <v>-32.375531846802524</v>
       </c>
       <c r="AN12">
         <v>3</v>
@@ -5809,31 +5815,31 @@
       </c>
       <c r="AQ12">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-2.6596775196541818</v>
+        <v>-2.0022992470260514</v>
       </c>
       <c r="AR12">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>7.3403224803458187</v>
+        <v>7.9977007529739481</v>
       </c>
       <c r="AS12">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-12.659677519654181</v>
+        <v>-12.002299247026052</v>
       </c>
       <c r="AT12">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>17.340322480345819</v>
+        <v>17.997700752973948</v>
       </c>
       <c r="AU12">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-22.659677519654181</v>
+        <v>-22.002299247026052</v>
       </c>
       <c r="AV12">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>27.340322480345819</v>
+        <v>27.997700752973948</v>
       </c>
       <c r="AW12">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-32.659677519654181</v>
+        <v>-32.002299247026052</v>
       </c>
       <c r="AX12" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -5853,7 +5859,7 @@
       </c>
       <c r="BC12">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.4295782499069043</v>
+        <v>2.4488065643812771</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.45">
@@ -5873,7 +5879,7 @@
         <v>9.8282834347779194E-2</v>
       </c>
       <c r="E13">
-        <v>0.70509951690631101</v>
+        <v>0.54807495852028099</v>
       </c>
       <c r="F13">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A14/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -5892,55 +5898,55 @@
         <v>23.518700466297044</v>
       </c>
       <c r="J13">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.4626823142697511</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC42-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.2208715266196748</v>
       </c>
       <c r="K13">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>1.7364361100853176</v>
+        <v>1.2172040698309514</v>
       </c>
       <c r="L13">
         <f>(J14-Tabella3[[#This Row],[Φ]])/(B14-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.3313581198390452E-2</v>
+        <v>2.2218257203774794E-2</v>
       </c>
       <c r="M13">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.26552878795398371</v>
+        <v>0.23045081875381279</v>
       </c>
       <c r="N13" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>1.5931727277239023</v>
+        <v>1.3827049125228768</v>
       </c>
       <c r="Q13">
         <v>-3.3</v>
       </c>
       <c r="R13">
         <f>Q13*Tabella3[[#This Row],[CL]]</f>
-        <v>-2.3268284057908262</v>
+        <v>-1.8086473631169271</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>7.6731715942091743</v>
+        <v>8.1913526368830727</v>
       </c>
       <c r="T13">
         <f t="shared" si="1"/>
-        <v>-12.326828405790826</v>
+        <v>-11.808647363116927</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
-        <v>17.673171594209172</v>
+        <v>18.191352636883074</v>
       </c>
       <c r="V13">
         <f t="shared" si="3"/>
-        <v>-22.326828405790828</v>
+        <v>-21.808647363116926</v>
       </c>
       <c r="W13">
         <f t="shared" si="4"/>
-        <v>27.673171594209172</v>
+        <v>28.191352636883074</v>
       </c>
       <c r="X13">
         <f t="shared" si="5"/>
-        <v>-32.326828405790828</v>
+        <v>-31.808647363116926</v>
       </c>
       <c r="AA13">
         <v>2.2000000000000002</v>
@@ -5953,31 +5959,31 @@
       </c>
       <c r="AE13">
         <f>AD13*Tabella3[[#This Row],[CL]]</f>
-        <v>-3.6665174879128175</v>
+        <v>-2.8499897843054613</v>
       </c>
       <c r="AF13">
         <f t="shared" si="6"/>
-        <v>6.3334825120871825</v>
+        <v>7.1500102156945387</v>
       </c>
       <c r="AG13">
         <f t="shared" si="7"/>
-        <v>-13.666517487912817</v>
+        <v>-12.84998978430546</v>
       </c>
       <c r="AH13">
         <f t="shared" si="8"/>
-        <v>16.333482512087183</v>
+        <v>17.15001021569454</v>
       </c>
       <c r="AI13">
         <f t="shared" si="9"/>
-        <v>-23.666517487912817</v>
+        <v>-22.84998978430546</v>
       </c>
       <c r="AJ13">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>26.333482512087183</v>
+        <v>27.15001021569454</v>
       </c>
       <c r="AK13">
         <f t="shared" si="10"/>
-        <v>-33.666517487912813</v>
+        <v>-32.849989784305464</v>
       </c>
       <c r="AN13">
         <v>3</v>
@@ -5987,31 +5993,31 @@
       </c>
       <c r="AQ13">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-3.0904511826003613</v>
+        <v>-2.4022125431943917</v>
       </c>
       <c r="AR13">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>6.9095488173996387</v>
+        <v>7.5977874568056079</v>
       </c>
       <c r="AS13">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-13.090451182600361</v>
+        <v>-12.402212543194391</v>
       </c>
       <c r="AT13">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>16.909548817399639</v>
+        <v>17.597787456805609</v>
       </c>
       <c r="AU13">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-23.090451182600361</v>
+        <v>-22.402212543194391</v>
       </c>
       <c r="AV13">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>26.909548817399639</v>
+        <v>27.597787456805609</v>
       </c>
       <c r="AW13">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-33.090451182600361</v>
+        <v>-32.402212543194395</v>
       </c>
       <c r="AX13" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -6031,7 +6037,7 @@
       </c>
       <c r="BC13">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.4626823142697511</v>
+        <v>2.4828132944723755</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.45">
@@ -6051,7 +6057,7 @@
         <v>9.8282834347227094E-2</v>
       </c>
       <c r="E14">
-        <v>0.80338235124850899</v>
+        <v>0.63931686957853895</v>
       </c>
       <c r="F14">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A15/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -6070,55 +6076,55 @@
         <v>21.949000950438759</v>
       </c>
       <c r="J14">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.4959958954681416</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC43-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.2430897838234496</v>
       </c>
       <c r="K14">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.0052390512078233</v>
+        <v>1.4340451387776094</v>
       </c>
       <c r="L14">
         <f>(J15-Tabella3[[#This Row],[Φ]])/(B15-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.3509114441924837E-2</v>
+        <v>2.2499700900053821E-2</v>
       </c>
       <c r="M14">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.27223418227426305</v>
+        <v>0.23484165999535339</v>
       </c>
       <c r="N14" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>1.9056392759198413</v>
+        <v>1.6438916199674738</v>
       </c>
       <c r="Q14">
         <v>-3.3</v>
       </c>
       <c r="R14">
         <f>Q14*Tabella3[[#This Row],[CL]]</f>
-        <v>-2.6511617591200793</v>
+        <v>-2.1097456696091785</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
-        <v>7.3488382408799211</v>
+        <v>7.890254330390821</v>
       </c>
       <c r="T14">
         <f t="shared" si="1"/>
-        <v>-12.651161759120079</v>
+        <v>-12.109745669609179</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>17.348838240879921</v>
+        <v>17.890254330390821</v>
       </c>
       <c r="V14">
         <f t="shared" si="3"/>
-        <v>-22.651161759120079</v>
+        <v>-22.109745669609179</v>
       </c>
       <c r="W14">
         <f t="shared" si="4"/>
-        <v>27.348838240879921</v>
+        <v>27.890254330390821</v>
       </c>
       <c r="X14">
         <f t="shared" si="5"/>
-        <v>-32.651161759120079</v>
+        <v>-32.109745669609183</v>
       </c>
       <c r="AA14">
         <v>2.2000000000000002</v>
@@ -6131,31 +6137,31 @@
       </c>
       <c r="AE14">
         <f>AD14*Tabella3[[#This Row],[CL]]</f>
-        <v>-4.1775882264922473</v>
+        <v>-3.3244477218084025</v>
       </c>
       <c r="AF14">
         <f t="shared" si="6"/>
-        <v>5.8224117735077527</v>
+        <v>6.6755522781915975</v>
       </c>
       <c r="AG14">
         <f t="shared" si="7"/>
-        <v>-14.177588226492247</v>
+        <v>-13.324447721808403</v>
       </c>
       <c r="AH14">
         <f t="shared" si="8"/>
-        <v>15.822411773507753</v>
+        <v>16.675552278191596</v>
       </c>
       <c r="AI14">
         <f t="shared" si="9"/>
-        <v>-24.177588226492247</v>
+        <v>-23.324447721808404</v>
       </c>
       <c r="AJ14">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>25.822411773507753</v>
+        <v>26.675552278191596</v>
       </c>
       <c r="AK14">
         <f t="shared" si="10"/>
-        <v>-34.177588226492247</v>
+        <v>-33.324447721808404</v>
       </c>
       <c r="AN14">
         <v>3</v>
@@ -6165,31 +6171,31 @@
       </c>
       <c r="AQ14">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-3.521224845522215</v>
+        <v>-2.8021258393627364</v>
       </c>
       <c r="AR14">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>6.478775154477785</v>
+        <v>7.1978741606372632</v>
       </c>
       <c r="AS14">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-13.521224845522214</v>
+        <v>-12.802125839362736</v>
       </c>
       <c r="AT14">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>16.478775154477784</v>
+        <v>17.197874160637262</v>
       </c>
       <c r="AU14">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-23.521224845522216</v>
+        <v>-22.802125839362738</v>
       </c>
       <c r="AV14">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>26.478775154477784</v>
+        <v>27.197874160637262</v>
       </c>
       <c r="AW14">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-33.521224845522212</v>
+        <v>-32.802125839362738</v>
       </c>
       <c r="AX14" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -6209,7 +6215,7 @@
       </c>
       <c r="BC14">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.4959958954681416</v>
+        <v>2.5170295413983066</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.45">
@@ -6229,7 +6235,7 @@
         <v>9.8282834239803205E-2</v>
       </c>
       <c r="E15">
-        <v>0.90166518473535795</v>
+        <v>0.73055878063679602</v>
       </c>
       <c r="F15">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A16/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -6248,55 +6254,55 @@
         <v>20.372616541114621</v>
       </c>
       <c r="J15">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.5295050099100664</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC44-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.2655894847235034</v>
       </c>
       <c r="K15">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.2807666020495736</v>
+        <v>1.6551462913831496</v>
       </c>
       <c r="L15">
         <f>(J16-Tabella3[[#This Row],[Φ]])/(B16-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.3690620091741952E-2</v>
+        <v>2.2801590917341574E-2</v>
       </c>
       <c r="M15">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.27898458078661209</v>
+        <v>0.23932645823967333</v>
       </c>
       <c r="N15" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>2.2318766462928967</v>
+        <v>1.9146116659173866</v>
       </c>
       <c r="Q15">
         <v>-3.3</v>
       </c>
       <c r="R15">
         <f>Q15*Tabella3[[#This Row],[CL]]</f>
-        <v>-2.9754951096266811</v>
+        <v>-2.4108439761014266</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>7.0245048903733185</v>
+        <v>7.5891560238985729</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>-12.975495109626682</v>
+        <v>-12.410843976101427</v>
       </c>
       <c r="U15">
         <f t="shared" si="2"/>
-        <v>17.024504890373318</v>
+        <v>17.589156023898575</v>
       </c>
       <c r="V15">
         <f t="shared" si="3"/>
-        <v>-22.975495109626682</v>
+        <v>-22.410843976101425</v>
       </c>
       <c r="W15">
         <f t="shared" si="4"/>
-        <v>27.024504890373318</v>
+        <v>27.589156023898575</v>
       </c>
       <c r="X15">
         <f t="shared" si="5"/>
-        <v>-32.975495109626678</v>
+        <v>-32.410843976101425</v>
       </c>
       <c r="AA15">
         <v>2.2000000000000002</v>
@@ -6309,31 +6315,31 @@
       </c>
       <c r="AE15">
         <f>AD15*Tabella3[[#This Row],[CL]]</f>
-        <v>-4.6886589606238616</v>
+        <v>-3.7989056593113393</v>
       </c>
       <c r="AF15">
         <f t="shared" si="6"/>
-        <v>5.3113410393761384</v>
+        <v>6.2010943406886607</v>
       </c>
       <c r="AG15">
         <f t="shared" si="7"/>
-        <v>-14.688658960623862</v>
+        <v>-13.798905659311339</v>
       </c>
       <c r="AH15">
         <f t="shared" si="8"/>
-        <v>15.311341039376138</v>
+        <v>16.201094340688662</v>
       </c>
       <c r="AI15">
         <f t="shared" si="9"/>
-        <v>-24.688658960623862</v>
+        <v>-23.798905659311338</v>
       </c>
       <c r="AJ15">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>25.311341039376138</v>
+        <v>26.201094340688662</v>
       </c>
       <c r="AK15">
         <f t="shared" si="10"/>
-        <v>-34.688658960623862</v>
+        <v>-33.798905659311338</v>
       </c>
       <c r="AN15">
         <v>3</v>
@@ -6343,31 +6349,31 @@
       </c>
       <c r="AQ15">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-3.9519985046950739</v>
+        <v>-3.2020391355310771</v>
       </c>
       <c r="AR15">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>6.0480014953049253</v>
+        <v>6.7979608644689229</v>
       </c>
       <c r="AS15">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-13.951998504695075</v>
+        <v>-13.202039135531077</v>
       </c>
       <c r="AT15">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>16.048001495304927</v>
+        <v>16.797960864468926</v>
       </c>
       <c r="AU15">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-23.951998504695073</v>
+        <v>-23.202039135531074</v>
       </c>
       <c r="AV15">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>26.048001495304927</v>
+        <v>26.797960864468926</v>
       </c>
       <c r="AW15">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-33.951998504695069</v>
+        <v>-33.202039135531074</v>
       </c>
       <c r="AX15" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -6387,7 +6393,7 @@
       </c>
       <c r="BC15">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.5295050099100664</v>
+        <v>2.5514413214581135</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.45">
@@ -6407,7 +6413,7 @@
         <v>9.8282813863925997E-2</v>
       </c>
       <c r="E16">
-        <v>0.99994789521852601</v>
+        <v>0.82180069169505399</v>
       </c>
       <c r="F16">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A17/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -6426,55 +6432,55 @@
         <v>18.790027349554354</v>
       </c>
       <c r="J16">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.5631956300018084</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC45-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.288391075640845</v>
       </c>
       <c r="K16">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.5630620752536322</v>
+        <v>1.880601368830435</v>
       </c>
       <c r="L16">
         <f>(J17-Tabella3[[#This Row],[Φ]])/(B17-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.3831849446734452E-2</v>
+        <v>2.3124409564195592E-2</v>
       </c>
       <c r="M16">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.28574816564590844</v>
+        <v>0.24391316990997422</v>
       </c>
       <c r="N16" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>2.5717334908131759</v>
+        <v>2.1952185291897681</v>
       </c>
       <c r="Q16">
         <v>-3.3</v>
       </c>
       <c r="R16">
         <f>Q16*Tabella3[[#This Row],[CL]]</f>
-        <v>-3.2998280542211358</v>
+        <v>-2.7119422825936779</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
-        <v>6.7001719457788642</v>
+        <v>7.2880577174063221</v>
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
-        <v>-13.299828054221136</v>
+        <v>-12.711942282593679</v>
       </c>
       <c r="U16">
         <f t="shared" si="2"/>
-        <v>16.700171945778862</v>
+        <v>17.288057717406321</v>
       </c>
       <c r="V16">
         <f t="shared" si="3"/>
-        <v>-23.299828054221138</v>
+        <v>-22.711942282593679</v>
       </c>
       <c r="W16">
         <f t="shared" si="4"/>
-        <v>26.700171945778862</v>
+        <v>27.288057717406321</v>
       </c>
       <c r="X16">
         <f t="shared" si="5"/>
-        <v>-33.299828054221138</v>
+        <v>-32.711942282593682</v>
       </c>
       <c r="AA16">
         <v>2.2000000000000002</v>
@@ -6487,31 +6493,31 @@
       </c>
       <c r="AE16">
         <f>AD16*Tabella3[[#This Row],[CL]]</f>
-        <v>-5.1997290551363351</v>
+        <v>-4.2733635968142805</v>
       </c>
       <c r="AF16">
         <f t="shared" si="6"/>
-        <v>4.8002709448636649</v>
+        <v>5.7266364031857195</v>
       </c>
       <c r="AG16">
         <f t="shared" si="7"/>
-        <v>-15.199729055136334</v>
+        <v>-14.273363596814281</v>
       </c>
       <c r="AH16">
         <f t="shared" si="8"/>
-        <v>14.800270944863666</v>
+        <v>15.726636403185719</v>
       </c>
       <c r="AI16">
         <f t="shared" si="9"/>
-        <v>-25.199729055136334</v>
+        <v>-24.273363596814281</v>
       </c>
       <c r="AJ16">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>24.800270944863666</v>
+        <v>25.726636403185719</v>
       </c>
       <c r="AK16">
         <f t="shared" si="10"/>
-        <v>-35.199729055136331</v>
+        <v>-34.273363596814278</v>
       </c>
       <c r="AN16">
         <v>3</v>
@@ -6521,31 +6527,31 @@
       </c>
       <c r="AQ16">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-4.3827716247427997</v>
+        <v>-3.6019524316994214</v>
       </c>
       <c r="AR16">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>5.6172283752572003</v>
+        <v>6.3980475683005782</v>
       </c>
       <c r="AS16">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-14.3827716247428</v>
+        <v>-13.601952431699422</v>
       </c>
       <c r="AT16">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>15.6172283752572</v>
+        <v>16.398047568300576</v>
       </c>
       <c r="AU16">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-24.382771624742801</v>
+        <v>-23.601952431699424</v>
       </c>
       <c r="AV16">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>25.617228375257199</v>
+        <v>26.398047568300576</v>
       </c>
       <c r="AW16">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-34.382771624742794</v>
+        <v>-33.601952431699424</v>
       </c>
       <c r="AX16" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -6565,7 +6571,7 @@
       </c>
       <c r="BC16">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.5631956300018084</v>
+        <v>2.5860345913983274</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.45">
@@ -6585,7 +6591,7 @@
         <v>9.8279039539641996E-2</v>
       </c>
       <c r="E17">
-        <v>1.0984346730599399</v>
+        <v>0.91304260275331095</v>
       </c>
       <c r="F17">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A18/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -6604,55 +6610,55 @@
         <v>17.201715376746058</v>
       </c>
       <c r="J17">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.5970274794485428</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC46-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.3115154852050406</v>
       </c>
       <c r="K17">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>2.8526650303157401</v>
+        <v>2.1105121149161925</v>
       </c>
       <c r="L17">
         <f>(J18-Tabella3[[#This Row],[Φ]])/(B18-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.3866874671597103E-2</v>
+        <v>2.3448994877683482E-2</v>
       </c>
       <c r="M17">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.29243391574571787</v>
+        <v>0.24858345308203011</v>
       </c>
       <c r="N17" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>2.9243391574571787</v>
+        <v>2.4858345308203011</v>
       </c>
       <c r="Q17">
         <v>-3.3</v>
       </c>
       <c r="R17">
         <f>Q17*Tabella3[[#This Row],[CL]]</f>
-        <v>-3.6248344210978014</v>
+        <v>-3.013040589085926</v>
       </c>
       <c r="S17">
         <f t="shared" si="0"/>
-        <v>6.3751655789021981</v>
+        <v>6.986959410914074</v>
       </c>
       <c r="T17">
         <f t="shared" si="1"/>
-        <v>-13.624834421097802</v>
+        <v>-13.013040589085925</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>16.375165578902198</v>
+        <v>16.986959410914075</v>
       </c>
       <c r="V17">
         <f t="shared" si="3"/>
-        <v>-23.624834421097802</v>
+        <v>-23.013040589085925</v>
       </c>
       <c r="W17">
         <f t="shared" si="4"/>
-        <v>26.375165578902198</v>
+        <v>26.986959410914075</v>
       </c>
       <c r="X17">
         <f t="shared" si="5"/>
-        <v>-33.624834421097802</v>
+        <v>-33.013040589085925</v>
       </c>
       <c r="AA17">
         <v>2.2000000000000002</v>
@@ -6665,31 +6671,31 @@
       </c>
       <c r="AE17">
         <f>AD17*Tabella3[[#This Row],[CL]]</f>
-        <v>-5.7118602999116881</v>
+        <v>-4.7478215343172172</v>
       </c>
       <c r="AF17">
         <f t="shared" si="6"/>
-        <v>4.2881397000883119</v>
+        <v>5.2521784656827828</v>
       </c>
       <c r="AG17">
         <f t="shared" si="7"/>
-        <v>-15.711860299911688</v>
+        <v>-14.747821534317218</v>
       </c>
       <c r="AH17">
         <f t="shared" si="8"/>
-        <v>14.288139700088312</v>
+        <v>15.252178465682782</v>
       </c>
       <c r="AI17">
         <f t="shared" si="9"/>
-        <v>-25.711860299911688</v>
+        <v>-24.747821534317218</v>
       </c>
       <c r="AJ17">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>24.288139700088312</v>
+        <v>25.252178465682782</v>
       </c>
       <c r="AK17">
         <f t="shared" si="10"/>
-        <v>-35.711860299911692</v>
+        <v>-34.747821534317218</v>
       </c>
       <c r="AN17">
         <v>3</v>
@@ -6699,31 +6705,31 @@
       </c>
       <c r="AQ17">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-4.814439172021717</v>
+        <v>-4.0018657278677621</v>
       </c>
       <c r="AR17">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>5.185560827978283</v>
+        <v>5.9981342721322379</v>
       </c>
       <c r="AS17">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-14.814439172021718</v>
+        <v>-14.001865727867763</v>
       </c>
       <c r="AT17">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>15.185560827978282</v>
+        <v>15.998134272132237</v>
       </c>
       <c r="AU17">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-24.814439172021718</v>
+        <v>-24.001865727867763</v>
       </c>
       <c r="AV17">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>25.185560827978282</v>
+        <v>25.998134272132237</v>
       </c>
       <c r="AW17">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-34.814439172021721</v>
+        <v>-34.001865727867759</v>
       </c>
       <c r="AX17" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -6743,7 +6749,7 @@
       </c>
       <c r="BC17">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.5970274794485428</v>
+        <v>2.620795252690046</v>
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.45">
@@ -6763,7 +6769,7 @@
         <v>9.9188004814052794E-2</v>
       </c>
       <c r="E18">
-        <v>1.19784355761298</v>
+        <v>1.0044864309736501</v>
       </c>
       <c r="F18">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A19/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -6782,55 +6788,55 @@
         <v>15.608164366635643</v>
       </c>
       <c r="J18">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.6308943541201399</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC47-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.3349644800827241</v>
       </c>
       <c r="K18">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.1513998528431717</v>
+        <v>2.34544013704854</v>
       </c>
       <c r="L18">
         <f>(J19-Tabella3[[#This Row],[Φ]])/(B19-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.4358761970058715E-2</v>
+        <v>2.3624943049013858E-2</v>
       </c>
       <c r="M18">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.3021095835351254</v>
+        <v>0.2553314028163472</v>
       </c>
       <c r="N18" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>3.3232054188863795</v>
+        <v>2.8086454309798192</v>
       </c>
       <c r="Q18">
         <v>-3.3</v>
       </c>
       <c r="R18">
         <f>Q18*Tabella3[[#This Row],[CL]]</f>
-        <v>-3.9528837401228336</v>
+        <v>-3.3148052222130451</v>
       </c>
       <c r="S18">
         <f t="shared" si="0"/>
-        <v>6.0471162598771659</v>
+        <v>6.6851947777869549</v>
       </c>
       <c r="T18">
         <f t="shared" si="1"/>
-        <v>-13.952883740122834</v>
+        <v>-13.314805222213046</v>
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>16.047116259877164</v>
+        <v>16.685194777786954</v>
       </c>
       <c r="V18">
         <f t="shared" si="3"/>
-        <v>-23.952883740122836</v>
+        <v>-23.314805222213046</v>
       </c>
       <c r="W18">
         <f t="shared" si="4"/>
-        <v>26.047116259877164</v>
+        <v>26.685194777786954</v>
       </c>
       <c r="X18">
         <f t="shared" si="5"/>
-        <v>-33.952883740122836</v>
+        <v>-33.314805222213046</v>
       </c>
       <c r="AA18">
         <v>2.2000000000000002</v>
@@ -6843,31 +6849,31 @@
       </c>
       <c r="AE18">
         <f>AD18*Tabella3[[#This Row],[CL]]</f>
-        <v>-6.2287864995874962</v>
+        <v>-5.2233294410629805</v>
       </c>
       <c r="AF18">
         <f t="shared" si="6"/>
-        <v>3.7712135004125038</v>
+        <v>4.7766705589370195</v>
       </c>
       <c r="AG18">
         <f t="shared" si="7"/>
-        <v>-16.228786499587496</v>
+        <v>-15.22332944106298</v>
       </c>
       <c r="AH18">
         <f t="shared" si="8"/>
-        <v>13.771213500412504</v>
+        <v>14.77667055893702</v>
       </c>
       <c r="AI18">
         <f t="shared" si="9"/>
-        <v>-26.228786499587496</v>
+        <v>-25.22332944106298</v>
       </c>
       <c r="AJ18">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>23.771213500412504</v>
+        <v>24.77667055893702</v>
       </c>
       <c r="AK18">
         <f t="shared" si="10"/>
-        <v>-36.2287864995875</v>
+        <v>-35.22332944106298</v>
       </c>
       <c r="AN18">
         <v>3</v>
@@ -6877,31 +6883,31 @@
       </c>
       <c r="AQ18">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-5.2501483130176911</v>
+        <v>-4.4026640269575079</v>
       </c>
       <c r="AR18">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>4.7498516869823089</v>
+        <v>5.5973359730424921</v>
       </c>
       <c r="AS18">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-15.250148313017691</v>
+        <v>-14.402664026957508</v>
       </c>
       <c r="AT18">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>14.749851686982307</v>
+        <v>15.597335973042492</v>
       </c>
       <c r="AU18">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-25.250148313017693</v>
+        <v>-24.40266402695751</v>
       </c>
       <c r="AV18">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>24.749851686982307</v>
+        <v>25.59733597304249</v>
       </c>
       <c r="AW18">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-35.250148313017696</v>
+        <v>-34.40266402695751</v>
       </c>
       <c r="AX18" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -6921,7 +6927,7 @@
       </c>
       <c r="BC18">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.6308943541201399</v>
+        <v>2.6556832694874006</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.45">
@@ -6941,7 +6947,7 @@
         <v>9.8887374946945397E-2</v>
       </c>
       <c r="E19">
-        <v>1.29450022632146</v>
+        <v>1.09789441965757</v>
       </c>
       <c r="F19">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A20/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -6960,55 +6966,55 @@
         <v>14.009859658795479</v>
       </c>
       <c r="J19">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.6652531160901987</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC48-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.3585894231317379</v>
       </c>
       <c r="K19">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.4501707619827386</v>
+        <v>2.5894821659197023</v>
       </c>
       <c r="L19">
         <f>(J20-Tabella3[[#This Row],[Φ]])/(B20-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.5419345442800676E-2</v>
+        <v>2.399902214279237E-2</v>
       </c>
       <c r="M19">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.30941023491118952</v>
+        <v>0.259583109118938</v>
       </c>
       <c r="N19" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>3.712922818934274</v>
+        <v>3.1149973094272561</v>
       </c>
       <c r="Q19">
         <v>-3.3</v>
       </c>
       <c r="R19">
         <f>Q19*Tabella3[[#This Row],[CL]]</f>
-        <v>-4.2718507468608173</v>
+        <v>-3.6230515848699807</v>
       </c>
       <c r="S19">
         <f t="shared" si="0"/>
-        <v>5.7281492531391827</v>
+        <v>6.3769484151300198</v>
       </c>
       <c r="T19">
         <f t="shared" si="1"/>
-        <v>-14.271850746860817</v>
+        <v>-13.62305158486998</v>
       </c>
       <c r="U19">
         <f t="shared" si="2"/>
-        <v>15.728149253139183</v>
+        <v>16.37694841513002</v>
       </c>
       <c r="V19">
         <f t="shared" si="3"/>
-        <v>-24.271850746860817</v>
+        <v>-23.62305158486998</v>
       </c>
       <c r="W19">
         <f t="shared" si="4"/>
-        <v>25.728149253139183</v>
+        <v>26.37694841513002</v>
       </c>
       <c r="X19">
         <f t="shared" si="5"/>
-        <v>-34.271850746860821</v>
+        <v>-33.623051584869984</v>
       </c>
       <c r="Z19">
         <v>2.2999999999999998</v>
@@ -7024,31 +7030,31 @@
       </c>
       <c r="AE19">
         <f>AD19*Tabella3[[#This Row],[CL]]</f>
-        <v>-6.731401176871592</v>
+        <v>-5.709050982219364</v>
       </c>
       <c r="AF19">
         <f t="shared" si="6"/>
-        <v>3.268598823128408</v>
+        <v>4.290949017780636</v>
       </c>
       <c r="AG19">
         <f t="shared" si="7"/>
-        <v>-16.731401176871593</v>
+        <v>-15.709050982219363</v>
       </c>
       <c r="AH19">
         <f t="shared" si="8"/>
-        <v>13.268598823128407</v>
+        <v>14.290949017780637</v>
       </c>
       <c r="AI19">
         <f t="shared" si="9"/>
-        <v>-26.731401176871593</v>
+        <v>-25.709050982219363</v>
       </c>
       <c r="AJ19">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>23.268598823128407</v>
+        <v>24.290949017780637</v>
       </c>
       <c r="AK19">
         <f t="shared" si="10"/>
-        <v>-36.731401176871593</v>
+        <v>-35.709050982219367</v>
       </c>
       <c r="AN19">
         <v>3</v>
@@ -7058,31 +7064,31 @@
       </c>
       <c r="AQ19">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-5.6737944919669587</v>
+        <v>-4.8120712413591296</v>
       </c>
       <c r="AR19">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>4.3262055080330413</v>
+        <v>5.1879287586408704</v>
       </c>
       <c r="AS19">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-15.673794491966959</v>
+        <v>-14.812071241359128</v>
       </c>
       <c r="AT19">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>14.326205508033041</v>
+        <v>15.187928758640872</v>
       </c>
       <c r="AU19">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-25.673794491966959</v>
+        <v>-24.812071241359128</v>
       </c>
       <c r="AV19">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>24.326205508033041</v>
+        <v>25.187928758640872</v>
       </c>
       <c r="AW19">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-35.673794491966959</v>
+        <v>-34.812071241359135</v>
       </c>
       <c r="AX19" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -7102,7 +7108,7 @@
       </c>
       <c r="BC19">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.6652531160901987</v>
+        <v>2.6904585211704779</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.45">
@@ -7122,7 +7128,7 @@
         <v>9.4047767782505606E-2</v>
       </c>
       <c r="E20">
-        <v>1.38385770413853</v>
+        <v>1.1914556159937499</v>
       </c>
       <c r="F20">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A21/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -7141,55 +7147,55 @@
         <v>12.407288040607</v>
       </c>
       <c r="J20">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.7006724615329993</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC49-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.3825884452745303</v>
       </c>
       <c r="K20">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.737346392247209</v>
+        <v>2.8387483837241563</v>
       </c>
       <c r="L20">
         <f>(J21-Tabella3[[#This Row],[Φ]])/(B21-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.7048584762429115E-2</v>
+        <v>2.4765919042716522E-2</v>
       </c>
       <c r="M20">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.30526218596978022</v>
+        <v>0.25358461815115124</v>
       </c>
       <c r="N20" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>3.9684084176071428</v>
+        <v>3.2966000359649663</v>
       </c>
       <c r="Q20">
         <v>-3.3</v>
       </c>
       <c r="R20">
         <f>Q20*Tabella3[[#This Row],[CL]]</f>
-        <v>-4.5667304236571491</v>
+        <v>-3.9318035327793748</v>
       </c>
       <c r="S20">
         <f t="shared" si="0"/>
-        <v>5.4332695763428509</v>
+        <v>6.0681964672206252</v>
       </c>
       <c r="T20">
         <f t="shared" si="1"/>
-        <v>-14.566730423657148</v>
+        <v>-13.931803532779375</v>
       </c>
       <c r="U20">
         <f t="shared" si="2"/>
-        <v>15.433269576342852</v>
+        <v>16.068196467220623</v>
       </c>
       <c r="V20">
         <f t="shared" si="3"/>
-        <v>-24.566730423657148</v>
+        <v>-23.931803532779377</v>
       </c>
       <c r="W20">
         <f t="shared" si="4"/>
-        <v>25.433269576342852</v>
+        <v>26.068196467220623</v>
       </c>
       <c r="X20">
         <f t="shared" si="5"/>
-        <v>-34.566730423657148</v>
+        <v>-33.931803532779377</v>
       </c>
       <c r="Z20">
         <v>2.2999999999999998</v>
@@ -7205,31 +7211,31 @@
       </c>
       <c r="AE20">
         <f>AD20*Tabella3[[#This Row],[CL]]</f>
-        <v>-7.196060061520356</v>
+        <v>-6.1955692031674996</v>
       </c>
       <c r="AF20">
         <f t="shared" si="6"/>
-        <v>2.803939938479644</v>
+        <v>3.8044307968325004</v>
       </c>
       <c r="AG20">
         <f t="shared" si="7"/>
-        <v>-17.196060061520356</v>
+        <v>-16.195569203167501</v>
       </c>
       <c r="AH20">
         <f t="shared" si="8"/>
-        <v>12.803939938479644</v>
+        <v>13.8044307968325</v>
       </c>
       <c r="AI20">
         <f t="shared" si="9"/>
-        <v>-27.196060061520356</v>
+        <v>-26.195569203167501</v>
       </c>
       <c r="AJ20">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>22.803939938479644</v>
+        <v>23.804430796832499</v>
       </c>
       <c r="AK20">
         <f t="shared" si="10"/>
-        <v>-37.196060061520356</v>
+        <v>-36.195569203167501</v>
       </c>
       <c r="AN20">
         <v>3</v>
@@ -7239,31 +7245,31 @@
       </c>
       <c r="AQ20">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.0654483172391771</v>
+        <v>-5.2221499649006056</v>
       </c>
       <c r="AR20">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.9345516827608229</v>
+        <v>4.7778500350993944</v>
       </c>
       <c r="AS20">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.065448317239177</v>
+        <v>-15.222149964900607</v>
       </c>
       <c r="AT20">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.934551682760823</v>
+        <v>14.777850035099393</v>
       </c>
       <c r="AU20">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.065448317239177</v>
+        <v>-25.222149964900609</v>
       </c>
       <c r="AV20">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.934551682760823</v>
+        <v>24.777850035099391</v>
       </c>
       <c r="AW20">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.065448317239174</v>
+        <v>-35.222149964900609</v>
       </c>
       <c r="AX20" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -7283,7 +7289,7 @@
       </c>
       <c r="BC20">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.7006724615329993</v>
+        <v>2.7253389383389028</v>
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.45">
@@ -7303,7 +7309,7 @@
         <v>8.4661245764850707E-2</v>
       </c>
       <c r="E21">
-        <v>1.4613690340788399</v>
+        <v>1.2813235760414099</v>
       </c>
       <c r="F21">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A22/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -7322,55 +7328,55 @@
         <v>10.800937599002415</v>
       </c>
       <c r="J21">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.7377210462954285</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC50-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.4073543643172468</v>
       </c>
       <c r="K21">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>4.0008207610020614</v>
+        <v>3.0845999028858699</v>
       </c>
       <c r="L21">
         <f>(J22-Tabella3[[#This Row],[Φ]])/(B22-Tabella3[[#This Row],[α_b]])</f>
-        <v>3.9246446257883427E-2</v>
+        <v>2.5957749358988202E-2</v>
       </c>
       <c r="M21">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.28913241559493169</v>
+        <v>0.23706989571519377</v>
       </c>
       <c r="N21" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>4.0478538183290436</v>
+        <v>3.3189785400127128</v>
       </c>
       <c r="Q21">
         <v>-3.3</v>
       </c>
       <c r="R21">
         <f>Q21*Tabella3[[#This Row],[CL]]</f>
-        <v>-4.8225178124601715</v>
+        <v>-4.2283678009366525</v>
       </c>
       <c r="S21">
         <f t="shared" si="0"/>
-        <v>5.1774821875398285</v>
+        <v>5.7716321990633475</v>
       </c>
       <c r="T21">
         <f t="shared" si="1"/>
-        <v>-14.822517812460172</v>
+        <v>-14.228367800936653</v>
       </c>
       <c r="U21">
         <f t="shared" si="2"/>
-        <v>15.177482187539828</v>
+        <v>15.771632199063347</v>
       </c>
       <c r="V21">
         <f t="shared" si="3"/>
-        <v>-24.82251781246017</v>
+        <v>-24.228367800936653</v>
       </c>
       <c r="W21">
         <f t="shared" si="4"/>
-        <v>25.17748218753983</v>
+        <v>25.771632199063347</v>
       </c>
       <c r="X21">
         <f t="shared" si="5"/>
-        <v>-34.82251781246017</v>
+        <v>-34.228367800936653</v>
       </c>
       <c r="Z21">
         <v>2.2999999999999998</v>
@@ -7386,31 +7392,31 @@
       </c>
       <c r="AE21">
         <f>AD21*Tabella3[[#This Row],[CL]]</f>
-        <v>-7.5991189772099679</v>
+        <v>-6.6628825954153319</v>
       </c>
       <c r="AF21">
         <f t="shared" si="6"/>
-        <v>2.4008810227900321</v>
+        <v>3.3371174045846681</v>
       </c>
       <c r="AG21">
         <f t="shared" si="7"/>
-        <v>-17.599118977209969</v>
+        <v>-16.662882595415333</v>
       </c>
       <c r="AH21">
         <f t="shared" si="8"/>
-        <v>12.400881022790031</v>
+        <v>13.337117404584667</v>
       </c>
       <c r="AI21">
         <f t="shared" si="9"/>
-        <v>-27.599118977209969</v>
+        <v>-26.662882595415333</v>
       </c>
       <c r="AJ21">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>22.400881022790031</v>
+        <v>23.337117404584667</v>
       </c>
       <c r="AK21">
         <f t="shared" si="10"/>
-        <v>-37.599118977209969</v>
+        <v>-36.662882595415333</v>
       </c>
       <c r="AM21">
         <v>3.5</v>
@@ -7423,31 +7429,31 @@
       </c>
       <c r="AQ21">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.4051804763675557</v>
+        <v>-5.6160412337894998</v>
       </c>
       <c r="AR21">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.5948195236324443</v>
+        <v>4.3839587662105002</v>
       </c>
       <c r="AS21">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.405180476367555</v>
+        <v>-15.616041233789501</v>
       </c>
       <c r="AT21">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.594819523632443</v>
+        <v>14.383958766210499</v>
       </c>
       <c r="AU21">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.405180476367555</v>
+        <v>-25.616041233789499</v>
       </c>
       <c r="AV21">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.594819523632445</v>
+        <v>24.383958766210501</v>
       </c>
       <c r="AW21">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.405180476367555</v>
+        <v>-35.616041233789502</v>
       </c>
       <c r="AX21" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -7467,7 +7473,7 @@
       </c>
       <c r="BC21">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.7377210462954285</v>
+        <v>2.7608033691408367</v>
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.45">
@@ -7487,7 +7493,7 @@
         <v>7.0727767035164896E-2</v>
       </c>
       <c r="E22">
-        <v>1.52248725921424</v>
+        <v>1.36329831386787</v>
       </c>
       <c r="F22">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A23/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -7506,55 +7512,55 @@
         <v>9.1912975718105994</v>
       </c>
       <c r="J22">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.7769674925533119</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC51-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.433312113676235</v>
       </c>
       <c r="K22">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>4.2278976266645323</v>
+        <v>3.3173303016890743</v>
       </c>
       <c r="L22">
         <f>(J23-Tabella3[[#This Row],[Φ]])/(B23-Tabella3[[#This Row],[α_b]])</f>
-        <v>4.2012900617790283E-2</v>
+        <v>2.7528665748759007E-2</v>
       </c>
       <c r="M22">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.26037281579075644</v>
+        <v>0.20963251589825277</v>
       </c>
       <c r="N22" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>3.9055922368613465</v>
+        <v>3.1444877384737917</v>
       </c>
       <c r="Q22">
         <v>-3.3</v>
       </c>
       <c r="R22">
         <f>Q22*Tabella3[[#This Row],[CL]]</f>
-        <v>-5.0242079554069914</v>
+        <v>-4.498884435763971</v>
       </c>
       <c r="S22">
         <f t="shared" si="0"/>
-        <v>4.9757920445930086</v>
+        <v>5.501115564236029</v>
       </c>
       <c r="T22">
         <f t="shared" si="1"/>
-        <v>-15.024207955406991</v>
+        <v>-14.498884435763971</v>
       </c>
       <c r="U22">
         <f t="shared" si="2"/>
-        <v>14.975792044593009</v>
+        <v>15.501115564236029</v>
       </c>
       <c r="V22">
         <f t="shared" si="3"/>
-        <v>-25.024207955406993</v>
+        <v>-24.498884435763969</v>
       </c>
       <c r="W22">
         <f t="shared" si="4"/>
-        <v>24.975792044593007</v>
+        <v>25.501115564236031</v>
       </c>
       <c r="X22">
         <f t="shared" si="5"/>
-        <v>-35.024207955406993</v>
+        <v>-34.498884435763969</v>
       </c>
       <c r="Z22">
         <v>2.2999999999999998</v>
@@ -7570,31 +7576,31 @@
       </c>
       <c r="AE22">
         <f>AD22*Tabella3[[#This Row],[CL]]</f>
-        <v>-7.9169337479140482</v>
+        <v>-7.0891512321129246</v>
       </c>
       <c r="AF22">
         <f t="shared" si="6"/>
-        <v>2.0830662520859518</v>
+        <v>2.9108487678870754</v>
       </c>
       <c r="AG22">
         <f t="shared" si="7"/>
-        <v>-17.916933747914047</v>
+        <v>-17.089151232112926</v>
       </c>
       <c r="AH22">
         <f t="shared" si="8"/>
-        <v>12.083066252085953</v>
+        <v>12.910848767887074</v>
       </c>
       <c r="AI22">
         <f t="shared" si="9"/>
-        <v>-27.916933747914047</v>
+        <v>-27.089151232112926</v>
       </c>
       <c r="AJ22">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>22.083066252085953</v>
+        <v>22.910848767887074</v>
       </c>
       <c r="AK22">
         <f t="shared" si="10"/>
-        <v>-37.916933747914044</v>
+        <v>-37.089151232112926</v>
       </c>
       <c r="AM22">
         <v>3.5</v>
@@ -7607,31 +7613,31 @@
       </c>
       <c r="AQ22">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.6730616571360137</v>
+        <v>-5.975336509682875</v>
       </c>
       <c r="AR22">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.3269383428639863</v>
+        <v>4.024663490317125</v>
       </c>
       <c r="AS22">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.673061657136014</v>
+        <v>-15.975336509682876</v>
       </c>
       <c r="AT22">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.326938342863986</v>
+        <v>14.024663490317124</v>
       </c>
       <c r="AU22">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.673061657136014</v>
+        <v>-25.975336509682876</v>
       </c>
       <c r="AV22">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.326938342863986</v>
+        <v>24.024663490317124</v>
       </c>
       <c r="AW22">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.67306165713601</v>
+        <v>-35.975336509682876</v>
       </c>
       <c r="AX22" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -7651,7 +7657,7 @@
       </c>
       <c r="BC22">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.7769674925533119</v>
+        <v>2.7973759531163158</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.45">
@@ -7671,7 +7677,7 @@
         <v>5.22473313753695E-2</v>
       </c>
       <c r="E23">
-        <v>1.5626654226636201</v>
+        <v>1.4336509319803099</v>
       </c>
       <c r="F23">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A24/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -7690,55 +7696,55 @@
         <v>7.5788581987524637</v>
       </c>
       <c r="J23">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.8189803931711022</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC52-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.460840779424994</v>
       </c>
       <c r="K23">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>4.4051231875751782</v>
+        <v>3.527986676877795</v>
       </c>
       <c r="L23">
         <f>(J24-Tabella3[[#This Row],[Φ]])/(B24-Tabella3[[#This Row],[α_b]])</f>
-        <v>4.5347921576181616E-2</v>
+        <v>2.9491322447158907E-2</v>
       </c>
       <c r="M23">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.21814783177944053</v>
+        <v>0.17085262557634143</v>
       </c>
       <c r="N23" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>3.4903653084710484</v>
+        <v>2.7336420092214628</v>
       </c>
       <c r="Q23">
         <v>-3.3</v>
       </c>
       <c r="R23">
         <f>Q23*Tabella3[[#This Row],[CL]]</f>
-        <v>-5.1567958947899459</v>
+        <v>-4.7310480755350222</v>
       </c>
       <c r="S23">
         <f t="shared" si="0"/>
-        <v>4.8432041052100541</v>
+        <v>5.2689519244649778</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>-15.156795894789946</v>
+        <v>-14.731048075535021</v>
       </c>
       <c r="U23">
         <f t="shared" si="2"/>
-        <v>14.843204105210054</v>
+        <v>15.268951924464979</v>
       </c>
       <c r="V23">
         <f t="shared" si="3"/>
-        <v>-25.156795894789944</v>
+        <v>-24.731048075535021</v>
       </c>
       <c r="W23">
         <f t="shared" si="4"/>
-        <v>24.843204105210056</v>
+        <v>25.268951924464979</v>
       </c>
       <c r="X23">
         <f t="shared" si="5"/>
-        <v>-35.156795894789944</v>
+        <v>-34.731048075535021</v>
       </c>
       <c r="Z23">
         <v>2.2999999999999998</v>
@@ -7754,31 +7760,31 @@
       </c>
       <c r="AE23">
         <f>AD23*Tabella3[[#This Row],[CL]]</f>
-        <v>-8.1258601978508249</v>
+        <v>-7.454984846297612</v>
       </c>
       <c r="AF23">
         <f t="shared" si="6"/>
-        <v>1.8741398021491751</v>
+        <v>2.545015153702388</v>
       </c>
       <c r="AG23">
         <f t="shared" si="7"/>
-        <v>-18.125860197850827</v>
+        <v>-17.454984846297613</v>
       </c>
       <c r="AH23">
         <f t="shared" si="8"/>
-        <v>11.874139802149175</v>
+        <v>12.545015153702387</v>
       </c>
       <c r="AI23">
         <f t="shared" si="9"/>
-        <v>-28.125860197850827</v>
+        <v>-27.454984846297613</v>
       </c>
       <c r="AJ23">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>21.874139802149173</v>
+        <v>22.545015153702387</v>
       </c>
       <c r="AK23">
         <f t="shared" si="10"/>
-        <v>-38.125860197850827</v>
+        <v>-37.454984846297613</v>
       </c>
       <c r="AM23">
         <v>3.5</v>
@@ -7791,31 +7797,31 @@
       </c>
       <c r="AQ23">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.8491625475346467</v>
+        <v>-6.2836920348696985</v>
       </c>
       <c r="AR23">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.1508374524653529</v>
+        <v>3.7163079651303015</v>
       </c>
       <c r="AS23">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.849162547534647</v>
+        <v>-16.283692034869699</v>
       </c>
       <c r="AT23">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.150837452465353</v>
+        <v>13.716307965130301</v>
       </c>
       <c r="AU23">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.849162547534647</v>
+        <v>-26.283692034869699</v>
       </c>
       <c r="AV23">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.150837452465353</v>
+        <v>23.716307965130301</v>
       </c>
       <c r="AW23">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.849162547534647</v>
+        <v>-36.283692034869702</v>
       </c>
       <c r="AX23" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -7835,7 +7841,7 @@
       </c>
       <c r="BC23">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.8189803931711022</v>
+        <v>2.8355204056665517</v>
       </c>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.45">
@@ -7855,7 +7861,7 @@
         <v>2.92199383809684E-2</v>
       </c>
       <c r="E24">
-        <v>1.57735657790398</v>
+        <v>1.4885331083611999</v>
       </c>
       <c r="F24">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A25/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -7874,55 +7880,55 @@
         <v>5.9641105721311751</v>
       </c>
       <c r="J24">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.8643283147472838</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC53-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.4903321018721529</v>
       </c>
       <c r="K24">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>4.5180671085432493</v>
+        <v>3.7069417844514363</v>
       </c>
       <c r="L24">
         <f>(J25-Tabella3[[#This Row],[Φ]])/(B25-Tabella3[[#This Row],[α_b]])</f>
-        <v>4.9251210539083788E-2</v>
+        <v>3.1848518116679825E-2</v>
       </c>
       <c r="M24">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>0.16138221777333633</v>
+        <v>0.12017492423377124</v>
       </c>
       <c r="N24" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>2.7434977021467177</v>
+        <v>2.0429737119741112</v>
       </c>
       <c r="Q24">
         <v>-3.3</v>
       </c>
       <c r="R24">
         <f>Q24*Tabella3[[#This Row],[CL]]</f>
-        <v>-5.2052767070831338</v>
+        <v>-4.9121592575919593</v>
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>4.7947232929168662</v>
+        <v>5.0878407424080407</v>
       </c>
       <c r="T24">
         <f t="shared" si="1"/>
-        <v>-15.205276707083133</v>
+        <v>-14.912159257591959</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
-        <v>14.794723292916867</v>
+        <v>15.087840742408041</v>
       </c>
       <c r="V24">
         <f t="shared" si="3"/>
-        <v>-25.205276707083133</v>
+        <v>-24.912159257591959</v>
       </c>
       <c r="W24">
         <f t="shared" si="4"/>
-        <v>24.794723292916867</v>
+        <v>25.087840742408041</v>
       </c>
       <c r="X24">
         <f t="shared" si="5"/>
-        <v>-35.205276707083129</v>
+        <v>-34.912159257591959</v>
       </c>
       <c r="Z24">
         <v>2.2999999999999998</v>
@@ -7938,31 +7944,31 @@
       </c>
       <c r="AE24">
         <f>AD24*Tabella3[[#This Row],[CL]]</f>
-        <v>-8.2022542051006955</v>
+        <v>-7.7403721634782396</v>
       </c>
       <c r="AF24">
         <f t="shared" si="6"/>
-        <v>1.7977457948993045</v>
+        <v>2.2596278365217604</v>
       </c>
       <c r="AG24">
         <f t="shared" si="7"/>
-        <v>-18.202254205100694</v>
+        <v>-17.740372163478241</v>
       </c>
       <c r="AH24">
         <f t="shared" si="8"/>
-        <v>11.797745794899305</v>
+        <v>12.25962783652176</v>
       </c>
       <c r="AI24">
         <f t="shared" si="9"/>
-        <v>-28.202254205100694</v>
+        <v>-27.740372163478241</v>
       </c>
       <c r="AJ24">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>21.797745794899306</v>
+        <v>22.259627836521759</v>
       </c>
       <c r="AK24">
         <f t="shared" si="10"/>
-        <v>-38.202254205100694</v>
+        <v>-37.740372163478241</v>
       </c>
       <c r="AM24">
         <v>3.5</v>
@@ -7975,31 +7981,31 @@
       </c>
       <c r="AQ24">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.9135538809531436</v>
+        <v>-6.5242406139471392</v>
       </c>
       <c r="AR24">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.086446119046856</v>
+        <v>3.4757593860528608</v>
       </c>
       <c r="AS24">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.913553880953142</v>
+        <v>-16.524240613947139</v>
       </c>
       <c r="AT24">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.086446119046856</v>
+        <v>13.475759386052861</v>
       </c>
       <c r="AU24">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.913553880953142</v>
+        <v>-26.524240613947139</v>
       </c>
       <c r="AV24">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.086446119046858</v>
+        <v>23.475759386052861</v>
       </c>
       <c r="AW24">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.913553880953138</v>
+        <v>-36.524240613947143</v>
       </c>
       <c r="AX24" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -8019,7 +8025,7 @@
       </c>
       <c r="BC24">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.8643283147472838</v>
+        <v>2.8757157278072096</v>
       </c>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.45">
@@ -8039,7 +8045,7 @@
         <v>1.6455383118552101E-3</v>
       </c>
       <c r="E25">
-        <v>1.5620159470931601</v>
+        <v>1.5240946027695901</v>
       </c>
       <c r="F25">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A26/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -8058,55 +8064,55 @@
         <v>4.3475464872627327</v>
       </c>
       <c r="J25">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.9135795252863677</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC54-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.5221806199888328</v>
       </c>
       <c r="K25">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>4.5510576816214252</v>
+        <v>3.8440418701350385</v>
       </c>
       <c r="L25">
         <f>(J26-Tabella3[[#This Row],[Φ]])/(B26-Tabella3[[#This Row],[α_b]])</f>
-        <v>5.2317717487098035E-2</v>
+        <v>3.4604356350697633E-2</v>
       </c>
       <c r="M25">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>8.6515515763857465E-2</v>
+        <v>5.6890657586024206E-2</v>
       </c>
       <c r="N25" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>1.5572792837494345</v>
+        <v>1.0240318365484358</v>
       </c>
       <c r="Q25">
         <v>-3.3</v>
       </c>
       <c r="R25">
         <f>Q25*Tabella3[[#This Row],[CL]]</f>
-        <v>-5.1546526254074276</v>
+        <v>-5.0295121891396466</v>
       </c>
       <c r="S25">
         <f t="shared" si="0"/>
-        <v>4.8453473745925724</v>
+        <v>4.9704878108603534</v>
       </c>
       <c r="T25">
         <f t="shared" si="1"/>
-        <v>-15.154652625407428</v>
+        <v>-15.029512189139647</v>
       </c>
       <c r="U25">
         <f t="shared" si="2"/>
-        <v>14.845347374592572</v>
+        <v>14.970487810860353</v>
       </c>
       <c r="V25">
         <f t="shared" si="3"/>
-        <v>-25.154652625407429</v>
+        <v>-25.029512189139645</v>
       </c>
       <c r="W25">
         <f t="shared" si="4"/>
-        <v>24.845347374592571</v>
+        <v>24.970487810860355</v>
       </c>
       <c r="X25">
         <f t="shared" si="5"/>
-        <v>-35.154652625407429</v>
+        <v>-35.029512189139645</v>
       </c>
       <c r="Z25">
         <v>2.2999999999999998</v>
@@ -8122,31 +8128,31 @@
       </c>
       <c r="AE25">
         <f>AD25*Tabella3[[#This Row],[CL]]</f>
-        <v>-8.1224829248844319</v>
+        <v>-7.9252919344018684</v>
       </c>
       <c r="AF25">
         <f t="shared" si="6"/>
-        <v>1.8775170751155681</v>
+        <v>2.0747080655981316</v>
       </c>
       <c r="AG25">
         <f t="shared" si="7"/>
-        <v>-18.12248292488443</v>
+        <v>-17.925291934401869</v>
       </c>
       <c r="AH25">
         <f t="shared" si="8"/>
-        <v>11.877517075115568</v>
+        <v>12.074708065598131</v>
       </c>
       <c r="AI25">
         <f t="shared" si="9"/>
-        <v>-28.12248292488443</v>
+        <v>-27.925291934401869</v>
       </c>
       <c r="AJ25">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>21.87751707511557</v>
+        <v>22.074708065598131</v>
       </c>
       <c r="AK25">
         <f t="shared" si="10"/>
-        <v>-38.12248292488443</v>
+        <v>-37.925291934401869</v>
       </c>
       <c r="AM25">
         <v>3.5</v>
@@ -8159,31 +8165,31 @@
       </c>
       <c r="AQ25">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.8463158961093207</v>
+        <v>-6.680106643939113</v>
       </c>
       <c r="AR25">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.1536841038906798</v>
+        <v>3.319893356060887</v>
       </c>
       <c r="AS25">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.846315896109321</v>
+        <v>-16.680106643939112</v>
       </c>
       <c r="AT25">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.153684103890679</v>
+        <v>13.319893356060886</v>
       </c>
       <c r="AU25">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.846315896109321</v>
+        <v>-26.680106643939112</v>
       </c>
       <c r="AV25">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.153684103890679</v>
+        <v>23.319893356060888</v>
       </c>
       <c r="AW25">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.846315896109317</v>
+        <v>-36.680106643939112</v>
       </c>
       <c r="AX25" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -8203,7 +8209,7 @@
       </c>
       <c r="BC25">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.9135795252863677</v>
+        <v>2.9184411459123463</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.45">
@@ -8223,7 +8229,7 @@
         <v>-3.0480375670981299E-2</v>
       </c>
       <c r="E26">
-        <v>1.52305821961917</v>
+        <v>1.5364851749644699</v>
       </c>
       <c r="F26">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A27/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -8242,54 +8248,54 @@
         <v>2.729658292692402</v>
       </c>
       <c r="J26">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.9658972427734658</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC55-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>2.5567849763395305</v>
       </c>
       <c r="K26">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>4.5172341741519597</v>
+        <v>3.9284622117175716</v>
       </c>
       <c r="L26">
         <v>4.4544E-2</v>
       </c>
       <c r="M26">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>-2.2558556826546547E-2</v>
+        <v>-9.490570955132574E-3</v>
       </c>
       <c r="N26" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>-0.42861257970438438</v>
+        <v>-0.18032084814751892</v>
       </c>
       <c r="Q26">
         <v>-3.3</v>
       </c>
       <c r="R26">
         <f>Q26*Tabella3[[#This Row],[CL]]</f>
-        <v>-5.0260921247432604</v>
+        <v>-5.0704010773827504</v>
       </c>
       <c r="S26">
         <f t="shared" si="0"/>
-        <v>4.9739078752567396</v>
+        <v>4.9295989226172496</v>
       </c>
       <c r="T26">
         <f t="shared" si="1"/>
-        <v>-15.026092124743261</v>
+        <v>-15.070401077382751</v>
       </c>
       <c r="U26">
         <f t="shared" si="2"/>
-        <v>14.973907875256739</v>
+        <v>14.929598922617249</v>
       </c>
       <c r="V26">
         <f t="shared" si="3"/>
-        <v>-25.026092124743261</v>
+        <v>-25.070401077382751</v>
       </c>
       <c r="W26">
         <f t="shared" si="4"/>
-        <v>24.973907875256739</v>
+        <v>24.929598922617249</v>
       </c>
       <c r="X26">
         <f t="shared" si="5"/>
-        <v>-35.026092124743258</v>
+        <v>-35.070401077382755</v>
       </c>
       <c r="Y26">
         <v>2.36</v>
@@ -8308,31 +8314,31 @@
       </c>
       <c r="AE26">
         <f>AD26*Tabella3[[#This Row],[CL]]</f>
-        <v>-7.9199027420196844</v>
+        <v>-7.989722909815244</v>
       </c>
       <c r="AF26">
         <f t="shared" si="6"/>
-        <v>2.0800972579803156</v>
+        <v>2.010277090184756</v>
       </c>
       <c r="AG26">
         <f t="shared" si="7"/>
-        <v>-17.919902742019683</v>
+        <v>-17.989722909815242</v>
       </c>
       <c r="AH26">
         <f t="shared" si="8"/>
-        <v>12.080097257980317</v>
+        <v>12.010277090184756</v>
       </c>
       <c r="AI26">
         <f t="shared" si="9"/>
-        <v>-27.919902742019683</v>
+        <v>-27.989722909815242</v>
       </c>
       <c r="AJ26">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>22.080097257980317</v>
+        <v>22.010277090184758</v>
       </c>
       <c r="AK26">
         <f t="shared" si="10"/>
-        <v>-37.919902742019687</v>
+        <v>-37.989722909815242</v>
       </c>
       <c r="AM26">
         <v>3.5</v>
@@ -8345,31 +8351,31 @@
       </c>
       <c r="AQ26">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.6755641765908225</v>
+        <v>-6.7344145218692724</v>
       </c>
       <c r="AR26">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.3244358234091775</v>
+        <v>3.2655854781307281</v>
       </c>
       <c r="AS26">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.675564176590822</v>
+        <v>-16.734414521869272</v>
       </c>
       <c r="AT26">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.324435823409178</v>
+        <v>13.265585478130728</v>
       </c>
       <c r="AU26">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.675564176590822</v>
+        <v>-26.734414521869272</v>
       </c>
       <c r="AV26">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.324435823409178</v>
+        <v>23.265585478130728</v>
       </c>
       <c r="AW26">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.675564176590825</v>
+        <v>-36.734414521869276</v>
       </c>
       <c r="AX26" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -8389,7 +8395,7 @@
       </c>
       <c r="BC26">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.9658972427734658</v>
+        <v>2.964175870174071</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.45">
@@ -8409,7 +8415,7 @@
         <v>-5.7431024161159298E-2</v>
       </c>
       <c r="E27">
-        <v>1.52305821961917</v>
+        <v>1.5218545847048699</v>
       </c>
       <c r="F27">
         <f>(Tabella2[d]*COS(Tabella2[φ]+Tabella2[iw]-Tabella2[α0_w]-A28/57.3))+(0.75*Tabella2[Cr]*COS(Tabella3[[#This Row],[α_abs]]/57.3+Tabella2[iw]))</f>
@@ -8428,55 +8434,55 @@
         <v>34.279554821085362</v>
       </c>
       <c r="J27">
-        <f>Tabella14[[#This Row],[Φ_80]]</f>
-        <v>2.0430627693179719</v>
+        <f>Tabella14[[#This Row],[Φ_80]]+(BC56-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</f>
+        <v>-1.8566011476959687</v>
       </c>
       <c r="K27">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</f>
-        <v>3.1117035440076415</v>
+        <v>-2.8254769685894332</v>
       </c>
       <c r="L27">
         <f>(J28-Tabella3[[#This Row],[Φ]])/(B28-Tabella3[[#This Row],[α_b]])</f>
-        <v>0.11788120889425754</v>
+        <v>-0.10712269393364135</v>
       </c>
       <c r="M27">
         <f>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</f>
-        <v>6.2204756877577899E-2</v>
+        <v>-5.6398657517885378E-2</v>
       </c>
       <c r="N27" s="2">
         <f>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</f>
-        <v>1.2440951375515579</v>
+        <v>-1.1279731503577075</v>
       </c>
       <c r="Q27">
         <v>-3.3</v>
       </c>
       <c r="R27">
         <f>Q27*Tabella3[[#This Row],[CL]]</f>
-        <v>-5.0260921247432604</v>
+        <v>-5.02212012952607</v>
       </c>
       <c r="S27">
         <f t="shared" si="0"/>
-        <v>4.9739078752567396</v>
+        <v>4.97787987047393</v>
       </c>
       <c r="T27">
         <f t="shared" si="1"/>
-        <v>-15.026092124743261</v>
+        <v>-15.022120129526069</v>
       </c>
       <c r="U27">
         <f t="shared" si="2"/>
-        <v>14.973907875256739</v>
+        <v>14.977879870473931</v>
       </c>
       <c r="V27">
         <f t="shared" si="3"/>
-        <v>-25.026092124743261</v>
+        <v>-25.022120129526069</v>
       </c>
       <c r="W27">
         <f t="shared" si="4"/>
-        <v>24.973907875256739</v>
+        <v>24.977879870473931</v>
       </c>
       <c r="X27">
         <f t="shared" si="5"/>
-        <v>-35.026092124743258</v>
+        <v>-35.022120129526073</v>
       </c>
       <c r="Y27">
         <v>2.36</v>
@@ -8495,31 +8501,31 @@
       </c>
       <c r="AE27">
         <f>AD27*Tabella3[[#This Row],[CL]]</f>
-        <v>-7.9199027420196844</v>
+        <v>-7.9136438404653235</v>
       </c>
       <c r="AF27">
         <f>AE27+10</f>
-        <v>2.0800972579803156</v>
+        <v>2.0863561595346765</v>
       </c>
       <c r="AG27">
         <f t="shared" si="7"/>
-        <v>-17.919902742019683</v>
+        <v>-17.913643840465323</v>
       </c>
       <c r="AH27">
         <f t="shared" si="8"/>
-        <v>12.080097257980317</v>
+        <v>12.086356159534677</v>
       </c>
       <c r="AI27">
         <f t="shared" si="9"/>
-        <v>-27.919902742019683</v>
+        <v>-27.913643840465323</v>
       </c>
       <c r="AJ27">
         <f>Tabella11[[#This Row],[m3]]+10</f>
-        <v>22.080097257980317</v>
+        <v>22.086356159534677</v>
       </c>
       <c r="AK27">
         <f t="shared" si="10"/>
-        <v>-37.919902742019687</v>
+        <v>-37.913643840465326</v>
       </c>
       <c r="AL27">
         <v>3.8</v>
@@ -8535,31 +8541,31 @@
       </c>
       <c r="AQ27">
         <f>Tabella9[[#This Row],[m1]]+(Tabella11[[#This Row],[m1]]-Tabella9[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.6755641765908225</v>
+        <v>-6.6702886447614445</v>
       </c>
       <c r="AR27">
         <f>Tabella9[[#This Row],[m2]]+(Tabella11[[#This Row],[m2]]-Tabella9[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.3244358234091775</v>
+        <v>3.3297113552385555</v>
       </c>
       <c r="AS27">
         <f>Tabella9[[#This Row],[m2meno]]+(Tabella11[[#This Row],[m2meno]]-Tabella9[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.675564176590822</v>
+        <v>-16.670288644761445</v>
       </c>
       <c r="AT27">
         <f>Tabella9[[#This Row],[m3]]+(Tabella11[[#This Row],[m3]]-Tabella9[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.324435823409178</v>
+        <v>13.329711355238556</v>
       </c>
       <c r="AU27">
         <f>Tabella9[[#This Row],[m3meno]]+(Tabella11[[#This Row],[m3meno]]-Tabella9[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.675564176590822</v>
+        <v>-26.670288644761445</v>
       </c>
       <c r="AV27">
         <f>Tabella9[[#This Row],[m4]]+(Tabella11[[#This Row],[m4]]-Tabella9[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.324435823409178</v>
+        <v>23.329711355238555</v>
       </c>
       <c r="AW27">
         <f>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.675564176590825</v>
+        <v>-36.670288644761449</v>
       </c>
       <c r="AX27" s="2">
         <f>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -8579,7 +8585,7 @@
       </c>
       <c r="BC27">
         <f>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</f>
-        <v>2.0430627693179719</v>
+        <v>2.0432170786239809</v>
       </c>
     </row>
     <row r="28" spans="1:55" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -8820,31 +8826,31 @@
       </c>
       <c r="R36">
         <f>E7*Tabella18[[#This Row],[mTab]]</f>
-        <v>-0.38082828570485489</v>
+        <v>-2.0575241634331427E-3</v>
       </c>
       <c r="S36">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>9.6191717142951454</v>
+        <v>9.9979424758365667</v>
       </c>
       <c r="T36">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-10.380828285704855</v>
+        <v>-10.002057524163433</v>
       </c>
       <c r="U36">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>19.619171714295145</v>
+        <v>19.997942475836567</v>
       </c>
       <c r="V36">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-20.380828285704855</v>
+        <v>-20.002057524163433</v>
       </c>
       <c r="W36">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>29.619171714295145</v>
+        <v>29.997942475836567</v>
       </c>
       <c r="X36">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-30.380828285704855</v>
+        <v>-30.002057524163433</v>
       </c>
       <c r="AA36">
         <v>2.1</v>
@@ -8857,31 +8863,31 @@
       </c>
       <c r="AE36">
         <f>Tabella19[[#This Row],[mTab]]*E7</f>
-        <v>-0.60009305626219556</v>
+        <v>-3.2421592878340432E-3</v>
       </c>
       <c r="AF36">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>9.399906943737804</v>
+        <v>9.9967578407121653</v>
       </c>
       <c r="AG36">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-10.600093056262196</v>
+        <v>-10.003242159287835</v>
       </c>
       <c r="AH36">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>19.399906943737804</v>
+        <v>19.996757840712164</v>
       </c>
       <c r="AI36">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-20.600093056262196</v>
+        <v>-20.003242159287836</v>
       </c>
       <c r="AJ36">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>29.399906943737804</v>
+        <v>29.996757840712164</v>
       </c>
       <c r="AK36">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-30.600093056262196</v>
+        <v>-30.003242159287836</v>
       </c>
       <c r="AN36">
         <v>2.85</v>
@@ -8891,31 +8897,31 @@
       </c>
       <c r="AQ36">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-0.50580920492253911</v>
+        <v>-2.7327661843416558E-3</v>
       </c>
       <c r="AR36">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>9.4941907950774613</v>
+        <v>9.9972672338156574</v>
       </c>
       <c r="AS36">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-10.505809204922539</v>
+        <v>-10.002732766184343</v>
       </c>
       <c r="AT36">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>19.494190795077461</v>
+        <v>19.997267233815656</v>
       </c>
       <c r="AU36">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-20.505809204922539</v>
+        <v>-20.002732766184344</v>
       </c>
       <c r="AV36">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>29.494190795077461</v>
+        <v>29.997267233815656</v>
       </c>
       <c r="AW36">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-30.505809204922539</v>
+        <v>-30.002732766184344</v>
       </c>
       <c r="AX36">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -8935,7 +8941,7 @@
       </c>
       <c r="BC36">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I7-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.1770211874275192</v>
+        <v>2.1903024054102076</v>
       </c>
     </row>
     <row r="37" spans="17:55" x14ac:dyDescent="0.45">
@@ -8944,31 +8950,31 @@
       </c>
       <c r="R37">
         <f>E8*Tabella18[[#This Row],[mTab]]</f>
-        <v>-0.70516163905253548</v>
+        <v>-0.30315583065568247</v>
       </c>
       <c r="S37">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>9.2948383609474643</v>
+        <v>9.6968441693443168</v>
       </c>
       <c r="T37">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-10.705161639052536</v>
+        <v>-10.303155830655683</v>
       </c>
       <c r="U37">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>19.294838360947466</v>
+        <v>19.696844169344317</v>
       </c>
       <c r="V37">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-20.705161639052534</v>
+        <v>-20.303155830655683</v>
       </c>
       <c r="W37">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>29.294838360947466</v>
+        <v>29.696844169344317</v>
       </c>
       <c r="X37">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-30.705161639052534</v>
+        <v>-30.303155830655683</v>
       </c>
       <c r="AA37">
         <v>2.1</v>
@@ -8981,31 +8987,31 @@
       </c>
       <c r="AE37">
         <f>Tabella19[[#This Row],[mTab]]*E8</f>
-        <v>-1.1111637948706621</v>
+        <v>-0.47770009679077241</v>
       </c>
       <c r="AF37">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>8.888836205129337</v>
+        <v>9.5222999032092268</v>
       </c>
       <c r="AG37">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-11.111163794870663</v>
+        <v>-10.477700096790773</v>
       </c>
       <c r="AH37">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>18.888836205129337</v>
+        <v>19.522299903209227</v>
       </c>
       <c r="AI37">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-21.111163794870663</v>
+        <v>-20.477700096790773</v>
       </c>
       <c r="AJ37">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>28.888836205129337</v>
+        <v>29.522299903209227</v>
       </c>
       <c r="AK37">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-31.111163794870663</v>
+        <v>-30.477700096790773</v>
       </c>
       <c r="AN37">
         <v>2.85</v>
@@ -9015,31 +9021,31 @@
       </c>
       <c r="AQ37">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-0.93658286786886769</v>
+        <v>-0.40264606235268374</v>
       </c>
       <c r="AR37">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>9.0634171321311321</v>
+        <v>9.5973539376473163</v>
       </c>
       <c r="AS37">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-10.936582867868868</v>
+        <v>-10.402646062352684</v>
       </c>
       <c r="AT37">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>19.063417132131132</v>
+        <v>19.597353937647316</v>
       </c>
       <c r="AU37">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-20.936582867868868</v>
+        <v>-20.402646062352684</v>
       </c>
       <c r="AV37">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>29.063417132131132</v>
+        <v>29.597353937647316</v>
       </c>
       <c r="AW37">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-30.936582867868868</v>
+        <v>-30.402646062352684</v>
       </c>
       <c r="AX37">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -9059,7 +9065,7 @@
       </c>
       <c r="BC37">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I8-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.2057670472144091</v>
+        <v>2.2198629788800366</v>
       </c>
     </row>
     <row r="38" spans="17:55" x14ac:dyDescent="0.45">
@@ -9068,31 +9074,31 @@
       </c>
       <c r="R38">
         <f>E9*Tabella18[[#This Row],[mTab]]</f>
-        <v>-1.0294949924002159</v>
+        <v>-0.60425413714793152</v>
       </c>
       <c r="S38">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>8.9705050075997832</v>
+        <v>9.3957458628520687</v>
       </c>
       <c r="T38">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-11.029494992400217</v>
+        <v>-10.604254137147931</v>
       </c>
       <c r="U38">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>18.970505007599783</v>
+        <v>19.395745862852067</v>
       </c>
       <c r="V38">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-21.029494992400217</v>
+        <v>-20.604254137147933</v>
       </c>
       <c r="W38">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>28.970505007599783</v>
+        <v>29.395745862852067</v>
       </c>
       <c r="X38">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-31.029494992400217</v>
+        <v>-30.604254137147933</v>
       </c>
       <c r="AA38">
         <v>2.1</v>
@@ -9105,31 +9111,31 @@
       </c>
       <c r="AE38">
         <f>Tabella19[[#This Row],[mTab]]*E9</f>
-        <v>-1.6222345334791284</v>
+        <v>-0.95215803429371038</v>
       </c>
       <c r="AF38">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>8.3777654665208718</v>
+        <v>9.0478419657062901</v>
       </c>
       <c r="AG38">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-11.622234533479128</v>
+        <v>-10.95215803429371</v>
       </c>
       <c r="AH38">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>18.37776546652087</v>
+        <v>19.04784196570629</v>
       </c>
       <c r="AI38">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-21.62223453347913</v>
+        <v>-20.95215803429371</v>
       </c>
       <c r="AJ38">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>28.37776546652087</v>
+        <v>29.04784196570629</v>
       </c>
       <c r="AK38">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-31.62223453347913</v>
+        <v>-30.95215803429371</v>
       </c>
       <c r="AN38">
         <v>2.85</v>
@@ -9139,31 +9145,31 @@
       </c>
       <c r="AQ38">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-1.367356530815196</v>
+        <v>-0.80255935852102556</v>
       </c>
       <c r="AR38">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>8.6326434691848029</v>
+        <v>9.1974406414789751</v>
       </c>
       <c r="AS38">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-11.367356530815197</v>
+        <v>-10.802559358521025</v>
       </c>
       <c r="AT38">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>18.632643469184803</v>
+        <v>19.197440641478973</v>
       </c>
       <c r="AU38">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-21.367356530815197</v>
+        <v>-20.802559358521027</v>
       </c>
       <c r="AV38">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>28.632643469184803</v>
+        <v>29.197440641478973</v>
       </c>
       <c r="AW38">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-31.367356530815197</v>
+        <v>-30.802559358521027</v>
       </c>
       <c r="AX38">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -9183,7 +9189,7 @@
       </c>
       <c r="BC38">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I9-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.234764175157856</v>
+        <v>2.2496748205064221</v>
       </c>
     </row>
     <row r="39" spans="17:55" x14ac:dyDescent="0.45">
@@ -9192,31 +9198,31 @@
       </c>
       <c r="R39">
         <f>E10*Tabella18[[#This Row],[mTab]]</f>
-        <v>-1.3538283457478966</v>
+        <v>-0.90535244364017964</v>
       </c>
       <c r="S39">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>8.6461716542521039</v>
+        <v>9.0946475563598206</v>
       </c>
       <c r="T39">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-11.353828345747896</v>
+        <v>-10.905352443640179</v>
       </c>
       <c r="U39">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>18.646171654252104</v>
+        <v>19.094647556359821</v>
       </c>
       <c r="V39">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-21.353828345747896</v>
+        <v>-20.905352443640179</v>
       </c>
       <c r="W39">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>28.646171654252104</v>
+        <v>29.094647556359821</v>
       </c>
       <c r="X39">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-31.353828345747896</v>
+        <v>-30.905352443640179</v>
       </c>
       <c r="AA39">
         <v>2.1</v>
@@ -9229,31 +9235,31 @@
       </c>
       <c r="AE39">
         <f>Tabella19[[#This Row],[mTab]]*E10</f>
-        <v>-2.1333052720875947</v>
+        <v>-1.4266159717966467</v>
       </c>
       <c r="AF39">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>7.8666947279124049</v>
+        <v>8.5733840282033533</v>
       </c>
       <c r="AG39">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-12.133305272087595</v>
+        <v>-11.426615971796647</v>
       </c>
       <c r="AH39">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>17.866694727912403</v>
+        <v>18.573384028203353</v>
       </c>
       <c r="AI39">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-22.133305272087597</v>
+        <v>-21.426615971796647</v>
       </c>
       <c r="AJ39">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>27.866694727912403</v>
+        <v>28.573384028203353</v>
       </c>
       <c r="AK39">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-32.133305272087597</v>
+        <v>-31.426615971796647</v>
       </c>
       <c r="AN39">
         <v>2.85</v>
@@ -9263,31 +9269,31 @@
       </c>
       <c r="AQ39">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-1.7981301937615246</v>
+        <v>-1.2024726546893658</v>
       </c>
       <c r="AR39">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>8.2018698062384754</v>
+        <v>8.797527345310634</v>
       </c>
       <c r="AS39">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-11.798130193761525</v>
+        <v>-11.202472654689366</v>
       </c>
       <c r="AT39">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>18.201869806238474</v>
+        <v>18.797527345310634</v>
       </c>
       <c r="AU39">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-21.798130193761526</v>
+        <v>-21.202472654689366</v>
       </c>
       <c r="AV39">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>28.201869806238474</v>
+        <v>28.797527345310634</v>
       </c>
       <c r="AW39">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-31.798130193761526</v>
+        <v>-31.202472654689366</v>
       </c>
       <c r="AX39">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -9307,7 +9313,7 @@
       </c>
       <c r="BC39">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I10-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.2640002761124314</v>
+        <v>2.2797256351439366</v>
       </c>
     </row>
     <row r="40" spans="17:55" x14ac:dyDescent="0.45">
@@ -9316,31 +9322,31 @@
       </c>
       <c r="R40">
         <f>E11*Tabella18[[#This Row],[mTab]]</f>
-        <v>-1.6781616990955803</v>
+        <v>-1.2064507501324311</v>
       </c>
       <c r="S40">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>8.3218383009044192</v>
+        <v>8.7935492498675689</v>
       </c>
       <c r="T40">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-11.678161699095581</v>
+        <v>-11.206450750132431</v>
       </c>
       <c r="U40">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>18.321838300904421</v>
+        <v>18.793549249867567</v>
       </c>
       <c r="V40">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-21.678161699095583</v>
+        <v>-21.206450750132433</v>
       </c>
       <c r="W40">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>28.321838300904421</v>
+        <v>28.793549249867567</v>
       </c>
       <c r="X40">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-31.678161699095583</v>
+        <v>-31.206450750132433</v>
       </c>
       <c r="AA40">
         <v>2.1</v>
@@ -9353,31 +9359,31 @@
       </c>
       <c r="AE40">
         <f>Tabella19[[#This Row],[mTab]]*E11</f>
-        <v>-2.6443760106960661</v>
+        <v>-1.9010739092995885</v>
       </c>
       <c r="AF40">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>7.3556239893039344</v>
+        <v>8.0989260907004113</v>
       </c>
       <c r="AG40">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-12.644376010696066</v>
+        <v>-11.901073909299589</v>
       </c>
       <c r="AH40">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>17.355623989303936</v>
+        <v>18.098926090700409</v>
       </c>
       <c r="AI40">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-22.644376010696064</v>
+        <v>-21.901073909299591</v>
       </c>
       <c r="AJ40">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>27.355623989303936</v>
+        <v>28.098926090700409</v>
       </c>
       <c r="AK40">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-32.644376010696064</v>
+        <v>-31.901073909299591</v>
       </c>
       <c r="AN40">
         <v>2.85</v>
@@ -9387,31 +9393,31 @@
       </c>
       <c r="AQ40">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-2.2289038567078574</v>
+        <v>-1.6023859508577107</v>
       </c>
       <c r="AR40">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>7.7710961432921426</v>
+        <v>8.3976140491422893</v>
       </c>
       <c r="AS40">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-12.228903856707857</v>
+        <v>-11.602385950857711</v>
       </c>
       <c r="AT40">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>17.771096143292144</v>
+        <v>18.397614049142287</v>
       </c>
       <c r="AU40">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-22.228903856707856</v>
+        <v>-21.602385950857713</v>
       </c>
       <c r="AV40">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>27.771096143292144</v>
+        <v>28.397614049142287</v>
       </c>
       <c r="AW40">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-32.228903856707859</v>
+        <v>-31.602385950857713</v>
       </c>
       <c r="AX40">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -9431,7 +9437,7 @@
       </c>
       <c r="BC40">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I11-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.2934629821499355</v>
+        <v>2.3100030548643793</v>
       </c>
     </row>
     <row r="41" spans="17:55" x14ac:dyDescent="0.45">
@@ -9440,31 +9446,31 @@
       </c>
       <c r="R41">
         <f>E12*Tabella18[[#This Row],[mTab]]</f>
-        <v>-2.0024950524432579</v>
+        <v>-1.5075490566246792</v>
       </c>
       <c r="S41">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>7.9975049475567417</v>
+        <v>8.4924509433753208</v>
       </c>
       <c r="T41">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-12.002495052443258</v>
+        <v>-11.507549056624679</v>
       </c>
       <c r="U41">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>17.997504947556742</v>
+        <v>18.492450943375321</v>
       </c>
       <c r="V41">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-22.002495052443258</v>
+        <v>-21.507549056624679</v>
       </c>
       <c r="W41">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>27.997504947556742</v>
+        <v>28.492450943375321</v>
       </c>
       <c r="X41">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-32.002495052443258</v>
+        <v>-31.507549056624679</v>
       </c>
       <c r="AA41">
         <v>2.1</v>
@@ -9477,31 +9483,31 @@
       </c>
       <c r="AE41">
         <f>Tabella19[[#This Row],[mTab]]*E12</f>
-        <v>-3.1554467493045277</v>
+        <v>-2.375531846802525</v>
       </c>
       <c r="AF41">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>6.8445532506954727</v>
+        <v>7.6244681531974745</v>
       </c>
       <c r="AG41">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-13.155446749304527</v>
+        <v>-12.375531846802525</v>
       </c>
       <c r="AH41">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>16.844553250695473</v>
+        <v>17.624468153197476</v>
       </c>
       <c r="AI41">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-23.155446749304527</v>
+        <v>-22.375531846802524</v>
       </c>
       <c r="AJ41">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>26.844553250695473</v>
+        <v>27.624468153197476</v>
       </c>
       <c r="AK41">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-33.155446749304531</v>
+        <v>-32.375531846802524</v>
       </c>
       <c r="AN41">
         <v>2.85</v>
@@ -9511,31 +9517,31 @@
       </c>
       <c r="AQ41">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-2.6596775196541818</v>
+        <v>-2.0022992470260514</v>
       </c>
       <c r="AR41">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>7.3403224803458187</v>
+        <v>7.9977007529739481</v>
       </c>
       <c r="AS41">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-12.659677519654181</v>
+        <v>-12.002299247026052</v>
       </c>
       <c r="AT41">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>17.340322480345819</v>
+        <v>17.997700752973948</v>
       </c>
       <c r="AU41">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-22.659677519654181</v>
+        <v>-22.002299247026052</v>
       </c>
       <c r="AV41">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>27.340322480345819</v>
+        <v>27.997700752973948</v>
       </c>
       <c r="AW41">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-32.659677519654181</v>
+        <v>-32.002299247026052</v>
       </c>
       <c r="AX41">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -9555,7 +9561,7 @@
       </c>
       <c r="BC41">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I12-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.3231398563262315</v>
+        <v>2.3404946427236144</v>
       </c>
     </row>
     <row r="42" spans="17:55" x14ac:dyDescent="0.45">
@@ -9564,31 +9570,31 @@
       </c>
       <c r="R42">
         <f>E13*Tabella18[[#This Row],[mTab]]</f>
-        <v>-2.3268284057908262</v>
+        <v>-1.8086473631169271</v>
       </c>
       <c r="S42">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>7.6731715942091743</v>
+        <v>8.1913526368830727</v>
       </c>
       <c r="T42">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-12.326828405790826</v>
+        <v>-11.808647363116927</v>
       </c>
       <c r="U42">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>17.673171594209172</v>
+        <v>18.191352636883074</v>
       </c>
       <c r="V42">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-22.326828405790828</v>
+        <v>-21.808647363116926</v>
       </c>
       <c r="W42">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>27.673171594209172</v>
+        <v>28.191352636883074</v>
       </c>
       <c r="X42">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-32.326828405790828</v>
+        <v>-31.808647363116926</v>
       </c>
       <c r="AA42">
         <v>2.1</v>
@@ -9601,31 +9607,31 @@
       </c>
       <c r="AE42">
         <f>Tabella19[[#This Row],[mTab]]*E13</f>
-        <v>-3.6665174879128175</v>
+        <v>-2.8499897843054613</v>
       </c>
       <c r="AF42">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>6.3334825120871825</v>
+        <v>7.1500102156945387</v>
       </c>
       <c r="AG42">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-13.666517487912817</v>
+        <v>-12.84998978430546</v>
       </c>
       <c r="AH42">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>16.333482512087183</v>
+        <v>17.15001021569454</v>
       </c>
       <c r="AI42">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-23.666517487912817</v>
+        <v>-22.84998978430546</v>
       </c>
       <c r="AJ42">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>26.333482512087183</v>
+        <v>27.15001021569454</v>
       </c>
       <c r="AK42">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-33.666517487912813</v>
+        <v>-32.849989784305464</v>
       </c>
       <c r="AN42">
         <v>2.85</v>
@@ -9635,31 +9641,31 @@
       </c>
       <c r="AQ42">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-3.0904511826003613</v>
+        <v>-2.4022125431943917</v>
       </c>
       <c r="AR42">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>6.9095488173996387</v>
+        <v>7.5977874568056079</v>
       </c>
       <c r="AS42">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-13.090451182600361</v>
+        <v>-12.402212543194391</v>
       </c>
       <c r="AT42">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>16.909548817399639</v>
+        <v>17.597787456805609</v>
       </c>
       <c r="AU42">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-23.090451182600361</v>
+        <v>-22.402212543194391</v>
       </c>
       <c r="AV42">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>26.909548817399639</v>
+        <v>27.597787456805609</v>
       </c>
       <c r="AW42">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-33.090451182600361</v>
+        <v>-32.402212543194395</v>
       </c>
       <c r="AX42">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -9679,7 +9685,7 @@
       </c>
       <c r="BC42">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I13-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.3530183964691087</v>
+        <v>2.3711878965494262</v>
       </c>
     </row>
     <row r="43" spans="17:55" x14ac:dyDescent="0.45">
@@ -9688,31 +9694,31 @@
       </c>
       <c r="R43">
         <f>E14*Tabella18[[#This Row],[mTab]]</f>
-        <v>-2.6511617591200793</v>
+        <v>-2.1097456696091785</v>
       </c>
       <c r="S43">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>7.3488382408799211</v>
+        <v>7.890254330390821</v>
       </c>
       <c r="T43">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-12.651161759120079</v>
+        <v>-12.109745669609179</v>
       </c>
       <c r="U43">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>17.348838240879921</v>
+        <v>17.890254330390821</v>
       </c>
       <c r="V43">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-22.651161759120079</v>
+        <v>-22.109745669609179</v>
       </c>
       <c r="W43">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>27.348838240879921</v>
+        <v>27.890254330390821</v>
       </c>
       <c r="X43">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-32.651161759120079</v>
+        <v>-32.109745669609183</v>
       </c>
       <c r="Z43">
         <v>2.2000000000000002</v>
@@ -9728,31 +9734,31 @@
       </c>
       <c r="AE43">
         <f>Tabella19[[#This Row],[mTab]]*E14</f>
-        <v>-4.1775882264922473</v>
+        <v>-3.3244477218084025</v>
       </c>
       <c r="AF43">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>5.8224117735077527</v>
+        <v>6.6755522781915975</v>
       </c>
       <c r="AG43">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-14.177588226492247</v>
+        <v>-13.324447721808403</v>
       </c>
       <c r="AH43">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>15.822411773507753</v>
+        <v>16.675552278191596</v>
       </c>
       <c r="AI43">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-24.177588226492247</v>
+        <v>-23.324447721808404</v>
       </c>
       <c r="AJ43">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>25.822411773507753</v>
+        <v>26.675552278191596</v>
       </c>
       <c r="AK43">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-34.177588226492247</v>
+        <v>-33.324447721808404</v>
       </c>
       <c r="AN43">
         <v>2.85</v>
@@ -9762,31 +9768,31 @@
       </c>
       <c r="AQ43">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-3.521224845522215</v>
+        <v>-2.8021258393627364</v>
       </c>
       <c r="AR43">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>6.478775154477785</v>
+        <v>7.1978741606372632</v>
       </c>
       <c r="AS43">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-13.521224845522214</v>
+        <v>-12.802125839362736</v>
       </c>
       <c r="AT43">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>16.478775154477784</v>
+        <v>17.197874160637262</v>
       </c>
       <c r="AU43">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-23.521224845522216</v>
+        <v>-22.802125839362738</v>
       </c>
       <c r="AV43">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>26.478775154477784</v>
+        <v>27.197874160637262</v>
       </c>
       <c r="AW43">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-33.521224845522212</v>
+        <v>-32.802125839362738</v>
       </c>
       <c r="AX43">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -9806,7 +9812,7 @@
       </c>
       <c r="BC43">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I14-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.3830860389866304</v>
+        <v>2.4020702527492408</v>
       </c>
     </row>
     <row r="44" spans="17:55" x14ac:dyDescent="0.45">
@@ -9815,31 +9821,31 @@
       </c>
       <c r="R44">
         <f>E15*Tabella18[[#This Row],[mTab]]</f>
-        <v>-2.9754951096266811</v>
+        <v>-2.4108439761014266</v>
       </c>
       <c r="S44">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>7.0245048903733185</v>
+        <v>7.5891560238985729</v>
       </c>
       <c r="T44">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-12.975495109626682</v>
+        <v>-12.410843976101427</v>
       </c>
       <c r="U44">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>17.024504890373318</v>
+        <v>17.589156023898575</v>
       </c>
       <c r="V44">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-22.975495109626682</v>
+        <v>-22.410843976101425</v>
       </c>
       <c r="W44">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>27.024504890373318</v>
+        <v>27.589156023898575</v>
       </c>
       <c r="X44">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-32.975495109626678</v>
+        <v>-32.410843976101425</v>
       </c>
       <c r="Z44">
         <v>2.2000000000000002</v>
@@ -9855,31 +9861,31 @@
       </c>
       <c r="AE44">
         <f>Tabella19[[#This Row],[mTab]]*E15</f>
-        <v>-4.6886589606238616</v>
+        <v>-3.7989056593113393</v>
       </c>
       <c r="AF44">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>5.3113410393761384</v>
+        <v>6.2010943406886607</v>
       </c>
       <c r="AG44">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-14.688658960623862</v>
+        <v>-13.798905659311339</v>
       </c>
       <c r="AH44">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>15.311341039376138</v>
+        <v>16.201094340688662</v>
       </c>
       <c r="AI44">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-24.688658960623862</v>
+        <v>-23.798905659311338</v>
       </c>
       <c r="AJ44">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>25.311341039376138</v>
+        <v>26.201094340688662</v>
       </c>
       <c r="AK44">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-34.688658960623862</v>
+        <v>-33.798905659311338</v>
       </c>
       <c r="AN44">
         <v>2.85</v>
@@ -9889,31 +9895,31 @@
       </c>
       <c r="AQ44">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-3.9519985046950739</v>
+        <v>-3.2020391355310771</v>
       </c>
       <c r="AR44">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>6.0480014953049253</v>
+        <v>6.7979608644689229</v>
       </c>
       <c r="AS44">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-13.951998504695075</v>
+        <v>-13.202039135531077</v>
       </c>
       <c r="AT44">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>16.048001495304927</v>
+        <v>16.797960864468926</v>
       </c>
       <c r="AU44">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-23.951998504695073</v>
+        <v>-23.202039135531074</v>
       </c>
       <c r="AV44">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>26.048001495304927</v>
+        <v>26.797960864468926</v>
       </c>
       <c r="AW44">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-33.951998504695069</v>
+        <v>-33.202039135531074</v>
       </c>
       <c r="AX44">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -9933,7 +9939,7 @@
       </c>
       <c r="BC44">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I15-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.4133301627906243</v>
+        <v>2.4331290901365539</v>
       </c>
     </row>
     <row r="45" spans="17:55" x14ac:dyDescent="0.45">
@@ -9942,31 +9948,31 @@
       </c>
       <c r="R45">
         <f>E16*Tabella18[[#This Row],[mTab]]</f>
-        <v>-3.2998280542211358</v>
+        <v>-2.7119422825936779</v>
       </c>
       <c r="S45">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>6.7001719457788642</v>
+        <v>7.2880577174063221</v>
       </c>
       <c r="T45">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-13.299828054221136</v>
+        <v>-12.711942282593679</v>
       </c>
       <c r="U45">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>16.700171945778862</v>
+        <v>17.288057717406321</v>
       </c>
       <c r="V45">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-23.299828054221138</v>
+        <v>-22.711942282593679</v>
       </c>
       <c r="W45">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>26.700171945778862</v>
+        <v>27.288057717406321</v>
       </c>
       <c r="X45">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-33.299828054221138</v>
+        <v>-32.711942282593682</v>
       </c>
       <c r="Z45">
         <v>2.2000000000000002</v>
@@ -9982,31 +9988,31 @@
       </c>
       <c r="AE45">
         <f>Tabella19[[#This Row],[mTab]]*E16</f>
-        <v>-5.1997290551363351</v>
+        <v>-4.2733635968142805</v>
       </c>
       <c r="AF45">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>4.8002709448636649</v>
+        <v>5.7266364031857195</v>
       </c>
       <c r="AG45">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-15.199729055136334</v>
+        <v>-14.273363596814281</v>
       </c>
       <c r="AH45">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>14.800270944863666</v>
+        <v>15.726636403185719</v>
       </c>
       <c r="AI45">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-25.199729055136334</v>
+        <v>-24.273363596814281</v>
       </c>
       <c r="AJ45">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>24.800270944863666</v>
+        <v>25.726636403185719</v>
       </c>
       <c r="AK45">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-35.199729055136331</v>
+        <v>-34.273363596814278</v>
       </c>
       <c r="AM45">
         <v>3.4</v>
@@ -10019,31 +10025,31 @@
       </c>
       <c r="AQ45">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-4.3827716247427997</v>
+        <v>-3.6019524316994214</v>
       </c>
       <c r="AR45">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>5.6172283752572003</v>
+        <v>6.3980475683005782</v>
       </c>
       <c r="AS45">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-14.3827716247428</v>
+        <v>-13.601952431699422</v>
       </c>
       <c r="AT45">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>15.6172283752572</v>
+        <v>16.398047568300576</v>
       </c>
       <c r="AU45">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-24.382771624742801</v>
+        <v>-23.601952431699424</v>
       </c>
       <c r="AV45">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>25.617228375257199</v>
+        <v>26.398047568300576</v>
       </c>
       <c r="AW45">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-34.382771624742794</v>
+        <v>-33.601952431699424</v>
       </c>
       <c r="AX45">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -10063,7 +10069,7 @@
       </c>
       <c r="BC45">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I16-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.4437381070785555</v>
+        <v>2.4643517337749006</v>
       </c>
     </row>
     <row r="46" spans="17:55" x14ac:dyDescent="0.45">
@@ -10072,31 +10078,31 @@
       </c>
       <c r="R46">
         <f>E17*Tabella18[[#This Row],[mTab]]</f>
-        <v>-3.6248344210978014</v>
+        <v>-3.013040589085926</v>
       </c>
       <c r="S46">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>6.3751655789021981</v>
+        <v>6.986959410914074</v>
       </c>
       <c r="T46">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-13.624834421097802</v>
+        <v>-13.013040589085925</v>
       </c>
       <c r="U46">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>16.375165578902198</v>
+        <v>16.986959410914075</v>
       </c>
       <c r="V46">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-23.624834421097802</v>
+        <v>-23.013040589085925</v>
       </c>
       <c r="W46">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>26.375165578902198</v>
+        <v>26.986959410914075</v>
       </c>
       <c r="X46">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-33.624834421097802</v>
+        <v>-33.013040589085925</v>
       </c>
       <c r="Z46">
         <v>2.2000000000000002</v>
@@ -10112,31 +10118,31 @@
       </c>
       <c r="AE46">
         <f>Tabella19[[#This Row],[mTab]]*E17</f>
-        <v>-5.7118602999116881</v>
+        <v>-4.7478215343172172</v>
       </c>
       <c r="AF46">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>4.2881397000883119</v>
+        <v>5.2521784656827828</v>
       </c>
       <c r="AG46">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-15.711860299911688</v>
+        <v>-14.747821534317218</v>
       </c>
       <c r="AH46">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>14.288139700088312</v>
+        <v>15.252178465682782</v>
       </c>
       <c r="AI46">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-25.711860299911688</v>
+        <v>-24.747821534317218</v>
       </c>
       <c r="AJ46">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>24.288139700088312</v>
+        <v>25.252178465682782</v>
       </c>
       <c r="AK46">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-35.711860299911692</v>
+        <v>-34.747821534317218</v>
       </c>
       <c r="AM46">
         <v>3.4</v>
@@ -10149,31 +10155,31 @@
       </c>
       <c r="AQ46">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-4.814439172021717</v>
+        <v>-4.0018657278677621</v>
       </c>
       <c r="AR46">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>5.185560827978283</v>
+        <v>5.9981342721322379</v>
       </c>
       <c r="AS46">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-14.814439172021718</v>
+        <v>-14.001865727867763</v>
       </c>
       <c r="AT46">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>15.185560827978282</v>
+        <v>15.998134272132237</v>
       </c>
       <c r="AU46">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-24.814439172021718</v>
+        <v>-24.001865727867763</v>
       </c>
       <c r="AV46">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>25.185560827978282</v>
+        <v>25.998134272132237</v>
       </c>
       <c r="AW46">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-34.814439172021721</v>
+        <v>-34.001865727867759</v>
       </c>
       <c r="AX46">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -10193,7 +10199,7 @@
       </c>
       <c r="BC46">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I17-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.474273519912531</v>
+        <v>2.4957254588381952</v>
       </c>
     </row>
     <row r="47" spans="17:55" x14ac:dyDescent="0.45">
@@ -10202,31 +10208,31 @@
       </c>
       <c r="R47">
         <f>E18*Tabella18[[#This Row],[mTab]]</f>
-        <v>-3.9528837401228336</v>
+        <v>-3.3148052222130451</v>
       </c>
       <c r="S47">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>6.0471162598771659</v>
+        <v>6.6851947777869549</v>
       </c>
       <c r="T47">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-13.952883740122834</v>
+        <v>-13.314805222213046</v>
       </c>
       <c r="U47">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>16.047116259877168</v>
+        <v>16.685194777786954</v>
       </c>
       <c r="V47">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-23.952883740122836</v>
+        <v>-23.314805222213046</v>
       </c>
       <c r="W47">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>26.047116259877168</v>
+        <v>26.685194777786954</v>
       </c>
       <c r="X47">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-33.952883740122836</v>
+        <v>-33.314805222213046</v>
       </c>
       <c r="Z47">
         <v>2.2000000000000002</v>
@@ -10242,31 +10248,31 @@
       </c>
       <c r="AE47">
         <f>Tabella19[[#This Row],[mTab]]*E18</f>
-        <v>-6.2287864995874962</v>
+        <v>-5.2233294410629805</v>
       </c>
       <c r="AF47">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>3.7712135004125038</v>
+        <v>4.7766705589370195</v>
       </c>
       <c r="AG47">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-16.228786499587496</v>
+        <v>-15.22332944106298</v>
       </c>
       <c r="AH47">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>13.771213500412504</v>
+        <v>14.77667055893702</v>
       </c>
       <c r="AI47">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-26.228786499587496</v>
+        <v>-25.22332944106298</v>
       </c>
       <c r="AJ47">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>23.771213500412504</v>
+        <v>24.77667055893702</v>
       </c>
       <c r="AK47">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-36.2287864995875</v>
+        <v>-35.22332944106298</v>
       </c>
       <c r="AM47">
         <v>3.4</v>
@@ -10279,31 +10285,31 @@
       </c>
       <c r="AQ47">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-5.2501483130176911</v>
+        <v>-4.4026640269575079</v>
       </c>
       <c r="AR47">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>4.7498516869823089</v>
+        <v>5.5973359730424921</v>
       </c>
       <c r="AS47">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-15.250148313017691</v>
+        <v>-14.402664026957508</v>
       </c>
       <c r="AT47">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>14.749851686982309</v>
+        <v>15.597335973042492</v>
       </c>
       <c r="AU47">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-25.250148313017693</v>
+        <v>-24.40266402695751</v>
       </c>
       <c r="AV47">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>24.749851686982311</v>
+        <v>25.59733597304249</v>
       </c>
       <c r="AW47">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-35.250148313017696</v>
+        <v>-34.40266402695751</v>
       </c>
       <c r="AX47">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -10323,7 +10329,7 @@
       </c>
       <c r="BC47">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I18-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.5048405452571521</v>
+        <v>2.5272141304091411</v>
       </c>
     </row>
     <row r="48" spans="17:55" x14ac:dyDescent="0.45">
@@ -10332,31 +10338,31 @@
       </c>
       <c r="R48">
         <f>E19*Tabella18[[#This Row],[mTab]]</f>
-        <v>-4.2718507468608173</v>
+        <v>-3.6230515848699807</v>
       </c>
       <c r="S48">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>5.7281492531391827</v>
+        <v>6.3769484151300198</v>
       </c>
       <c r="T48">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-14.271850746860817</v>
+        <v>-13.62305158486998</v>
       </c>
       <c r="U48">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>15.728149253139183</v>
+        <v>16.37694841513002</v>
       </c>
       <c r="V48">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-24.271850746860817</v>
+        <v>-23.62305158486998</v>
       </c>
       <c r="W48">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>25.728149253139183</v>
+        <v>26.37694841513002</v>
       </c>
       <c r="X48">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-34.271850746860821</v>
+        <v>-33.623051584869984</v>
       </c>
       <c r="Z48">
         <v>2.2000000000000002</v>
@@ -10372,31 +10378,31 @@
       </c>
       <c r="AE48">
         <f>Tabella19[[#This Row],[mTab]]*E19</f>
-        <v>-6.731401176871592</v>
+        <v>-5.709050982219364</v>
       </c>
       <c r="AF48">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>3.268598823128408</v>
+        <v>4.290949017780636</v>
       </c>
       <c r="AG48">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-16.731401176871593</v>
+        <v>-15.709050982219363</v>
       </c>
       <c r="AH48">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>13.268598823128407</v>
+        <v>14.290949017780637</v>
       </c>
       <c r="AI48">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-26.731401176871593</v>
+        <v>-25.709050982219363</v>
       </c>
       <c r="AJ48">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>23.268598823128407</v>
+        <v>24.290949017780637</v>
       </c>
       <c r="AK48">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-36.731401176871593</v>
+        <v>-35.709050982219367</v>
       </c>
       <c r="AM48">
         <v>3.4</v>
@@ -10409,31 +10415,31 @@
       </c>
       <c r="AQ48">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-5.6737944919669587</v>
+        <v>-4.8120712413591296</v>
       </c>
       <c r="AR48">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>4.3262055080330413</v>
+        <v>5.1879287586408704</v>
       </c>
       <c r="AS48">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-15.673794491966959</v>
+        <v>-14.812071241359128</v>
       </c>
       <c r="AT48">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>14.326205508033041</v>
+        <v>15.187928758640872</v>
       </c>
       <c r="AU48">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-25.673794491966959</v>
+        <v>-24.812071241359128</v>
       </c>
       <c r="AV48">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>24.326205508033041</v>
+        <v>25.187928758640872</v>
       </c>
       <c r="AW48">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-35.673794491966959</v>
+        <v>-34.812071241359135</v>
       </c>
       <c r="AX48">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -10453,7 +10459,7 @@
       </c>
       <c r="BC48">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I19-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.5358515304198721</v>
+        <v>2.5586010242359185</v>
       </c>
     </row>
     <row r="49" spans="17:55" x14ac:dyDescent="0.45">
@@ -10462,31 +10468,31 @@
       </c>
       <c r="R49">
         <f>E20*Tabella18[[#This Row],[mTab]]</f>
-        <v>-4.5667304236571491</v>
+        <v>-3.9318035327793748</v>
       </c>
       <c r="S49">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>5.4332695763428509</v>
+        <v>6.0681964672206252</v>
       </c>
       <c r="T49">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-14.566730423657148</v>
+        <v>-13.931803532779375</v>
       </c>
       <c r="U49">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>15.433269576342852</v>
+        <v>16.068196467220623</v>
       </c>
       <c r="V49">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-24.566730423657148</v>
+        <v>-23.931803532779377</v>
       </c>
       <c r="W49">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>25.433269576342852</v>
+        <v>26.068196467220623</v>
       </c>
       <c r="X49">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-34.566730423657148</v>
+        <v>-33.931803532779377</v>
       </c>
       <c r="Y49">
         <v>2.2999999999999998</v>
@@ -10505,31 +10511,31 @@
       </c>
       <c r="AE49">
         <f>Tabella19[[#This Row],[mTab]]*E20</f>
-        <v>-7.196060061520356</v>
+        <v>-6.1955692031674996</v>
       </c>
       <c r="AF49">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>2.803939938479644</v>
+        <v>3.8044307968325004</v>
       </c>
       <c r="AG49">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-17.196060061520356</v>
+        <v>-16.195569203167501</v>
       </c>
       <c r="AH49">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>12.803939938479644</v>
+        <v>13.8044307968325</v>
       </c>
       <c r="AI49">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-27.196060061520356</v>
+        <v>-26.195569203167501</v>
       </c>
       <c r="AJ49">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>22.803939938479644</v>
+        <v>23.804430796832499</v>
       </c>
       <c r="AK49">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-37.196060061520356</v>
+        <v>-36.195569203167501</v>
       </c>
       <c r="AL49">
         <v>3.8</v>
@@ -10545,31 +10551,31 @@
       </c>
       <c r="AQ49">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.0654483172391771</v>
+        <v>-5.2221499649006056</v>
       </c>
       <c r="AR49">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.9345516827608229</v>
+        <v>4.7778500350993944</v>
       </c>
       <c r="AS49">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.065448317239177</v>
+        <v>-15.222149964900607</v>
       </c>
       <c r="AT49">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.934551682760823</v>
+        <v>14.777850035099393</v>
       </c>
       <c r="AU49">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.065448317239177</v>
+        <v>-25.222149964900609</v>
       </c>
       <c r="AV49">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.934551682760823</v>
+        <v>24.777850035099391</v>
       </c>
       <c r="AW49">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.065448317239174</v>
+        <v>-35.222149964900609</v>
       </c>
       <c r="AX49">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -10589,7 +10595,7 @@
       </c>
       <c r="BC49">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I20-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.5678197601528612</v>
+        <v>2.5900828366545996</v>
       </c>
     </row>
     <row r="50" spans="17:55" x14ac:dyDescent="0.45">
@@ -10598,31 +10604,31 @@
       </c>
       <c r="R50">
         <f>E21*Tabella18[[#This Row],[mTab]]</f>
-        <v>-4.8225178124601715</v>
+        <v>-4.2283678009366525</v>
       </c>
       <c r="S50">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>5.1774821875398285</v>
+        <v>5.7716321990633475</v>
       </c>
       <c r="T50">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-14.822517812460172</v>
+        <v>-14.228367800936653</v>
       </c>
       <c r="U50">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>15.177482187539828</v>
+        <v>15.771632199063347</v>
       </c>
       <c r="V50">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-24.82251781246017</v>
+        <v>-24.228367800936653</v>
       </c>
       <c r="W50">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>25.17748218753983</v>
+        <v>25.771632199063347</v>
       </c>
       <c r="X50">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-34.82251781246017</v>
+        <v>-34.228367800936653</v>
       </c>
       <c r="Y50">
         <v>2.2999999999999998</v>
@@ -10641,31 +10647,31 @@
       </c>
       <c r="AE50">
         <f>Tabella19[[#This Row],[mTab]]*E21</f>
-        <v>-7.5991189772099679</v>
+        <v>-6.6628825954153319</v>
       </c>
       <c r="AF50">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>2.4008810227900321</v>
+        <v>3.3371174045846681</v>
       </c>
       <c r="AG50">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-17.599118977209969</v>
+        <v>-16.662882595415333</v>
       </c>
       <c r="AH50">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>12.400881022790031</v>
+        <v>13.337117404584667</v>
       </c>
       <c r="AI50">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-27.599118977209969</v>
+        <v>-26.662882595415333</v>
       </c>
       <c r="AJ50">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>22.400881022790031</v>
+        <v>23.337117404584667</v>
       </c>
       <c r="AK50">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-37.599118977209969</v>
+        <v>-36.662882595415333</v>
       </c>
       <c r="AL50">
         <v>3.8</v>
@@ -10681,31 +10687,31 @@
       </c>
       <c r="AQ50">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.4051804763675557</v>
+        <v>-5.6160412337894998</v>
       </c>
       <c r="AR50">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.5948195236324443</v>
+        <v>4.3839587662105002</v>
       </c>
       <c r="AS50">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.405180476367555</v>
+        <v>-15.616041233789501</v>
       </c>
       <c r="AT50">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.594819523632443</v>
+        <v>14.383958766210499</v>
       </c>
       <c r="AU50">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.405180476367555</v>
+        <v>-25.616041233789499</v>
       </c>
       <c r="AV50">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.594819523632445</v>
+        <v>24.383958766210501</v>
       </c>
       <c r="AW50">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.405180476367555</v>
+        <v>-35.616041233789502</v>
       </c>
       <c r="AX50">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -10725,7 +10731,7 @@
       </c>
       <c r="BC50">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I21-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.6012584828102332</v>
+        <v>2.6220917588142938</v>
       </c>
     </row>
     <row r="51" spans="17:55" x14ac:dyDescent="0.45">
@@ -10734,31 +10740,31 @@
       </c>
       <c r="R51">
         <f>E22*Tabella18[[#This Row],[mTab]]</f>
-        <v>-5.0242079554069914</v>
+        <v>-4.498884435763971</v>
       </c>
       <c r="S51">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>4.9757920445930086</v>
+        <v>5.501115564236029</v>
       </c>
       <c r="T51">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-15.024207955406991</v>
+        <v>-14.498884435763971</v>
       </c>
       <c r="U51">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>14.975792044593009</v>
+        <v>15.501115564236029</v>
       </c>
       <c r="V51">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-25.024207955406993</v>
+        <v>-24.498884435763969</v>
       </c>
       <c r="W51">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>24.975792044593007</v>
+        <v>25.501115564236031</v>
       </c>
       <c r="X51">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-35.024207955406993</v>
+        <v>-34.498884435763969</v>
       </c>
       <c r="Y51">
         <v>2.2999999999999998</v>
@@ -10777,31 +10783,31 @@
       </c>
       <c r="AE51">
         <f>Tabella19[[#This Row],[mTab]]*E22</f>
-        <v>-7.9169337479140482</v>
+        <v>-7.0891512321129246</v>
       </c>
       <c r="AF51">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>2.0830662520859518</v>
+        <v>2.9108487678870754</v>
       </c>
       <c r="AG51">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-17.916933747914047</v>
+        <v>-17.089151232112926</v>
       </c>
       <c r="AH51">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>12.083066252085953</v>
+        <v>12.910848767887074</v>
       </c>
       <c r="AI51">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-27.916933747914047</v>
+        <v>-27.089151232112926</v>
       </c>
       <c r="AJ51">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>22.083066252085953</v>
+        <v>22.910848767887074</v>
       </c>
       <c r="AK51">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-37.916933747914044</v>
+        <v>-37.089151232112926</v>
       </c>
       <c r="AL51">
         <v>3.8</v>
@@ -10817,31 +10823,31 @@
       </c>
       <c r="AQ51">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.6730616571360137</v>
+        <v>-5.975336509682875</v>
       </c>
       <c r="AR51">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.3269383428639863</v>
+        <v>4.024663490317125</v>
       </c>
       <c r="AS51">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.673061657136014</v>
+        <v>-15.975336509682876</v>
       </c>
       <c r="AT51">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.326938342863986</v>
+        <v>14.024663490317124</v>
       </c>
       <c r="AU51">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.673061657136014</v>
+        <v>-25.975336509682876</v>
       </c>
       <c r="AV51">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.326938342863986</v>
+        <v>24.024663490317124</v>
       </c>
       <c r="AW51">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.67306165713601</v>
+        <v>-35.975336509682876</v>
       </c>
       <c r="AX51">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -10861,7 +10867,7 @@
       </c>
       <c r="BC51">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I22-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.63668091635581</v>
+        <v>2.6551008602485728</v>
       </c>
     </row>
     <row r="52" spans="17:55" x14ac:dyDescent="0.45">
@@ -10870,31 +10876,31 @@
       </c>
       <c r="R52">
         <f>E23*Tabella18[[#This Row],[mTab]]</f>
-        <v>-5.1567958947899459</v>
+        <v>-4.7310480755350222</v>
       </c>
       <c r="S52">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>4.8432041052100541</v>
+        <v>5.2689519244649778</v>
       </c>
       <c r="T52">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-15.156795894789946</v>
+        <v>-14.731048075535021</v>
       </c>
       <c r="U52">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>14.843204105210054</v>
+        <v>15.268951924464979</v>
       </c>
       <c r="V52">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-25.156795894789944</v>
+        <v>-24.731048075535021</v>
       </c>
       <c r="W52">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>24.843204105210056</v>
+        <v>25.268951924464979</v>
       </c>
       <c r="X52">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-35.156795894789944</v>
+        <v>-34.731048075535021</v>
       </c>
       <c r="Y52">
         <v>2.2999999999999998</v>
@@ -10913,31 +10919,31 @@
       </c>
       <c r="AE52">
         <f>Tabella19[[#This Row],[mTab]]*E23</f>
-        <v>-8.1258601978508249</v>
+        <v>-7.454984846297612</v>
       </c>
       <c r="AF52">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>1.8741398021491751</v>
+        <v>2.545015153702388</v>
       </c>
       <c r="AG52">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-18.125860197850827</v>
+        <v>-17.454984846297613</v>
       </c>
       <c r="AH52">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>11.874139802149175</v>
+        <v>12.545015153702387</v>
       </c>
       <c r="AI52">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-28.125860197850827</v>
+        <v>-27.454984846297613</v>
       </c>
       <c r="AJ52">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>21.874139802149173</v>
+        <v>22.545015153702387</v>
       </c>
       <c r="AK52">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-38.125860197850827</v>
+        <v>-37.454984846297613</v>
       </c>
       <c r="AL52">
         <v>3.8</v>
@@ -10953,31 +10959,31 @@
       </c>
       <c r="AQ52">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.8491625475346467</v>
+        <v>-6.2836920348696985</v>
       </c>
       <c r="AR52">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.1508374524653529</v>
+        <v>3.7163079651303015</v>
       </c>
       <c r="AS52">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.849162547534647</v>
+        <v>-16.283692034869699</v>
       </c>
       <c r="AT52">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.150837452465353</v>
+        <v>13.716307965130301</v>
       </c>
       <c r="AU52">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.849162547534647</v>
+        <v>-26.283692034869699</v>
       </c>
       <c r="AV52">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.150837452465353</v>
+        <v>23.716307965130301</v>
       </c>
       <c r="AW52">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.849162547534647</v>
+        <v>-36.283692034869702</v>
       </c>
       <c r="AX52">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -10997,7 +11003,7 @@
       </c>
       <c r="BC52">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I23-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.6746002522980206</v>
+        <v>2.6895286738323754</v>
       </c>
     </row>
     <row r="53" spans="17:55" x14ac:dyDescent="0.45">
@@ -11006,31 +11012,31 @@
       </c>
       <c r="R53">
         <f>E24*Tabella18[[#This Row],[mTab]]</f>
-        <v>-5.2052767070831338</v>
+        <v>-4.9121592575919593</v>
       </c>
       <c r="S53">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>4.7947232929168662</v>
+        <v>5.0878407424080407</v>
       </c>
       <c r="T53">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-15.205276707083133</v>
+        <v>-14.912159257591959</v>
       </c>
       <c r="U53">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>14.794723292916867</v>
+        <v>15.087840742408041</v>
       </c>
       <c r="V53">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-25.205276707083133</v>
+        <v>-24.912159257591959</v>
       </c>
       <c r="W53">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>24.794723292916867</v>
+        <v>25.087840742408041</v>
       </c>
       <c r="X53">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-35.205276707083129</v>
+        <v>-34.912159257591959</v>
       </c>
       <c r="Y53">
         <v>2.2999999999999998</v>
@@ -11049,31 +11055,31 @@
       </c>
       <c r="AE53">
         <f>Tabella19[[#This Row],[mTab]]*E24</f>
-        <v>-8.2022542051006955</v>
+        <v>-7.7403721634782396</v>
       </c>
       <c r="AF53">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>1.7977457948993045</v>
+        <v>2.2596278365217604</v>
       </c>
       <c r="AG53">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-18.202254205100694</v>
+        <v>-17.740372163478241</v>
       </c>
       <c r="AH53">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>11.797745794899305</v>
+        <v>12.25962783652176</v>
       </c>
       <c r="AI53">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-28.202254205100694</v>
+        <v>-27.740372163478241</v>
       </c>
       <c r="AJ53">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>21.797745794899306</v>
+        <v>22.259627836521759</v>
       </c>
       <c r="AK53">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-38.202254205100694</v>
+        <v>-37.740372163478241</v>
       </c>
       <c r="AL53">
         <v>3.8</v>
@@ -11089,31 +11095,31 @@
       </c>
       <c r="AQ53">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.9135538809531436</v>
+        <v>-6.5242406139471392</v>
       </c>
       <c r="AR53">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.086446119046856</v>
+        <v>3.4757593860528608</v>
       </c>
       <c r="AS53">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.913553880953142</v>
+        <v>-16.524240613947139</v>
       </c>
       <c r="AT53">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.086446119046856</v>
+        <v>13.475759386052861</v>
       </c>
       <c r="AU53">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.913553880953142</v>
+        <v>-26.524240613947139</v>
       </c>
       <c r="AV53">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.086446119046858</v>
+        <v>23.475759386052861</v>
       </c>
       <c r="AW53">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.913553880953138</v>
+        <v>-36.524240613947143</v>
       </c>
       <c r="AX53">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -11133,7 +11139,7 @@
       </c>
       <c r="BC53">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I24-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.7155296584385744</v>
+        <v>2.725807528687533</v>
       </c>
     </row>
     <row r="54" spans="17:55" x14ac:dyDescent="0.45">
@@ -11142,31 +11148,31 @@
       </c>
       <c r="R54">
         <f>E25*Tabella18[[#This Row],[mTab]]</f>
-        <v>-5.1546526254074276</v>
+        <v>-5.0295121891396466</v>
       </c>
       <c r="S54">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>4.8453473745925724</v>
+        <v>4.9704878108603534</v>
       </c>
       <c r="T54">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-15.154652625407428</v>
+        <v>-15.029512189139647</v>
       </c>
       <c r="U54">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>14.845347374592572</v>
+        <v>14.970487810860353</v>
       </c>
       <c r="V54">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-25.154652625407429</v>
+        <v>-25.029512189139645</v>
       </c>
       <c r="W54">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>24.845347374592571</v>
+        <v>24.970487810860355</v>
       </c>
       <c r="X54">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-35.154652625407429</v>
+        <v>-35.029512189139645</v>
       </c>
       <c r="Y54">
         <v>2.2999999999999998</v>
@@ -11185,31 +11191,31 @@
       </c>
       <c r="AE54">
         <f>Tabella19[[#This Row],[mTab]]*E25</f>
-        <v>-8.1224829248844319</v>
+        <v>-7.9252919344018684</v>
       </c>
       <c r="AF54">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>1.8775170751155681</v>
+        <v>2.0747080655981316</v>
       </c>
       <c r="AG54">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-18.12248292488443</v>
+        <v>-17.925291934401869</v>
       </c>
       <c r="AH54">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>11.877517075115568</v>
+        <v>12.074708065598131</v>
       </c>
       <c r="AI54">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-28.12248292488443</v>
+        <v>-27.925291934401869</v>
       </c>
       <c r="AJ54">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>21.87751707511557</v>
+        <v>22.074708065598131</v>
       </c>
       <c r="AK54">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-38.12248292488443</v>
+        <v>-37.925291934401869</v>
       </c>
       <c r="AL54">
         <v>3.8</v>
@@ -11225,31 +11231,31 @@
       </c>
       <c r="AQ54">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.8463158961093207</v>
+        <v>-6.680106643939113</v>
       </c>
       <c r="AR54">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.1536841038906798</v>
+        <v>3.319893356060887</v>
       </c>
       <c r="AS54">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.846315896109321</v>
+        <v>-16.680106643939112</v>
       </c>
       <c r="AT54">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.153684103890679</v>
+        <v>13.319893356060886</v>
       </c>
       <c r="AU54">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.846315896109321</v>
+        <v>-26.680106643939112</v>
       </c>
       <c r="AV54">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.153684103890679</v>
+        <v>23.319893356060888</v>
       </c>
       <c r="AW54">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.846315896109317</v>
+        <v>-36.680106643939112</v>
       </c>
       <c r="AX54">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -11269,7 +11275,7 @@
       </c>
       <c r="BC54">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I25-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.7599820330789782</v>
+        <v>2.7643699573362719</v>
       </c>
     </row>
     <row r="55" spans="17:55" x14ac:dyDescent="0.45">
@@ -11278,31 +11284,31 @@
       </c>
       <c r="R55">
         <f>E26*Tabella18[[#This Row],[mTab]]</f>
-        <v>-5.0260921247432604</v>
+        <v>-5.0704010773827504</v>
       </c>
       <c r="S55">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>4.9739078752567396</v>
+        <v>4.9295989226172496</v>
       </c>
       <c r="T55">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-15.026092124743261</v>
+        <v>-15.070401077382751</v>
       </c>
       <c r="U55">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>14.973907875256739</v>
+        <v>14.929598922617249</v>
       </c>
       <c r="V55">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-25.026092124743261</v>
+        <v>-25.070401077382751</v>
       </c>
       <c r="W55">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>24.973907875256739</v>
+        <v>24.929598922617249</v>
       </c>
       <c r="X55">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-35.026092124743258</v>
+        <v>-35.070401077382755</v>
       </c>
       <c r="Y55">
         <v>2.2999999999999998</v>
@@ -11321,31 +11327,31 @@
       </c>
       <c r="AE55">
         <f>Tabella19[[#This Row],[mTab]]*E26</f>
-        <v>-7.9199027420196844</v>
+        <v>-7.989722909815244</v>
       </c>
       <c r="AF55">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>2.0800972579803156</v>
+        <v>2.010277090184756</v>
       </c>
       <c r="AG55">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-17.919902742019683</v>
+        <v>-17.989722909815242</v>
       </c>
       <c r="AH55">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>12.080097257980317</v>
+        <v>12.010277090184756</v>
       </c>
       <c r="AI55">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-27.919902742019683</v>
+        <v>-27.989722909815242</v>
       </c>
       <c r="AJ55">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>22.080097257980317</v>
+        <v>22.010277090184758</v>
       </c>
       <c r="AK55">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-37.919902742019687</v>
+        <v>-37.989722909815242</v>
       </c>
       <c r="AL55">
         <v>3.8</v>
@@ -11361,31 +11367,31 @@
       </c>
       <c r="AQ55">
         <f>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-6.6755641765908225</v>
+        <v>-6.7344145218692724</v>
       </c>
       <c r="AR55">
         <f>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>3.3244358234091775</v>
+        <v>3.2655854781307281</v>
       </c>
       <c r="AS55">
         <f>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-16.675564176590822</v>
+        <v>-16.734414521869272</v>
       </c>
       <c r="AT55">
         <f>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>13.324435823409178</v>
+        <v>13.265585478130728</v>
       </c>
       <c r="AU55">
         <f>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-26.675564176590822</v>
+        <v>-26.734414521869272</v>
       </c>
       <c r="AV55">
         <f>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>23.324435823409178</v>
+        <v>23.265585478130728</v>
       </c>
       <c r="AW55">
         <f>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
-        <v>-36.675564176590825</v>
+        <v>-36.734414521869276</v>
       </c>
       <c r="AX55">
         <f>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</f>
@@ -11405,7 +11411,7 @@
       </c>
       <c r="BC55">
         <f>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I26-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</f>
-        <v>2.8072021268109233</v>
+        <v>2.8056484776955726</v>
       </c>
     </row>
     <row r="56" spans="17:55" x14ac:dyDescent="0.45">
@@ -11414,31 +11420,31 @@
       </c>
       <c r="R56">
         <f>E27*Tabella18[[#This Row],[mTab]]</f>
-        <v>-5.0260921247432604</v>
+        <v>-5.02212012952607</v>
       </c>
       <c r="S56">
         <f>Tabella18[[#This Row],[m1]]+10</f>
-        <v>4.9739078752567396</v>
+        <v>4.97787987047393</v>
       </c>
       <c r="T56">
         <f>Tabella18[[#This Row],[m1]]-10</f>
-        <v>-15.026092124743261</v>
+        <v>-15.022120129526069</v>
       </c>
       <c r="U56">
         <f>Tabella18[[#This Row],[m1]]+20</f>
-        <v>14.973907875256739</v>
+        <v>14.977879870473931</v>
       </c>
       <c r="V56">
         <f>Tabella18[[#This Row],[m2meno]]-10</f>
-        <v>-25.026092124743261</v>
+        <v>-25.022120129526069</v>
       </c>
       <c r="W56">
         <f>Tabella18[[#This Row],[m1]]+30</f>
-        <v>24.973907875256739</v>
+        <v>24.977879870473931</v>
       </c>
       <c r="X56">
         <f>Tabella18[[#This Row],[m3meno]]-10</f>
-        <v>-35.026092124743258</v>
+        <v>-35.022120129526073</v>
       </c>
       <c r="Y56">
         <v>2.2999999999999998</v>
@@ -11457,31 +11463,31 @@
       </c>
       <c r="AE56">
         <f>Tabella19[[#This Row],[mTab]]*E27</f>
-        <v>-7.9199027420196844</v>
+        <v>-7.9136438404653235</v>
       </c>
       <c r="AF56">
         <f>Tabella19[[#This Row],[m1]]+10</f>
-        <v>2.0800972579803156</v>
+        <v>2.0863561595346765</v>
       </c>
       <c r="AG56">
         <f>Tabella19[[#This Row],[m1]]-10</f>
-        <v>-17.919902742019683</v>
+        <v>-17.913643840465323</v>
       </c>
       <c r="AH56">
         <f>Tabella19[[#This Row],[m2]]+10</f>
-        <v>12.080097257980317</v>
+        <v>12.086356159534677</v>
       </c>
       <c r="AI56">
         <f>Tabella19[[#This Row],[m2meno]]-10</f>
-        <v>-27.919902742019683</v>
+        <v>-27.913643840465323</v>
       </c>
       <c r="AJ56">
         <f>Tabella19[[#This Row],[m3]]+10</f>
-        <v>22.080097257980317</v>
+        <v>22.086356159534677</v>
       </c>
       <c r="AK56">
         <f>Tabella19[[#This Row],[m3meno]]-10</f>
-        <v>-37.919902742019687</v>
+        <v>-37.913643840465326</v>
       </c>
       <c r="AL56">
         <v>3.8</v>
@@ -11528,10 +11534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11546,7 +11552,7 @@
     <col min="16" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11584,7 +11590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>12</v>
       </c>
@@ -11624,7 +11630,7 @@
         <v>0.3318971510674355</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -11674,13 +11680,10 @@
         <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11740,12 +11743,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.23438014029411439</v>
       </c>
-      <c r="R7">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
+      <c r="Q7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>A7+1</f>
         <v>1</v>
@@ -11806,12 +11808,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.23769520799969651</v>
       </c>
-      <c r="R8">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>0.23769520799969651</v>
+      <c r="Q8">
+        <v>0.21143034979706399</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" ref="A9:A24" si="0">A8+1</f>
         <v>2</v>
@@ -11872,12 +11873,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.24101781007506587</v>
       </c>
-      <c r="R9">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>0.48203562015013174</v>
+      <c r="Q9">
+        <v>0.42599579673041499</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -11938,12 +11938,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.24434543801554956</v>
       </c>
-      <c r="R10">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>0.73303631404664871</v>
+      <c r="Q10">
+        <v>0.64372387060119296</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12004,12 +12003,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.24767557364722045</v>
       </c>
-      <c r="R11">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>0.99070229458888182</v>
+      <c r="Q11">
+        <v>0.86464020454194102</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12070,12 +12068,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.25100570085486645</v>
       </c>
-      <c r="R12">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>1.2550285042743323</v>
+      <c r="Q12">
+        <v>1.08876841289015</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12136,12 +12133,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.25433331691224792</v>
       </c>
-      <c r="R13">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>1.5259999014734875</v>
+      <c r="Q13">
+        <v>1.3161299736399099</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12202,12 +12198,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.25765594330296093</v>
       </c>
-      <c r="R14">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>1.8035916031207266</v>
+      <c r="Q14">
+        <v>1.54674411631326</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12268,12 +12263,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.26095978436525669</v>
       </c>
-      <c r="R15">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>2.0876782749220535</v>
+      <c r="Q15">
+        <v>1.78062771608014</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12334,12 +12328,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.26410867011755362</v>
       </c>
-      <c r="R16">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>2.3769780310579827</v>
+      <c r="Q16">
+        <v>2.0177951949317001</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12400,12 +12393,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.26788806944964777</v>
       </c>
-      <c r="R17">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>2.6788806944964776</v>
+      <c r="Q17">
+        <v>2.2582584306772402</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12466,12 +12458,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.27505694766978228</v>
       </c>
-      <c r="R18">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>3.025626424367605</v>
+      <c r="Q18">
+        <v>2.50332384816942</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12532,12 +12523,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.27999848151476864</v>
       </c>
-      <c r="R19">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>3.3599817781772234</v>
+      <c r="Q19">
+        <v>2.7575607680135898</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12598,12 +12588,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.27308717441307639</v>
       </c>
-      <c r="R20">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>3.550133267369993</v>
+      <c r="Q20">
+        <v>3.01114472660104</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -12664,12 +12653,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.25338620614989016</v>
       </c>
-      <c r="R21">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>3.5474068860984622</v>
+      <c r="Q21">
+        <v>3.25322266351289</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -12730,12 +12718,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.219456662906066</v>
       </c>
-      <c r="R22">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>3.2918499435909898</v>
+      <c r="Q22">
+        <v>3.47250301119908</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12796,12 +12783,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>0.16913087654917869</v>
       </c>
-      <c r="R23">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>2.706094024786859</v>
+      <c r="Q23">
+        <v>3.65718809385683</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12862,12 +12848,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>9.6195689958012046E-2</v>
       </c>
-      <c r="R24">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>1.6353267292862048</v>
+      <c r="Q24">
+        <v>3.7951240328802198</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>A24+1</f>
         <v>18</v>
@@ -12928,12 +12913,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>5.3749809662669195E-3</v>
       </c>
-      <c r="R25">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>9.6749657392804556E-2</v>
+      <c r="Q25">
+        <v>3.8735294059974001</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" ref="A26:A27" si="1">A25+1</f>
         <v>19</v>
@@ -12994,12 +12978,11 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>-9.9560999519654567E-2</v>
       </c>
-      <c r="R26">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>-1.8916589908734367</v>
+      <c r="Q26">
+        <v>3.8788440711932299</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -13060,9 +13043,8 @@
         <f>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</f>
         <v>-0.18759250970670097</v>
       </c>
-      <c r="R27">
-        <f>Tabella24[[#This Row],[dε/dα]]*Tabella24[[#This Row],[α_abs]]</f>
-        <v>-3.7518501941340192</v>
+      <c r="Q27">
+        <v>3.7968213747732902</v>
       </c>
     </row>
   </sheetData>
@@ -13080,8 +13062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13251,8 +13233,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f>2*G6/(Tabella2245[b/2]*2)</f>
-        <v>0.31873614122310723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -13300,8 +13281,8 @@
         <v>0.21280697809328983</v>
       </c>
       <c r="N7">
-        <f>F6/Tabella2245[b/2]</f>
-        <v>1.011953525787465</v>
+        <f>N6+K7*1</f>
+        <v>0.21280697809328983</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -13348,6 +13329,10 @@
         <f t="shared" si="0"/>
         <v>0.428414187963995</v>
       </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N26" si="2">N7+K8*1</f>
+        <v>0.4270140720752873</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
@@ -13393,6 +13378,10 @@
         <f t="shared" si="0"/>
         <v>0.64684561482063418</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.64262927701549866</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
@@ -13438,6 +13427,10 @@
         <f t="shared" si="0"/>
         <v>0.86812263488993557</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.85965993573798261</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
@@ -13483,6 +13476,10 @@
         <f t="shared" si="0"/>
         <v>1.0922642051633198</v>
       </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>1.0781127767706464</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
@@ -13528,6 +13525,10 @@
         <f t="shared" si="0"/>
         <v>1.3192870544591262</v>
       </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>1.2979939525138342</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
@@ -13573,6 +13574,10 @@
         <f t="shared" si="0"/>
         <v>1.5492058747948458</v>
       </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>1.5193090774845264</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
@@ -13618,6 +13623,10 @@
         <f t="shared" si="0"/>
         <v>1.7819939126991078</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>1.7420583165719148</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
@@ -13663,6 +13672,10 @@
         <f t="shared" si="0"/>
         <v>2.0171196445812556</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>1.9661827215253878</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
@@ -13708,8 +13721,12 @@
         <f t="shared" si="0"/>
         <v>2.257909540841605</v>
       </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>2.1919736756095483</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -13753,8 +13770,12 @@
         <f t="shared" si="0"/>
         <v>2.5063938171666829</v>
       </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2.4198276589883374</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -13798,8 +13819,12 @@
         <f t="shared" si="0"/>
         <v>2.7652005255668684</v>
       </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>2.6502610361189096</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -13843,8 +13868,12 @@
         <f t="shared" si="0"/>
         <v>3.0378214801230685</v>
       </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>2.8839396115129921</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -13888,8 +13917,12 @@
         <f t="shared" si="0"/>
         <v>3.3290333685799189</v>
       </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>3.1217277092687006</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -13933,8 +13966,12 @@
         <f t="shared" si="0"/>
         <v>3.6455020328013124</v>
       </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>3.3647611781221216</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -13978,8 +14015,12 @@
         <f t="shared" si="0"/>
         <v>3.9967351921954708</v>
       </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>3.6145571276343387</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -14023,8 +14064,12 @@
         <f t="shared" si="0"/>
         <v>4.391282422082984</v>
       </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>3.8728678583451024</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <f>A23+1</f>
         <v>18</v>
@@ -14068,10 +14113,14 @@
         <f t="shared" si="0"/>
         <v>4.6757714111050888</v>
       </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>4.1326329367398298</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
-        <f t="shared" ref="A25:A26" si="2">A24+1</f>
+        <f t="shared" ref="A25:A26" si="3">A24+1</f>
         <v>19</v>
       </c>
       <c r="B25" s="10">
@@ -14113,10 +14162,14 @@
         <f t="shared" si="0"/>
         <v>4.9355364894998166</v>
       </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>4.3923980151345567</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B26" s="10">
@@ -14157,6 +14210,10 @@
       <c r="L26" s="10">
         <f t="shared" si="0"/>
         <v>5.1953015678945436</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>4.6521630935292837</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/Theses/Ruocco/Latex/Giordano.xlsx
+++ b/DOCS/Theses/Ruocco/Latex/Giordano.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="113" windowWidth="23310" windowHeight="9983" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="113" windowWidth="23310" windowHeight="9983" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Giordano" sheetId="1" r:id="rId1"/>
@@ -709,13 +709,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
@@ -725,15 +725,6 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -816,6 +807,9 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -964,6 +958,12 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -989,7 +989,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1082,11 +1081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127434752"/>
-        <c:axId val="171154752"/>
+        <c:axId val="126073344"/>
+        <c:axId val="214959808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127434752"/>
+        <c:axId val="126073344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,14 +1139,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171154752"/>
+        <c:crossAx val="214959808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1155,7 +1153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171154752"/>
+        <c:axId val="214959808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,14 +1164,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127434752"/>
+        <c:crossAx val="126073344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1252,7 +1249,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13778152668452209"/>
+          <c:y val="0.12609014997843848"/>
+          <c:w val="0.76130664542017512"/>
+          <c:h val="0.75143784887800957"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1503,11 +1510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133431296"/>
-        <c:axId val="149058624"/>
+        <c:axId val="141465600"/>
+        <c:axId val="141559488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133431296"/>
+        <c:axId val="141465600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,13 +1530,10 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+                  <a:rPr lang="el-GR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
                   <a:t>α</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
-                  <a:t>_a (deg)</a:t>
-                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1537,8 +1541,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39925947543775658"/>
-              <c:y val="0.86844717161299489"/>
+              <c:x val="0.39925949665959165"/>
+              <c:y val="0.62200190468987593"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1546,7 +1550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149058624"/>
+        <c:crossAx val="141559488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1554,26 +1558,91 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149058624"/>
+        <c:axId val="141559488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>d</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ε/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>d</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133431296"/>
+        <c:crossAx val="141465600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13820413275382892"/>
+          <c:y val="0.90862887207330567"/>
+          <c:w val="0.70964466899936207"/>
+          <c:h val="6.2237506248960288E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1617,18 +1686,8 @@
               <a:t>ε</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
-              <a:t>α</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="it-IT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
-              <a:t>_a) Comparison</a:t>
+              <a:t> Comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1638,7 +1697,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.125604519218059E-2"/>
+          <c:y val="0.11212936929538633"/>
+          <c:w val="0.81143027662676503"/>
+          <c:h val="0.68997559081915882"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1886,11 +1955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133432832"/>
-        <c:axId val="149060352"/>
+        <c:axId val="141644288"/>
+        <c:axId val="141561216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133432832"/>
+        <c:axId val="141644288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,18 +1996,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                  <a:rPr lang="el-GR" sz="1200" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>α</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>_a (deg)</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT">
+                <a:endParaRPr lang="it-IT" sz="1200">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
@@ -1950,7 +2013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149060352"/>
+        <c:crossAx val="141561216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1958,26 +2021,64 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149060352"/>
+        <c:axId val="141561216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133432832"/>
+        <c:crossAx val="141644288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2006,7 +2107,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2102,11 +2202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127436800"/>
-        <c:axId val="171153024"/>
+        <c:axId val="126071808"/>
+        <c:axId val="214958080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127436800"/>
+        <c:axId val="126071808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,13 +2236,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171153024"/>
+        <c:crossAx val="214958080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2150,7 +2249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171153024"/>
+        <c:axId val="214958080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,14 +2260,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127436800"/>
+        <c:crossAx val="126071808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2198,7 +2296,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2297,11 +2394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131678720"/>
-        <c:axId val="208833344"/>
+        <c:axId val="126817792"/>
+        <c:axId val="214962112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131678720"/>
+        <c:axId val="126817792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,13 +2428,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208833344"/>
+        <c:crossAx val="214962112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2345,7 +2441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208833344"/>
+        <c:axId val="214962112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,14 +2452,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131678720"/>
+        <c:crossAx val="126817792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2393,7 +2488,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2489,11 +2583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131678208"/>
-        <c:axId val="126485632"/>
+        <c:axId val="126818304"/>
+        <c:axId val="214963840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131678208"/>
+        <c:axId val="126818304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,13 +2641,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126485632"/>
+        <c:crossAx val="214963840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2561,7 +2654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126485632"/>
+        <c:axId val="214963840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,14 +2665,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131678208"/>
+        <c:crossAx val="126818304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2609,7 +2701,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2705,11 +2796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131679232"/>
-        <c:axId val="126487360"/>
+        <c:axId val="126818816"/>
+        <c:axId val="214965568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131679232"/>
+        <c:axId val="126818816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,7 +2809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126487360"/>
+        <c:crossAx val="214965568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2726,7 +2817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126487360"/>
+        <c:axId val="214965568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,14 +2828,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131679232"/>
+        <c:crossAx val="126818816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2774,7 +2864,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2873,11 +2962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131679744"/>
-        <c:axId val="126490816"/>
+        <c:axId val="126073856"/>
+        <c:axId val="139144000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131679744"/>
+        <c:axId val="126073856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2886,7 +2975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126490816"/>
+        <c:crossAx val="139144000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2894,7 +2983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126490816"/>
+        <c:axId val="139144000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2905,14 +2994,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131679744"/>
+        <c:crossAx val="126073856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2942,7 +3030,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3038,11 +3125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="206087168"/>
-        <c:axId val="126491968"/>
+        <c:axId val="126819328"/>
+        <c:axId val="139145152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206087168"/>
+        <c:axId val="126819328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126491968"/>
+        <c:crossAx val="139145152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3059,7 +3146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126491968"/>
+        <c:axId val="139145152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3070,14 +3157,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206087168"/>
+        <c:crossAx val="126819328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3199,11 +3285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131876352"/>
-        <c:axId val="149055168"/>
+        <c:axId val="141127168"/>
+        <c:axId val="139147456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131876352"/>
+        <c:axId val="141127168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149055168"/>
+        <c:crossAx val="139147456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3220,7 +3306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149055168"/>
+        <c:axId val="139147456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,7 +3317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131876352"/>
+        <c:crossAx val="141127168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3360,11 +3446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131875840"/>
-        <c:axId val="149056896"/>
+        <c:axId val="141465088"/>
+        <c:axId val="141557760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131875840"/>
+        <c:axId val="141465088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,7 +3459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149056896"/>
+        <c:crossAx val="141557760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3381,7 +3467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149056896"/>
+        <c:axId val="141557760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131875840"/>
+        <c:crossAx val="141465088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3706,13 +3792,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>21429</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:rowOff>71435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3733,16 +3819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3789,7 +3875,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="AQ6:BA27" totalsRowShown="0" headerRowDxfId="25" headerRowCellStyle="20% - Colore 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="AQ6:BA27" totalsRowShown="0" headerRowDxfId="22" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AQ6:BA27"/>
   <tableColumns count="11">
     <tableColumn id="1" name="m1">
@@ -3813,16 +3899,16 @@
     <tableColumn id="7" name="m4meno">
       <calculatedColumnFormula>Tabella9[[#This Row],[m4meno]]+(Tabella11[[#This Row],[m4meno]]-Tabella9[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Φ_1" dataDxfId="24">
+    <tableColumn id="8" name="Φ_1" dataDxfId="21">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_1]]+(Tabella11[[#This Row],[Φ_1]]-Tabella9[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Φ_2" dataDxfId="23">
+    <tableColumn id="9" name="Φ_2" dataDxfId="20">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_2]]+(Tabella11[[#This Row],[Φ_2]]-Tabella9[[#This Row],[Φ_2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ_3" dataDxfId="22">
+    <tableColumn id="10" name="Φ_3" dataDxfId="19">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_3]]+(Tabella11[[#This Row],[Φ_3]]-Tabella9[[#This Row],[Φ_3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Φ_4" dataDxfId="21">
+    <tableColumn id="11" name="Φ_4" dataDxfId="18">
       <calculatedColumnFormula>Tabella9[[#This Row],[Φ_4]]+(Tabella11[[#This Row],[Φ_4]]-Tabella9[[#This Row],[Φ_4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3844,10 +3930,10 @@
     <tableColumn id="5" name="r = 1/λ"/>
     <tableColumn id="6" name="X0"/>
     <tableColumn id="7" name="m0"/>
-    <tableColumn id="8" name="d" dataDxfId="20">
+    <tableColumn id="8" name="d" dataDxfId="17">
       <calculatedColumnFormula xml:space="preserve"> SQRT(J2^2 + (I2-0.75*B2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="φ" dataDxfId="19">
+    <tableColumn id="9" name="φ" dataDxfId="16">
       <calculatedColumnFormula>ATAN((Tabella224[[#This Row],[m0]]/(Tabella224[[#This Row],[X0]]-0.75*Tabella224[[#This Row],[Cr]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3862,44 +3948,44 @@
     <tableColumn id="1" name="α_abs">
       <calculatedColumnFormula>A6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="α_b" dataDxfId="18">
+    <tableColumn id="2" name="α_b" dataDxfId="15">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_abs]]+Tabella224[α0_w]*57.3-Tabella224[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="α_w" dataDxfId="17">
+    <tableColumn id="3" name="α_w" dataDxfId="14">
       <calculatedColumnFormula>Tabella3[[#This Row],[α_b]]+Tabella224[iw]*57.3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="CL_α"/>
     <tableColumn id="5" name="CL"/>
-    <tableColumn id="14" name="X" dataDxfId="16"/>
-    <tableColumn id="8" name="m" dataDxfId="15"/>
-    <tableColumn id="6" name="r (X/b/2)" dataDxfId="14">
+    <tableColumn id="14" name="X" dataDxfId="13"/>
+    <tableColumn id="8" name="m" dataDxfId="12"/>
+    <tableColumn id="6" name="r (X/b/2)" dataDxfId="11">
       <calculatedColumnFormula>Tabella24[[#This Row],[X]]/Tabella224[b/2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m (m/b/2)" dataDxfId="13">
+    <tableColumn id="7" name="m (m/b/2)" dataDxfId="10">
       <calculatedColumnFormula>Tabella24[[#This Row],[m]]/Tabella224[b/2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Kε_Λ" dataDxfId="12">
+    <tableColumn id="11" name="Kε_Λ" dataDxfId="9">
       <calculatedColumnFormula>((0.1124 + 0.1265 * Tabella224[Λ_c/4] + 0.1766 * Tabella224[Λ_c/4]^2)/Tabella24[[#This Row],[r (X/b/2)]]^2) + (0.1024/Tabella24[[#This Row],[r (X/b/2)]]) +2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kε_Λ0" dataDxfId="11">
+    <tableColumn id="9" name="Kε_Λ0" dataDxfId="8">
       <calculatedColumnFormula>(0.1124/Tabella24[[#This Row],[r (X/b/2)]]^2) + ( 0.1024/Tabella24[[#This Row],[r (X/b/2)]]) + 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="dε/dα_k" dataDxfId="10">
+    <tableColumn id="13" name="dε/dα_k" dataDxfId="7">
       <calculatedColumnFormula>Tabella24[[#This Row],[Kε_Λ]]/Tabella24[[#This Row],[Kε_Λ0]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="dε/dα_1" dataDxfId="9" dataCellStyle="Normale">
+    <tableColumn id="10" name="dε/dα_1" dataDxfId="6" dataCellStyle="Normale">
       <calculatedColumnFormula>(Tabella24[[#This Row],[r (X/b/2)]]/(Tabella24[[#This Row],[r (X/b/2)]]^2 + Tabella24[[#This Row],[m (m/b/2)]]^2))* (0.4876/(SQRT(Tabella24[[#This Row],[r (X/b/2)]]^2 + 0.6319 + Tabella24[[#This Row],[m (m/b/2)]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="dε/dα_2" dataDxfId="8" dataCellStyle="Normale">
+    <tableColumn id="12" name="dε/dα_2" dataDxfId="5" dataCellStyle="Normale">
       <calculatedColumnFormula>(1+(Tabella24[[#This Row],[r (X/b/2)]]^2/(Tabella24[[#This Row],[r (X/b/2)]]^2+0.7915 + 5.074 * Tabella24[[#This Row],[m (m/b/2)]]^2))^(0.3113))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="dε/dα_3" dataDxfId="7" dataCellStyle="Normale">
+    <tableColumn id="15" name="dε/dα_3" dataDxfId="4" dataCellStyle="Normale">
       <calculatedColumnFormula>(1-(SQRT((Tabella24[[#This Row],[m (m/b/2)]]^2)/(1+Tabella24[[#This Row],[m (m/b/2)]]^2))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="dε/dα" dataDxfId="6" dataCellStyle="Normale">
+    <tableColumn id="16" name="dε/dα" dataDxfId="3" dataCellStyle="Normale">
       <calculatedColumnFormula>Tabella24[[#This Row],[dε/dα_k]]*(Tabella24[[#This Row],[dε/dα_1]]+Tabella24[[#This Row],[dε/dα_2]]*Tabella24[[#This Row],[dε/dα_3]])*(Tabella24[[#This Row],[CL_α]]*57.3/(3.14*Tabella224[AR]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="ε" dataDxfId="5" dataCellStyle="Normale"/>
+    <tableColumn id="17" name="ε" dataDxfId="2" dataCellStyle="Normale"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3919,10 +4005,10 @@
     <tableColumn id="5" name="r = 1/λ"/>
     <tableColumn id="6" name="X0"/>
     <tableColumn id="7" name="m0"/>
-    <tableColumn id="8" name="d" dataDxfId="4">
+    <tableColumn id="8" name="d" dataDxfId="1">
       <calculatedColumnFormula xml:space="preserve"> SQRT(J2^2 + (I2-0.75*B2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="φ" dataDxfId="3">
+    <tableColumn id="9" name="φ" dataDxfId="0">
       <calculatedColumnFormula>ATAN((Tabella2245[[#This Row],[m0]]/(Tabella2245[[#This Row],[X0]]-0.75*Tabella2245[[#This Row],[Cr]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3955,19 +4041,19 @@
     <tableColumn id="9" name="m_P" dataDxfId="58">
       <calculatedColumnFormula>Tabella3[[#This Row],[m]]/Tabella2[b/2]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ" dataDxfId="0">
+    <tableColumn id="10" name="Φ" dataDxfId="57">
       <calculatedColumnFormula>Tabella14[[#This Row],[Φ_80]]+(BC36-Tabella14[[#This Row],[Φ_80]])*(Tabella3[[#This Row],[X_p]]-80)/(90-80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="ε" dataDxfId="57">
+    <tableColumn id="11" name="ε" dataDxfId="56">
       <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="dΦ/dα" dataDxfId="56">
+    <tableColumn id="12" name="dΦ/dα" dataDxfId="55">
       <calculatedColumnFormula>(J8-Tabella3[[#This Row],[Φ]])/(B8-Tabella3[[#This Row],[α_b]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="dε/dα" dataDxfId="55">
+    <tableColumn id="13" name="dε/dα" dataDxfId="54">
       <calculatedColumnFormula>Tabella3[[#This Row],[Φ]]*Tabella3[[#This Row],[CL_α]]+Tabella3[[#This Row],[CL]]*Tabella3[[#This Row],[dΦ/dα]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Colonna1" dataDxfId="54">
+    <tableColumn id="14" name="Colonna1" dataDxfId="53">
       <calculatedColumnFormula>Tabella3[[#This Row],[dε/dα]]*Tabella3[[#This Row],[α_abs]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4030,7 +4116,7 @@
     <tableColumn id="6" name="m3meno">
       <calculatedColumnFormula>AG7-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="53">
+    <tableColumn id="7" name="m4" dataDxfId="52">
       <calculatedColumnFormula>Tabella11[[#This Row],[m3]]+10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="m4meno">
@@ -4049,7 +4135,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabella14" displayName="Tabella14" ref="BC6:BC27" totalsRowShown="0">
   <autoFilter ref="BC6:BC27"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Φ_80" dataDxfId="2">
+    <tableColumn id="1" name="Φ_80" dataDxfId="51">
       <calculatedColumnFormula>Tabella1[[#This Row],[Φ_3]]+(Tabella1[[#This Row],[Φ_4]]-Tabella1[[#This Row],[Φ_3]])*((Tabella3[[#This Row],[m_P]]-Tabella1[[#This Row],[m3]])/(Tabella1[[#This Row],[m4]]-Tabella1[[#This Row],[m3]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4062,25 +4148,25 @@
   <autoFilter ref="Q35:AB56"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mTab"/>
-    <tableColumn id="2" name="m1" dataDxfId="52">
+    <tableColumn id="2" name="m1" dataDxfId="50">
       <calculatedColumnFormula>E7*Tabella18[[#This Row],[mTab]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2" dataDxfId="51">
+    <tableColumn id="3" name="m2" dataDxfId="49">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m2meno" dataDxfId="50">
+    <tableColumn id="4" name="m2meno" dataDxfId="48">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3" dataDxfId="49">
+    <tableColumn id="5" name="m3" dataDxfId="47">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m3meno" dataDxfId="48">
+    <tableColumn id="6" name="m3meno" dataDxfId="46">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2meno]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="47">
+    <tableColumn id="7" name="m4" dataDxfId="45">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m4meno" dataDxfId="46">
+    <tableColumn id="8" name="m4meno" dataDxfId="44">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3meno]]-10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Φ_1"/>
@@ -4093,29 +4179,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabella19" displayName="Tabella19" ref="AD35:AO56" totalsRowShown="0" headerRowDxfId="45" headerRowCellStyle="20% - Colore 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabella19" displayName="Tabella19" ref="AD35:AO56" totalsRowShown="0" headerRowDxfId="43" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AD35:AO56"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mTab"/>
-    <tableColumn id="2" name="m1" dataDxfId="44">
+    <tableColumn id="2" name="m1" dataDxfId="42">
       <calculatedColumnFormula>Tabella19[[#This Row],[mTab]]*E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2" dataDxfId="43">
+    <tableColumn id="3" name="m2" dataDxfId="41">
       <calculatedColumnFormula>Tabella19[[#This Row],[m1]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m2meno" dataDxfId="42">
+    <tableColumn id="4" name="m2meno" dataDxfId="40">
       <calculatedColumnFormula>Tabella19[[#This Row],[m1]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3" dataDxfId="41">
+    <tableColumn id="5" name="m3" dataDxfId="39">
       <calculatedColumnFormula>Tabella19[[#This Row],[m2]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m3meno" dataDxfId="40">
+    <tableColumn id="6" name="m3meno" dataDxfId="38">
       <calculatedColumnFormula>Tabella19[[#This Row],[m2meno]]-10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4" dataDxfId="39">
+    <tableColumn id="7" name="m4" dataDxfId="37">
       <calculatedColumnFormula>Tabella19[[#This Row],[m3]]+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="m4meno" dataDxfId="38">
+    <tableColumn id="8" name="m4meno" dataDxfId="36">
       <calculatedColumnFormula>Tabella19[[#This Row],[m3meno]]-10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Φ_1"/>
@@ -4128,40 +4214,40 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabella21" displayName="Tabella21" ref="AQ35:BA55" totalsRowShown="0" headerRowDxfId="37" headerRowCellStyle="20% - Colore 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabella21" displayName="Tabella21" ref="AQ35:BA55" totalsRowShown="0" headerRowDxfId="35" headerRowCellStyle="20% - Colore 1">
   <autoFilter ref="AQ35:BA55"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="m1" dataDxfId="36">
+    <tableColumn id="1" name="m1" dataDxfId="34">
       <calculatedColumnFormula>Tabella18[[#This Row],[m1]]+(Tabella19[[#This Row],[m1]]-Tabella18[[#This Row],[m1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="m2" dataDxfId="35">
+    <tableColumn id="2" name="m2" dataDxfId="33">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2]]+(Tabella19[[#This Row],[m2]]-Tabella18[[#This Row],[m2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2meno" dataDxfId="34">
+    <tableColumn id="3" name="m2meno" dataDxfId="32">
       <calculatedColumnFormula>Tabella18[[#This Row],[m2meno]]+(Tabella19[[#This Row],[m2meno]]-Tabella18[[#This Row],[m2meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="m3" dataDxfId="33">
+    <tableColumn id="4" name="m3" dataDxfId="31">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3]]+(Tabella19[[#This Row],[m3]]-Tabella18[[#This Row],[m3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="m3meno" dataDxfId="32">
+    <tableColumn id="5" name="m3meno" dataDxfId="30">
       <calculatedColumnFormula>Tabella18[[#This Row],[m3meno]]+(Tabella19[[#This Row],[m3meno]]-Tabella18[[#This Row],[m3meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="m4" dataDxfId="31">
+    <tableColumn id="6" name="m4" dataDxfId="29">
       <calculatedColumnFormula>Tabella18[[#This Row],[m4]]+(Tabella19[[#This Row],[m4]]-Tabella18[[#This Row],[m4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="m4meno" dataDxfId="30">
+    <tableColumn id="7" name="m4meno" dataDxfId="28">
       <calculatedColumnFormula>Tabella18[[#This Row],[m4meno]]+(Tabella19[[#This Row],[m4meno]]-Tabella18[[#This Row],[m4meno]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Φ_1" dataDxfId="29">
+    <tableColumn id="8" name="Φ_1" dataDxfId="27">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_1]]+(Tabella19[[#This Row],[Φ_1]]-Tabella18[[#This Row],[Φ_1]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Φ_2" dataDxfId="28">
+    <tableColumn id="9" name="Φ_2" dataDxfId="26">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_2]]+(Tabella19[[#This Row],[Φ_2]]-Tabella18[[#This Row],[Φ_2]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Φ_3" dataDxfId="27">
+    <tableColumn id="10" name="Φ_3" dataDxfId="25">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_3]]+(Tabella19[[#This Row],[Φ_3]]-Tabella18[[#This Row],[Φ_3]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Φ_4" dataDxfId="26">
+    <tableColumn id="11" name="Φ_4" dataDxfId="24">
       <calculatedColumnFormula>Tabella18[[#This Row],[Φ_4]]+(Tabella19[[#This Row],[Φ_4]]-Tabella18[[#This Row],[Φ_4]])*((Tabella2[r = 1/λ]-1)/(2-1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4173,7 +4259,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabella22" displayName="Tabella22" ref="BC35:BC55" totalsRowShown="0">
   <autoFilter ref="BC35:BC55"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Φ_90" dataDxfId="1">
+    <tableColumn id="1" name="Φ_90" dataDxfId="23">
       <calculatedColumnFormula>Tabella21[[#This Row],[Φ_3]]+(Tabella21[[#This Row],[Φ_4]]-Tabella21[[#This Row],[Φ_3]])*(I7-Tabella21[[#This Row],[m3]])/(Tabella21[[#This Row],[m4]]-Tabella21[[#This Row],[m3]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4561,87 +4647,87 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
-      <c r="AD5" s="17" t="s">
+      <c r="AD5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AQ5" s="17" t="s">
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AQ5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
-      <c r="BA5" s="17"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -4810,7 +4896,7 @@
       <c r="D7">
         <v>9.8282834347781997E-2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>6.2349217073731601E-4</v>
       </c>
       <c r="F7">
@@ -8626,87 +8712,87 @@
       </c>
     </row>
     <row r="33" spans="17:55" x14ac:dyDescent="0.45">
-      <c r="Q33" s="16" t="s">
+      <c r="Q33" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="16"/>
-      <c r="AS33" s="16"/>
-      <c r="AT33" s="16"/>
-      <c r="AU33" s="16"/>
-      <c r="AV33" s="16"/>
-      <c r="AW33" s="16"/>
-      <c r="AX33" s="16"/>
-      <c r="AY33" s="16"/>
-      <c r="AZ33" s="16"/>
-      <c r="BA33" s="16"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17"/>
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="17"/>
+      <c r="AZ33" s="17"/>
+      <c r="BA33" s="17"/>
     </row>
     <row r="34" spans="17:55" x14ac:dyDescent="0.45">
-      <c r="R34" s="17" t="s">
+      <c r="R34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AD34" s="17" t="s">
+      <c r="AD34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
-      <c r="AQ34" s="17" t="s">
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="18"/>
+      <c r="AM34" s="18"/>
+      <c r="AN34" s="18"/>
+      <c r="AO34" s="18"/>
+      <c r="AQ34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AR34" s="17"/>
-      <c r="AS34" s="17"/>
-      <c r="AT34" s="17"/>
-      <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
-      <c r="AW34" s="17"/>
-      <c r="AX34" s="17"/>
-      <c r="AY34" s="17"/>
-      <c r="AZ34" s="17"/>
-      <c r="BA34" s="17"/>
+      <c r="AR34" s="18"/>
+      <c r="AS34" s="18"/>
+      <c r="AT34" s="18"/>
+      <c r="AU34" s="18"/>
+      <c r="AV34" s="18"/>
+      <c r="AW34" s="18"/>
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="18"/>
+      <c r="AZ34" s="18"/>
+      <c r="BA34" s="18"/>
     </row>
     <row r="35" spans="17:55" x14ac:dyDescent="0.45">
       <c r="Q35" s="7" t="s">
@@ -11536,7 +11622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
@@ -14230,8 +14316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
